--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="HK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>时间</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>光大银行</t>
+  </si>
+  <si>
+    <t>时富金融服务集团</t>
+  </si>
+  <si>
+    <t>中国燃气</t>
+  </si>
+  <si>
+    <t>协同通信</t>
   </si>
 </sst>
 </file>
@@ -155,8 +164,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -181,15 +196,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,13 +543,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -561,7 +582,7 @@
         <v>20150518</v>
       </c>
       <c r="B2" s="1">
-        <v>60585</v>
+        <v>600585</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -570,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
         <v>22.89</v>
       </c>
       <c r="G2" s="1">
-        <v>-6867</v>
+        <v>-2289</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -584,7 +605,7 @@
         <v>20150519</v>
       </c>
       <c r="B3" s="1">
-        <v>60585</v>
+        <v>600585</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -607,7 +628,7 @@
         <v>20150519</v>
       </c>
       <c r="B4" s="1">
-        <v>60818</v>
+        <v>600818</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -616,13 +637,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F4" s="1">
         <v>5.13</v>
       </c>
       <c r="G4" s="1">
-        <v>-2565</v>
+        <v>-1539</v>
       </c>
     </row>
   </sheetData>
@@ -638,15 +659,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="1">
+        <v>20150522</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1613</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-4720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="1">
+        <v>20150527</v>
+      </c>
+      <c r="B3" s="1">
+        <v>510</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="1">
+        <v>20150527</v>
+      </c>
+      <c r="B4" s="1">
+        <v>384</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13.12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-26240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="21">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="21">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="21">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="21">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="21">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="21">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="21">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="21">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="21">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="21">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" r:id="rId2"/>
+    <sheet name="总" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>协同通信</t>
+  </si>
+  <si>
+    <t>收</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>未付</t>
   </si>
 </sst>
 </file>
@@ -164,7 +177,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -180,8 +193,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,8 +210,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -204,6 +226,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -211,6 +234,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -662,7 +686,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,4 +1040,81 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>20150430</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>20150529</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>20150601</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-3500</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>时间</t>
   </si>
@@ -65,13 +65,7 @@
     <t>收</t>
   </si>
   <si>
-    <t>借</t>
-  </si>
-  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>未付</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1070,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1093,20 +1087,6 @@
       </c>
       <c r="C3" s="1">
         <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
-        <v>20150601</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-3500</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>58K - 66K</t>
+  </si>
+  <si>
+    <t>66K - 75K</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1049,7 +1055,7 @@
     <col min="1" max="1" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1077,6 +1083,9 @@
       <c r="C2" s="1">
         <v>700</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5">
@@ -1087,6 +1096,9 @@
       </c>
       <c r="C3" s="1">
         <v>900</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>时间</t>
   </si>
@@ -72,13 +72,37 @@
   </si>
   <si>
     <t>66K - 75K</t>
+  </si>
+  <si>
+    <t>中国人寿</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>涨停</t>
+  </si>
+  <si>
+    <t>安东油田服务</t>
+  </si>
+  <si>
+    <t>港交所</t>
+  </si>
+  <si>
+    <t>广发证券</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>涨2元补回交易成本</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +128,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Hiragino Sans GB W3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Hiragino Sans GB W3"/>
       <charset val="134"/>
@@ -177,7 +208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -195,8 +226,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,8 +276,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -227,6 +289,20 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -235,6 +311,20 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -578,7 +668,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" thickBot="1">
+    <row r="1" spans="1:8" ht="22" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,11 +687,14 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -624,7 +717,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -647,7 +740,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -668,6 +761,55 @@
       </c>
       <c r="G4" s="1">
         <v>-1539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>20150601</v>
+      </c>
+      <c r="B5" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-7076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>20150604</v>
+      </c>
+      <c r="B6" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>613</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,9 +836,10 @@
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" thickBot="1">
+    <row r="1" spans="1:9" ht="22" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,16 +853,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21">
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21">
       <c r="A2" s="1">
         <v>20150522</v>
       </c>
@@ -733,16 +882,20 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>8000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.59</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>-4720</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="21">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="21">
       <c r="A3" s="1">
         <v>20150527</v>
       </c>
@@ -756,16 +909,20 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
         <v>6000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.82</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>-4920</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="21">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="1">
         <v>20150527</v>
       </c>
@@ -779,61 +936,157 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>2000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>13.12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>-26240</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="21">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="21">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="21">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="21">
+      <c r="A5" s="1">
+        <v>20150601</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1613</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-9280</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="21">
+      <c r="A6" s="1">
+        <v>20150604</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3337</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-10440</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="21">
+      <c r="A7" s="1">
+        <v>20150604</v>
+      </c>
+      <c r="B7" s="1">
+        <v>388</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>200</v>
+      </c>
+      <c r="G7" s="1">
+        <v>296.8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-59360</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="21">
+      <c r="A8" s="1">
+        <v>20150605</v>
+      </c>
+      <c r="B8" s="1">
+        <v>388</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>294</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-29400</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="21">
+      <c r="A9" s="1">
+        <v>20150612</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1776</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-4620</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -841,8 +1094,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="21">
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -850,8 +1105,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="21">
+      <c r="H11" s="1"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -859,8 +1116,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="21">
+      <c r="H12" s="1"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="21">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -868,8 +1127,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="21">
+      <c r="H13" s="1"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -877,8 +1138,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="21">
+      <c r="H14" s="1"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="21">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -886,8 +1149,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21">
+      <c r="H15" s="1"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="21">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -895,8 +1160,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="21">
+      <c r="H16" s="1"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="21">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -904,8 +1171,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="21">
+      <c r="H17" s="1"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="21">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -913,8 +1182,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="21">
+      <c r="H18" s="1"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="21">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -922,8 +1193,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="21">
+      <c r="H19" s="1"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="21">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -931,8 +1204,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="21">
+      <c r="H20" s="1"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -940,8 +1215,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="21">
+      <c r="H21" s="1"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="21">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -949,8 +1226,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="21">
+      <c r="H22" s="1"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="21">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -958,8 +1237,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="21">
+      <c r="H23" s="1"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="21">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -967,8 +1248,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="21">
+      <c r="H24" s="1"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="21">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -976,8 +1259,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="21">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="21">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -985,8 +1269,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="21">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="21">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -994,8 +1279,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="21">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="21">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1003,8 +1289,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="21">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1012,8 +1299,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="21">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1021,8 +1309,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="21">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="21">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1030,6 +1319,17 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="21">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1046,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1081,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1095,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>时间</t>
   </si>
@@ -96,13 +96,32 @@
   </si>
   <si>
     <t>涨2元补回交易成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中信证券 </t>
+  </si>
+  <si>
+    <t>买重</t>
+  </si>
+  <si>
+    <t>粤海置地</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>不要以高于前一天收盘价买入
+注：前天收盘31.15.几次都如此</t>
+  </si>
+  <si>
+    <t>北京银行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +155,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Hiragino Sans GB W3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Hiragino Sans GB W3"/>
       <charset val="134"/>
     </font>
@@ -208,7 +233,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -254,8 +279,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,8 +324,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -303,6 +357,16 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -325,6 +389,16 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -665,10 +739,12 @@
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" thickBot="1">
+    <row r="1" spans="1:9" ht="22" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,11 +766,14 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -717,7 +796,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -740,7 +819,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -763,7 +842,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -786,7 +865,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -812,7 +891,133 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>20150616</v>
+      </c>
+      <c r="B7" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>35.17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-7034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>20150616</v>
+      </c>
+      <c r="B8" s="9">
+        <v>600030</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9">
+        <v>31.26</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-6252</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>20150616</v>
+      </c>
+      <c r="B9" s="9">
+        <v>600030</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-6240</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>20150617</v>
+      </c>
+      <c r="B10" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-6840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>20150617</v>
+      </c>
+      <c r="B11" s="1">
+        <v>601169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14.26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-7130</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -827,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1087,14 +1292,30 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="21">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="1">
+        <v>20150612</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-4080</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="21">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>时间</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>北京银行</t>
+  </si>
+  <si>
+    <t>中核科技</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>大跌，买入777</t>
+  </si>
+  <si>
+    <t>准备补仓</t>
   </si>
 </sst>
 </file>
@@ -233,8 +245,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,13 +346,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +385,9 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -399,6 +420,9 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -937,7 +961,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -966,7 +990,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -1012,6 +1036,29 @@
       </c>
       <c r="G11" s="1">
         <v>-7130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>20150619</v>
+      </c>
+      <c r="B12" s="1">
+        <v>777</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40.07</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-8019</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1066,6 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1554,7 +1600,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1565,18 +1610,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1595,7 +1640,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>20150430</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1609,7 +1654,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>20150529</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1622,8 +1667,37 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>20150619</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>20150622</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-260" yWindow="0" windowWidth="25520" windowHeight="12060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$20</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>时间</t>
   </si>
@@ -127,6 +130,56 @@
   </si>
   <si>
     <t>准备补仓</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>[BUY]  [150508 @ 13.47 - 150616 @ 14.27] [601169 sh.北京银行] 5.939 count: 27
+[SELL] [150403 @ 11.07 - 150507 @ 13.47] [601169 sh.北京银行] 21.680 count: 20
+如此纠结的买点。测试一下</t>
+  </si>
+  <si>
+    <t>[BUY]  [150427 @ 34.36 - 150619 @ 20.08] [601766 sh.中国中车] -41.560 count: 16
+[BUY]  [150420 @ 35.38 - 150625 @ 20.28] [601766 sh.中国中车] -42.679 count: 24
+[BUY]  [150609 @ 29.38 - 150626 @ 18.26] [601766 sh.中国中车] -37.849 count: 12
+买在了第二拍。或许该等下第三拍，仅差一天</t>
+  </si>
+  <si>
+    <t>买在了第三拍，以26日的收盘价买入。是不是买多了 ？因为又跌了</t>
+  </si>
+  <si>
+    <t>77-78K，虽然补了不少</t>
+  </si>
+  <si>
+    <t>补仓</t>
+  </si>
+  <si>
+    <t>吉电股份</t>
+  </si>
+  <si>
+    <t>买了又跌</t>
+  </si>
+  <si>
+    <t>联创光电</t>
+  </si>
+  <si>
+    <t>上证指数在6月5日提示次日买点，目前drop track value 3,底部还早。抄底太早</t>
+  </si>
+  <si>
+    <t>补仓777</t>
+  </si>
+  <si>
+    <t>补仓600363</t>
+  </si>
+  <si>
+    <t>降低成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海螺水泥 </t>
+  </si>
+  <si>
+    <t>降成本。低于买入价，但高于当下成本</t>
   </si>
 </sst>
 </file>
@@ -245,7 +298,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -317,8 +370,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,13 +427,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -388,6 +475,20 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -423,6 +524,20 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -752,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -764,7 +879,7 @@
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="103.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -961,7 +1076,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -990,7 +1105,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -1015,27 +1130,30 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+      <c r="A11" s="7">
         <v>20150617</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>601169</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
         <v>500</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>14.26</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>-7130</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1061,11 +1179,247 @@
         <v>-8019</v>
       </c>
     </row>
+    <row r="13" spans="1:9" ht="105">
+      <c r="A13" s="7">
+        <v>20150626</v>
+      </c>
+      <c r="B13" s="7">
+        <v>601766</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>300</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-6060</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7">
+        <v>20150629</v>
+      </c>
+      <c r="B14" s="7">
+        <v>601766</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <v>-7304</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>20150703</v>
+      </c>
+      <c r="B15" s="1">
+        <v>875</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-4725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>20150706</v>
+      </c>
+      <c r="B16" s="1">
+        <v>777</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>25.12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-5024</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>20150707</v>
+      </c>
+      <c r="B17" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-5510</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>20150709</v>
+      </c>
+      <c r="B18" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3598</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>20150710</v>
+      </c>
+      <c r="B19" s="1">
+        <v>600585</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22.21</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2210</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>20150710</v>
+      </c>
+      <c r="B20" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>36.35</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3635</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>20150710</v>
+      </c>
+      <c r="B21" s="7">
+        <v>601766</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <v>19.45</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1945</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C1:C20"/>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1079,7 +1433,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1610,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1621,7 +1975,7 @@
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1675,7 +2029,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -1689,10 +2043,80 @@
         <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>20150629</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>20150701</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>20150703</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>20150706</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>20150707</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="0" windowWidth="25520" windowHeight="12060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23600" windowHeight="12700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
+    <sheet name="A股经验" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -180,13 +181,22 @@
   </si>
   <si>
     <t>降成本。低于买入价，但高于当下成本</t>
+  </si>
+  <si>
+    <t>涨停，出</t>
+  </si>
+  <si>
+    <t>四连板，盈利44%。降低成本</t>
+  </si>
+  <si>
+    <t>大盘到了SELL后，可以考虑优先处理value=6的track?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +237,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Hiragino Sans GB W3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -298,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -398,8 +415,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,8 +463,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -489,6 +515,10 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -538,6 +568,10 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -867,10 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -958,7 +993,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -981,7 +1016,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1053,7 +1088,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1107,7 +1142,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1156,7 +1191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1206,7 +1241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1233,7 +1268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1386,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1413,8 +1448,66 @@
         <v>47</v>
       </c>
     </row>
+    <row r="22" spans="1:9" hidden="1">
+      <c r="A22" s="1">
+        <v>20150713</v>
+      </c>
+      <c r="B22" s="1">
+        <v>875</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="G22" s="1">
+        <v>977</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
+      <c r="A23" s="1">
+        <v>20150722</v>
+      </c>
+      <c r="B23" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3190</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C20"/>
+  <autoFilter ref="C1:C23">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="海螺水泥"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>
@@ -1433,7 +1526,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1967,7 +2060,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2121,7 +2214,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -11,9 +11,10 @@
     <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
+    <sheet name="日志" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$25</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>时间</t>
   </si>
@@ -190,6 +191,105 @@
   </si>
   <si>
     <t>大盘到了SELL后，可以考虑优先处理value=6的track?</t>
+  </si>
+  <si>
+    <t>减仓到7.8，准备买大盘股. 7月这只股票盈利12%，600左右，够了，清了</t>
+  </si>
+  <si>
+    <t>指数hit，买卖-1？</t>
+  </si>
+  <si>
+    <r>
+      <t>[BUY]  [150625 @ 2943.99 - 150722 @ 2739.79] [000016 sh.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50] -6.936 count: 19
+[SELL] [150708 @ 11040.89 - 150722 @ 13416.54] [399001 sz.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深证成指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] 21.517 count: 10
+[BUY]  [150625 @ 2943.99 - 150722 @ 2739.79] [000016 sh.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">50] -6.936 count: 19
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上证、深证触顶。与上证50背离
+7.27 上证跌8.5%（345点），收3725</t>
+    </r>
+  </si>
+  <si>
+    <t>没有想明白</t>
+  </si>
+  <si>
+    <t>大盘不好。响应僧哥的要求，减仓，留100股</t>
+  </si>
+  <si>
+    <t>78-88K</t>
   </si>
 </sst>
 </file>
@@ -315,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,8 +523,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,15 +565,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -519,6 +636,10 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +693,10 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -947,7 +1072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -970,7 +1095,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1111,7 +1236,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1140,7 +1265,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
@@ -1268,7 +1393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1369,7 +1494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1448,7 +1573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1500,11 +1625,63 @@
         <v>51</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>20150727</v>
+      </c>
+      <c r="B24" s="1">
+        <v>875</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>400</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4352</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
+      <c r="A25" s="1">
+        <v>20150728</v>
+      </c>
+      <c r="B25" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3270</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C23">
+  <autoFilter ref="C1:C25">
     <filterColumn colId="0">
       <filters>
-        <filter val="海螺水泥"/>
+        <filter val="吉电股份"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1512,7 +1689,6 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2057,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2212,6 +2388,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>20150731</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2224,20 +2414,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="12" t="s">
         <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="114.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="60">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23600" windowHeight="12700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="10680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
     <sheet name="日志" sheetId="5" r:id="rId5"/>
+    <sheet name="规则" sheetId="6" r:id="rId6"/>
+    <sheet name="安全资产" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>时间</t>
   </si>
@@ -289,7 +291,141 @@
     <t>大盘不好。响应僧哥的要求，减仓，留100股</t>
   </si>
   <si>
-    <t>78-88K</t>
+    <t>降成本，剩余100股</t>
+  </si>
+  <si>
+    <t>海螺水泥，清仓，because 僧哥，自身也有降低仓位的考虑。总结了以下，发现利润玩丢了不少</t>
+  </si>
+  <si>
+    <r>
+      <t>BUY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号</t>
+    </r>
+  </si>
+  <si>
+    <t>与现有成本没有拉开距离的话，不买，除非主动增加仓位</t>
+  </si>
+  <si>
+    <t>止盈</t>
+  </si>
+  <si>
+    <r>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。没有仓位压力的话可以放宽，等待SELL信号</t>
+    </r>
+  </si>
+  <si>
+    <t>止损</t>
+  </si>
+  <si>
+    <t>仓位</t>
+  </si>
+  <si>
+    <r>
+      <t>4-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成。</t>
+    </r>
+  </si>
+  <si>
+    <t>生命线</t>
+  </si>
+  <si>
+    <t>中的精神
+成本+仓位
+主动追求的是降低成本，控制仓位，盈利是副产品</t>
+  </si>
+  <si>
+    <t>7月6日买入的200股，盈利达到30%，止盈。
+[SELL] [150709 @ 21.56 - 150807 @ 30.85] [000777 sz.中核科技] 43.089 count: 21</t>
+  </si>
+  <si>
+    <t>78-86K</t>
+  </si>
+  <si>
+    <t>兰石重装</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>DROP TRACK
+------------------------------------------------------------
+[BUY]  [150625 @ 9.40 - 150814 @ 9.06] [600016 sh.民生银行] -3.617 count: 36
+[BUY]  [150630 @ 9.94 - 150814 @ 9.06] [600016 sh.民生银行] -8.853 count: 33
+DROP TRACK
+------------------------------------------------------------
+[RUN]  [150723 @ 9.65 - 150814 @ 9.06] [600016 sh.民生银行] -6.114 value:4 count: 16
+不知道是不是买的有点着急。收盘价8.96</t>
+  </si>
+  <si>
+    <t>DROP TRACK
+------------------------------------------------------------
+[BUY]  [150625 @ 5.39 - 150818 @ 4.24] [601818 sh.光大银行] -21.336 count: 38
+DROP TRACK
+------------------------------------------------------------
+[RUN]  [150710 @ 5.79 - 150818 @ 4.24] [601818 sh.光大银行] -26.770 value:7 count: 27</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>DROP TRACK
+------------------------------------------------------------
+[BUY]  [150710 @ 8.50 - 150819 @ 6.37] [601328 sh.交通银行] -25.059 count: 28
+DROP TRACK
+------------------------------------------------------------
+[RUN]  [150810 @ 7.02 - 150819 @ 6.37] [601328 sh.交通银行] -9.259 value:6 count:  7</t>
+  </si>
+  <si>
+    <t>少于15%，不考虑买</t>
+  </si>
+  <si>
+    <t>没有拉开成本。26日降低到3.43</t>
+  </si>
+  <si>
+    <t>北京银行是个好银行</t>
+  </si>
+  <si>
+    <t>两个涨停。稍微减仓吧</t>
+  </si>
+  <si>
+    <t>sb</t>
   </si>
 </sst>
 </file>
@@ -415,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,8 +667,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +745,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -582,7 +767,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -640,6 +825,23 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -697,6 +899,23 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1027,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1039,7 +1258,7 @@
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="103.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="109" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1236,7 +1455,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1265,7 +1484,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
@@ -1290,7 +1509,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1393,7 +1612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1573,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1625,7 +1844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1677,11 +1896,295 @@
         <v>58</v>
       </c>
     </row>
+    <row r="26" spans="1:9" hidden="1">
+      <c r="A26" s="1">
+        <v>20150805</v>
+      </c>
+      <c r="B26" s="1">
+        <v>600585</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1">
+        <v>21.53</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2153</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
+      <c r="A27" s="1">
+        <v>20150805</v>
+      </c>
+      <c r="B27" s="1">
+        <v>600585</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>21.21</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2121</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+      <c r="A28" s="7">
+        <v>20150810</v>
+      </c>
+      <c r="B28" s="7">
+        <v>777</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>6610</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+      <c r="A29" s="7">
+        <v>20150818</v>
+      </c>
+      <c r="B29" s="7">
+        <v>600016</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7">
+        <v>-1800</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+      <c r="A30" s="7">
+        <v>20150819</v>
+      </c>
+      <c r="B30" s="7">
+        <v>600818</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>300</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4.18</v>
+      </c>
+      <c r="G30" s="7">
+        <v>-1254</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+      <c r="A31" s="7">
+        <v>20150820</v>
+      </c>
+      <c r="B31" s="7">
+        <v>601328</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>300</v>
+      </c>
+      <c r="F31" s="7">
+        <v>6.34</v>
+      </c>
+      <c r="G31" s="7">
+        <v>-1902</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
+      <c r="A32" s="1">
+        <v>20150819</v>
+      </c>
+      <c r="B32" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>300</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
+      <c r="A33" s="1">
+        <v>20150821</v>
+      </c>
+      <c r="B33" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>300</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1251</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1">
+      <c r="A34" s="7">
+        <v>20150825</v>
+      </c>
+      <c r="B34" s="7">
+        <v>601169</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>200</v>
+      </c>
+      <c r="F34" s="7">
+        <v>7.18</v>
+      </c>
+      <c r="G34" s="7">
+        <v>-1436</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1"/>
+    <row r="36" spans="1:9" s="7" customFormat="1">
+      <c r="A36" s="7">
+        <v>20150828</v>
+      </c>
+      <c r="B36" s="7">
+        <v>601169</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7">
+        <v>100</v>
+      </c>
+      <c r="F36" s="7">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G36" s="7">
+        <v>870</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1">
+      <c r="A37" s="7">
+        <v>20150831</v>
+      </c>
+      <c r="B37" s="7">
+        <v>601169</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G37" s="7">
+        <v>862</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C25">
+  <autoFilter ref="C1:C35">
     <filterColumn colId="0">
       <filters>
-        <filter val="吉电股份"/>
+        <filter val="北京银行"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1689,6 +2192,7 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1702,7 +2206,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2236,7 +2740,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2399,7 +2903,7 @@
         <v>0.8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2477,4 +2981,305 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="45">
+      <c r="A1" s="16">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:7" ht="16" thickBot="1"/>
+    <row r="2" spans="2:7" ht="22" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19">
+        <v>603169</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="19">
+        <v>200</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-9.1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>21.3</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="19">
+        <v>601818</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19">
+        <v>200</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4.53</v>
+      </c>
+      <c r="G4" s="19">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="19">
+        <v>600363</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="19">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="F5" s="19">
+        <v>17.16</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -425,7 +425,7 @@
     <t>两个涨停。稍微减仓吧</t>
   </si>
   <si>
-    <t>sb</t>
+    <t>sb..</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2192,7 +2192,6 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="10680" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$38</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>时间</t>
   </si>
@@ -426,6 +426,22 @@
   </si>
   <si>
     <t>sb..</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>150930 @ 25.53]</t>
+  </si>
+  <si>
+    <t>[601628 sh.中国人寿]</t>
+  </si>
+  <si>
+    <t>count: 10</t>
+  </si>
+  <si>
+    <t>[BUY]  [150916 @ 27.43 - 150930 @ 25.53] [601628 sh.中国人寿] -6.927 count: 10
+目标：5个点卖出200股</t>
   </si>
 </sst>
 </file>
@@ -551,8 +567,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -767,7 +787,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -842,6 +862,8 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -916,6 +938,8 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1245,11 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1291,7 +1314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1360,7 +1383,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1383,7 +1406,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1409,7 +1432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1432,7 +1455,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1486,7 +1509,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1535,7 +1558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1558,7 +1581,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1585,7 +1608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1612,7 +1635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1635,7 +1658,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1661,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1687,7 +1710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1713,7 +1736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1739,7 +1762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1765,7 +1788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1792,7 +1815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1818,7 +1841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -1844,7 +1867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1870,7 +1893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -1896,7 +1919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -1922,7 +1945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -1948,7 +1971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -1974,7 +1997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2000,7 +2023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2026,7 +2049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2052,7 +2075,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2075,7 +2098,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>20150821</v>
       </c>
@@ -2101,7 +2124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1">
+    <row r="34" spans="1:14" s="7" customFormat="1">
       <c r="A34" s="7">
         <v>20150825</v>
       </c>
@@ -2127,8 +2150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1"/>
-    <row r="36" spans="1:9" s="7" customFormat="1">
+    <row r="36" spans="1:14" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150828</v>
       </c>
@@ -2154,7 +2176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1">
+    <row r="37" spans="1:14" s="7" customFormat="1">
       <c r="A37" s="7">
         <v>20150831</v>
       </c>
@@ -2180,18 +2202,54 @@
         <v>85</v>
       </c>
     </row>
+    <row r="38" spans="1:14" ht="42">
+      <c r="A38" s="1">
+        <v>20151008</v>
+      </c>
+      <c r="B38" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>300</v>
+      </c>
+      <c r="F38" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8002</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C35">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="北京银行"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C38"/>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="200" windowWidth="25360" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>时间</t>
   </si>
@@ -442,6 +442,9 @@
   <si>
     <t>[BUY]  [150916 @ 27.43 - 150930 @ 25.53] [601628 sh.中国人寿] -6.927 count: 10
 目标：5个点卖出200股</t>
+  </si>
+  <si>
+    <t>清仓。。。没有任何信号，因为恐慌。。这只股票，四个月赚了525</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,7 +792,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -864,6 +869,7 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -940,6 +946,7 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1269,10 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1314,7 +1322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1509,7 +1517,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -1945,7 +1953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -1997,7 +2005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2098,7 +2106,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="1">
         <v>20150821</v>
       </c>
@@ -2124,7 +2132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1">
+    <row r="34" spans="1:14" s="7" customFormat="1" hidden="1">
       <c r="A34" s="7">
         <v>20150825</v>
       </c>
@@ -2150,7 +2158,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1">
+    <row r="35" spans="1:14" hidden="1"/>
+    <row r="36" spans="1:14" s="7" customFormat="1" hidden="1">
       <c r="A36" s="7">
         <v>20150828</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="7" customFormat="1">
+    <row r="37" spans="1:14" s="7" customFormat="1" hidden="1">
       <c r="A37" s="7">
         <v>20150831</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="42">
+    <row r="38" spans="1:14" ht="42" hidden="1">
       <c r="A38" s="1">
         <v>20151008</v>
       </c>
@@ -2243,8 +2252,40 @@
         <v>89</v>
       </c>
     </row>
+    <row r="39" spans="1:14" s="7" customFormat="1">
+      <c r="A39" s="7">
+        <v>20151014</v>
+      </c>
+      <c r="B39" s="7">
+        <v>777</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="7">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7">
+        <v>34.79</v>
+      </c>
+      <c r="G39" s="7">
+        <v>6958</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C38"/>
+  <autoFilter ref="C1:C38">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="中核科技"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="200" windowWidth="25360" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
   <si>
     <t>时间</t>
   </si>
@@ -445,6 +445,24 @@
   </si>
   <si>
     <t>清仓。。。没有任何信号，因为恐慌。。这只股票，四个月赚了525</t>
+  </si>
+  <si>
+    <t>27元止损。</t>
+  </si>
+  <si>
+    <t>折腾了一下，投入8k，赚了100块，呵呵</t>
+  </si>
+  <si>
+    <t>151102 @ 6.23]</t>
+  </si>
+  <si>
+    <t>[601328 sh.交通银行]</t>
+  </si>
+  <si>
+    <t>count:  8</t>
+  </si>
+  <si>
+    <t>[BUY]  [151021 @ 6.67 - 151102 @ 6.23] [601328 sh.交通银行] -6.597 count:  8</t>
   </si>
 </sst>
 </file>
@@ -570,8 +588,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -792,7 +816,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -870,6 +894,9 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -947,6 +974,9 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,11 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1322,7 +1351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1345,7 +1374,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1391,7 +1420,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1414,7 +1443,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1440,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1463,7 +1492,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1490,7 +1519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1517,7 +1546,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1540,7 +1569,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1589,7 +1618,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1616,7 +1645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1643,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1692,7 +1721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1718,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1770,7 +1799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1796,7 +1825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1823,7 +1852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1849,7 +1878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -1875,7 +1904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1901,7 +1930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -1927,7 +1956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2005,7 +2034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2031,7 +2060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2106,7 +2135,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>20150821</v>
       </c>
@@ -2132,7 +2161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="34" spans="1:14" s="7" customFormat="1">
       <c r="A34" s="7">
         <v>20150825</v>
       </c>
@@ -2158,8 +2187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1"/>
-    <row r="36" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="36" spans="1:14" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150828</v>
       </c>
@@ -2185,7 +2213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="37" spans="1:14" s="7" customFormat="1">
       <c r="A37" s="7">
         <v>20150831</v>
       </c>
@@ -2211,7 +2239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="42" hidden="1">
+    <row r="38" spans="1:14" ht="42">
       <c r="A38" s="1">
         <v>20151008</v>
       </c>
@@ -2231,7 +2259,7 @@
         <v>26.67</v>
       </c>
       <c r="G38" s="1">
-        <v>8002</v>
+        <v>-8002</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>90</v>
@@ -2278,14 +2306,131 @@
         <v>91</v>
       </c>
     </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>20151020</v>
+      </c>
+      <c r="B40" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5396</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>20151021</v>
+      </c>
+      <c r="B41" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>27.25</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2725</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1">
+      <c r="A42" s="7">
+        <v>20151103</v>
+      </c>
+      <c r="B42" s="7">
+        <v>601328</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="7">
+        <v>300</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="G42" s="7">
+        <v>-1857</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" s="7">
+        <v>-6.5970000000000004</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C38">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="中核科技"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C42"/>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>
@@ -2838,7 +2983,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24260" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>时间</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>[BUY]  [151021 @ 6.67 - 151102 @ 6.23] [601328 sh.交通银行] -6.597 count:  8</t>
+  </si>
+  <si>
+    <t>无他。一个是止盈，4.17-4.64，涨了10%。另一个是，剩余200股的成本降低到-0.3</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -816,7 +821,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -897,6 +902,7 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -977,6 +983,7 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1306,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2427,6 +2434,32 @@
       </c>
       <c r="N42" s="7" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>20151109</v>
+      </c>
+      <c r="B43" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1">
+        <v>300</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1392</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +3016,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24260" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="99">
   <si>
     <t>时间</t>
   </si>
@@ -416,9 +416,6 @@
     <t>少于15%，不考虑买</t>
   </si>
   <si>
-    <t>没有拉开成本。26日降低到3.43</t>
-  </si>
-  <si>
     <t>北京银行是个好银行</t>
   </si>
   <si>
@@ -465,7 +462,11 @@
     <t>[BUY]  [151021 @ 6.67 - 151102 @ 6.23] [601328 sh.交通银行] -6.597 count:  8</t>
   </si>
   <si>
-    <t>无他。一个是止盈，4.17-4.64，涨了10%。另一个是，剩余200股的成本降低到-0.3</t>
+    <t>无他。一个是止盈，4.17-4.64，涨了10%。另一个是，剩余200股的成本降低到-0.3
+实际成交1392.为了平衡金额修改了</t>
+  </si>
+  <si>
+    <t>趋势不好。港A股比例不对</t>
   </si>
 </sst>
 </file>
@@ -591,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -755,8 +756,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,13 +818,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -903,6 +909,7 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -984,6 +991,7 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1313,10 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1358,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1522,11 +1531,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1551,9 +1560,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1806,7 +1815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2142,61 +2151,62 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1">
-        <v>20150821</v>
-      </c>
-      <c r="B33" s="1">
-        <v>600818</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="33" spans="1:14" s="7" customFormat="1" hidden="1">
+      <c r="A33" s="7">
+        <v>20150825</v>
+      </c>
+      <c r="B33" s="7">
+        <v>601169</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="1">
-        <v>300</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-1251</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="E33" s="7">
+        <v>200</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7.18</v>
+      </c>
+      <c r="G33" s="7">
+        <v>-1436</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1">
-      <c r="A34" s="7">
-        <v>20150825</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="34" spans="1:14" hidden="1"/>
+    <row r="35" spans="1:14" s="7" customFormat="1" hidden="1">
+      <c r="A35" s="7">
+        <v>20150828</v>
+      </c>
+      <c r="B35" s="7">
         <v>601169</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7">
-        <v>200</v>
-      </c>
-      <c r="F34" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="G34" s="7">
-        <v>-1436</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7">
+        <v>100</v>
+      </c>
+      <c r="F35" s="7">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G35" s="7">
+        <v>870</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1">
+    <row r="36" spans="1:14" s="7" customFormat="1" hidden="1">
       <c r="A36" s="7">
-        <v>20150828</v>
+        <v>20150831</v>
       </c>
       <c r="B36" s="7">
         <v>601169</v>
@@ -2211,111 +2221,126 @@
         <v>100</v>
       </c>
       <c r="F36" s="7">
-        <v>8.7100000000000009</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="G36" s="7">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="7" customFormat="1">
-      <c r="A37" s="7">
-        <v>20150831</v>
-      </c>
-      <c r="B37" s="7">
-        <v>601169</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="7" t="s">
+    <row r="37" spans="1:14" ht="42" hidden="1">
+      <c r="A37" s="1">
+        <v>20151008</v>
+      </c>
+      <c r="B37" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>300</v>
+      </c>
+      <c r="F37" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-8002</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1" hidden="1">
+      <c r="A38" s="7">
+        <v>20151014</v>
+      </c>
+      <c r="B38" s="7">
+        <v>777</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="7">
-        <v>100</v>
-      </c>
-      <c r="F37" s="7">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="G37" s="7">
-        <v>862</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="E38" s="7">
+        <v>200</v>
+      </c>
+      <c r="F38" s="7">
+        <v>34.79</v>
+      </c>
+      <c r="G38" s="7">
+        <v>6958</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1">
+      <c r="A39" s="1">
+        <v>20151020</v>
+      </c>
+      <c r="B39" s="1">
+        <v>601628</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5396</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="42">
-      <c r="A38" s="1">
-        <v>20151008</v>
-      </c>
-      <c r="B38" s="1">
-        <v>601628</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1">
-        <v>300</v>
-      </c>
-      <c r="F38" s="1">
-        <v>26.67</v>
-      </c>
-      <c r="G38" s="1">
-        <v>-8002</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M39" s="1">
+        <v>-6.9269999999999996</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="1">
-        <v>-6.9269999999999996</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="7" customFormat="1">
-      <c r="A39" s="7">
-        <v>20151014</v>
-      </c>
-      <c r="B39" s="7">
-        <v>777</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="7">
-        <v>200</v>
-      </c>
-      <c r="F39" s="7">
-        <v>34.79</v>
-      </c>
-      <c r="G39" s="7">
-        <v>6958</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40" s="1">
-        <v>20151020</v>
+        <v>20151021</v>
       </c>
       <c r="B40" s="1">
         <v>601628</v>
@@ -2327,143 +2352,149 @@
         <v>18</v>
       </c>
       <c r="E40" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F40" s="1">
-        <v>26.98</v>
+        <v>27.25</v>
       </c>
       <c r="G40" s="1">
-        <v>5396</v>
+        <v>2725</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="M40" s="1">
         <v>-6.9269999999999996</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1">
-        <v>20151021</v>
-      </c>
-      <c r="B41" s="1">
-        <v>601628</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1" hidden="1">
+      <c r="A41" s="7">
+        <v>20151103</v>
+      </c>
+      <c r="B41" s="7">
+        <v>601328</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>300</v>
+      </c>
+      <c r="F41" s="7">
+        <v>6.19</v>
+      </c>
+      <c r="G41" s="7">
+        <v>-1857</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-6.5970000000000004</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="42">
+      <c r="A42" s="1">
+        <v>20151109</v>
+      </c>
+      <c r="B42" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="1">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1">
-        <v>27.25</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2725</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="E42" s="1">
+        <v>300</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="7" customFormat="1" hidden="1">
+      <c r="A43" s="7">
+        <v>20151112</v>
+      </c>
+      <c r="B43" s="7">
+        <v>601328</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="7">
+        <v>500</v>
+      </c>
+      <c r="F43" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="G43" s="7">
+        <v>3375</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="1">
-        <v>-6.9269999999999996</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="7" customFormat="1">
-      <c r="A42" s="7">
-        <v>20151103</v>
-      </c>
-      <c r="B42" s="7">
-        <v>601328</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="7">
-        <v>300</v>
-      </c>
-      <c r="F42" s="7">
-        <v>6.19</v>
-      </c>
-      <c r="G42" s="7">
-        <v>-1857</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M43" s="7">
+        <v>-6.5970000000000004</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M42" s="7">
-        <v>-6.5970000000000004</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1">
-        <v>20151109</v>
-      </c>
-      <c r="B43" s="1">
-        <v>600818</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1">
-        <v>300</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1392</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C42"/>
+  <autoFilter ref="C1:C43">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="光大银行"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
   <si>
     <t>时间</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>趋势不好。港A股比例不对</t>
+  </si>
+  <si>
+    <t>86-89K</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -827,7 +832,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -910,6 +915,7 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -992,6 +998,7 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1324,8 +1331,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1413,7 +1420,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="41" spans="1:14" s="7" customFormat="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="42">
+    <row r="42" spans="1:14" ht="42" hidden="1">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2446,7 +2453,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="43" spans="1:14" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2491,7 +2498,7 @@
   <autoFilter ref="C1:C43">
     <filterColumn colId="0">
       <filters>
-        <filter val="光大银行"/>
+        <filter val="交通银行"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2499,7 +2506,6 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3044,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -3213,8 +3219,23 @@
         <v>71</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>20150731</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>时间</t>
   </si>
@@ -470,6 +470,29 @@
   </si>
   <si>
     <t>86-89K</t>
+  </si>
+  <si>
+    <t>[BUY]  [151111 @ 10.54</t>
+  </si>
+  <si>
+    <t>151130 @ 9.05]</t>
+  </si>
+  <si>
+    <t>[600583 sh.海油工程]</t>
+  </si>
+  <si>
+    <t>count: 13</t>
+  </si>
+  <si>
+    <t>海油工程</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>[BUY]  [151105 @ 7.07 - 151201 @ 6.21] [600050 sh.中国联通] -12.164 count: 18
+[BUY]  [151109 @ 7.06 - 151201 @ 6.21] [600050 sh.中国联通] -12.040 count: 16
+双杀？</t>
   </si>
 </sst>
 </file>
@@ -595,7 +618,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -763,8 +786,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,8 +856,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -916,6 +944,7 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -999,6 +1028,7 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1328,11 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1374,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1397,7 +1426,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1420,7 +1449,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1443,7 +1472,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1466,7 +1495,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1492,7 +1521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1515,7 +1544,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1542,7 +1571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1569,7 +1598,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1618,7 +1647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1641,7 +1670,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1668,7 +1697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1695,7 +1724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1718,7 +1747,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1770,7 +1799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1796,7 +1825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -1822,7 +1851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1848,7 +1877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -1875,7 +1904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -1901,7 +1930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -1927,7 +1956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -1979,7 +2008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2005,7 +2034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2031,7 +2060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2057,7 +2086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2135,7 +2164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2158,7 +2187,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="33" spans="1:14" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2184,8 +2213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1"/>
-    <row r="35" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="35" spans="1:14" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2211,7 +2239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="36" spans="1:14" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2237,7 +2265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="42" hidden="1">
+    <row r="37" spans="1:14" ht="42">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2278,7 +2306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" hidden="1">
+    <row r="38" spans="1:14" s="7" customFormat="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2304,7 +2332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2345,7 +2373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="42" hidden="1">
+    <row r="42" spans="1:14" ht="42">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2494,18 +2522,80 @@
         <v>95</v>
       </c>
     </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>20151201</v>
+      </c>
+      <c r="B44" s="1">
+        <v>600583</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-1826</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-14.137</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="7" customFormat="1" ht="63">
+      <c r="A45" s="7">
+        <v>20151202</v>
+      </c>
+      <c r="B45" s="7">
+        <v>600050</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7">
+        <v>300</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="G45" s="7">
+        <v>-1866</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C43">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="交通银行"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C43"/>
   <mergeCells count="1">
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3052,13 +3142,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
@@ -3221,7 +3311,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>20150731</v>
+        <v>201501127</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -3235,7 +3325,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
   <si>
     <t>时间</t>
   </si>
@@ -493,6 +493,19 @@
     <t>[BUY]  [151105 @ 7.07 - 151201 @ 6.21] [600050 sh.中国联通] -12.164 count: 18
 [BUY]  [151109 @ 7.06 - 151201 @ 6.21] [600050 sh.中国联通] -12.040 count: 16
 双杀？</t>
+  </si>
+  <si>
+    <t>151203 @ 3584.82]</t>
+  </si>
+  <si>
+    <t>[000001 sh.上证指数]</t>
+  </si>
+  <si>
+    <t>count: 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SELL] [151015 @ 3338.07 - 151203 @ 3584.82] [000001 sh.上证指数] 7.392 count: 35
+</t>
   </si>
 </sst>
 </file>
@@ -618,8 +631,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,16 +868,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -945,6 +962,8 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1029,6 +1048,8 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1358,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="G33" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1567,7 +1588,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1596,7 +1617,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -2585,9 +2606,74 @@
       <c r="G45" s="7">
         <v>-1866</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="22" t="s">
         <v>106</v>
       </c>
+    </row>
+    <row r="46" spans="1:14" ht="42">
+      <c r="A46" s="1">
+        <v>20151204</v>
+      </c>
+      <c r="B46" s="1">
+        <v>600583</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1874</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="7" customFormat="1">
+      <c r="A47" s="7">
+        <v>20151204</v>
+      </c>
+      <c r="B47" s="7">
+        <v>600050</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="7">
+        <v>300</v>
+      </c>
+      <c r="F47" s="7">
+        <v>6.35</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1905</v>
+      </c>
+      <c r="I47" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C43"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="日志" sheetId="5" r:id="rId5"/>
     <sheet name="规则" sheetId="6" r:id="rId6"/>
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
+    <sheet name="拆借" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>时间</t>
   </si>
@@ -506,6 +507,44 @@
   <si>
     <t xml:space="preserve">[SELL] [151015 @ 3338.07 - 151203 @ 3584.82] [000001 sh.上证指数] 7.392 count: 35
 </t>
+  </si>
+  <si>
+    <r>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元/d/w</t>
+    </r>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>拆出</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>[RUN]  [151021 @ 18.69 - 151210 @ 17.26] [600036 sh.招商银行] -7.651 value:7 count: 36
+[RUN]  [151109 @ 19.08 - 151210 @ 17.26] [600036 sh.招商银行] -9.539 value:7 count: 23</t>
+  </si>
+  <si>
+    <t>预计今天触底，应该是下周一买入。提前操作，合适不？
+如果下周再跌，再补仓200吧。不知道是不是教训</t>
+  </si>
+  <si>
+    <t>只看到H/A倒挂。。。套ing.交易日中继续跌</t>
+  </si>
+  <si>
+    <t>双杀。11日冲动了，今天才是复合纪律的买入。。。</t>
   </si>
 </sst>
 </file>
@@ -577,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -630,8 +669,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -805,8 +853,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,13 +933,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -964,6 +1041,13 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1050,6 +1134,13 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1379,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="I39" workbookViewId="0">
+      <selection activeCell="L53" activeCellId="1" sqref="K50:P50 L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1588,7 +1679,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1617,7 +1708,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -2208,7 +2299,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="7" customFormat="1">
+    <row r="33" spans="1:16" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2234,7 +2325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="7" customFormat="1">
+    <row r="35" spans="1:16" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2260,7 +2351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1">
+    <row r="36" spans="1:16" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2286,7 +2377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="42">
+    <row r="37" spans="1:16" ht="42">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2327,7 +2418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1">
+    <row r="38" spans="1:16" s="7" customFormat="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2353,7 +2444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2394,7 +2485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2435,7 +2526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="7" customFormat="1">
+    <row r="41" spans="1:16" s="7" customFormat="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2476,7 +2567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="42">
+    <row r="42" spans="1:16" ht="42">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2502,7 +2593,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="7" customFormat="1">
+    <row r="43" spans="1:16" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2543,7 +2634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2584,7 +2675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" ht="63">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2610,14 +2701,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="42">
+    <row r="46" spans="1:16" ht="42">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
       <c r="B46" s="1">
         <v>600583</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="23" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2651,7 +2742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="7" customFormat="1">
+    <row r="47" spans="1:16" s="7" customFormat="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2675,10 +2766,104 @@
       </c>
       <c r="I47" s="22"/>
     </row>
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
+      <c r="A48" s="7">
+        <v>20151211</v>
+      </c>
+      <c r="B48" s="7">
+        <v>600036</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7">
+        <v>200</v>
+      </c>
+      <c r="F48" s="7">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="G48" s="7">
+        <v>-3394</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="23">
+        <v>20151211</v>
+      </c>
+      <c r="B49" s="1">
+        <v>600585</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>300</v>
+      </c>
+      <c r="F49" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-5046</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="23" customFormat="1">
+      <c r="A50" s="23">
+        <v>20151214</v>
+      </c>
+      <c r="B50" s="23">
+        <v>600036</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="23">
+        <v>300</v>
+      </c>
+      <c r="F50" s="23">
+        <v>16.53</v>
+      </c>
+      <c r="G50" s="23">
+        <v>-4959</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C43"/>
-  <mergeCells count="1">
+  <autoFilter ref="C1:C49"/>
+  <mergeCells count="3">
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="K50:P50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3785,4 +3970,60 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="22" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1">
+      <c r="A4" s="19">
+        <v>20151207</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -17,7 +17,7 @@
     <sheet name="拆借" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="121">
   <si>
     <t>时间</t>
   </si>
@@ -545,6 +545,13 @@
   </si>
   <si>
     <t>双杀。11日冲动了，今天才是复合纪律的买入。。。</t>
+  </si>
+  <si>
+    <t>小赚就走了。。。大盘双杀，回光返照，不亏已经谢天谢地了</t>
+  </si>
+  <si>
+    <t>小赚就走了。。。
+看不懂，为什么A股的价格比港股还低，背后到底是什么？</t>
   </si>
 </sst>
 </file>
@@ -679,7 +686,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -867,8 +874,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +950,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -954,7 +971,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1048,6 +1065,8 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1141,6 +1160,8 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1470,16 +1491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I39" workbookViewId="0">
-      <selection activeCell="L53" activeCellId="1" sqref="K50:P50 L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="109" style="1" customWidth="1"/>
@@ -1490,7 +1512,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1519,7 +1541,7 @@
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="26">
         <v>600585</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1542,7 +1564,7 @@
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="26">
         <v>600585</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1561,7 +1583,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1584,7 +1606,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1607,7 +1629,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1633,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1679,11 +1701,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1708,9 +1730,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1836,7 +1858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1885,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1911,7 +1933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1941,7 +1963,7 @@
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="26">
         <v>600585</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1963,7 +1985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2016,7 +2038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2068,7 +2090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2094,7 +2116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2124,7 +2146,7 @@
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="26">
         <v>600585</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2150,7 +2172,7 @@
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="26">
         <v>600585</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2172,7 +2194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2198,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2250,7 +2272,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2276,7 +2298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2299,7 +2321,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1">
+    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2325,7 +2347,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="34" spans="1:16" hidden="1">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2351,7 +2376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1">
+    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42">
+    <row r="37" spans="1:16" ht="42" hidden="1">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1">
+    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2526,7 +2551,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1">
+    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2567,7 +2592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42">
+    <row r="42" spans="1:16" ht="42" hidden="1">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2593,7 +2618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1">
+    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2634,7 +2659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2675,7 +2700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2701,7 +2726,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42">
+    <row r="46" spans="1:16" ht="42" hidden="1">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -2742,7 +2767,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1">
+    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2766,7 +2791,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -2791,20 +2816,20 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K48" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="26">
         <v>600585</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2826,7 +2851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1">
+    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -2851,19 +2876,84 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" spans="1:16" ht="42">
+      <c r="A51" s="26">
+        <v>20151215</v>
+      </c>
+      <c r="B51" s="26">
+        <v>600585</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1">
+        <v>300</v>
+      </c>
+      <c r="F51" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5097</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
+      <c r="A52" s="26">
+        <v>20151214</v>
+      </c>
+      <c r="B52" s="26">
+        <v>600036</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="26">
+        <v>500</v>
+      </c>
+      <c r="F52" s="26">
+        <v>16.98</v>
+      </c>
+      <c r="G52" s="26">
+        <v>8490</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C49"/>
-  <mergeCells count="3">
+  <autoFilter ref="C1:C52">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="海螺水泥"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
     <mergeCell ref="K50:P50"/>
+    <mergeCell ref="K52:P52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3977,18 +4067,18 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="规则" sheetId="6" r:id="rId6"/>
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
     <sheet name="拆借" sheetId="8" r:id="rId8"/>
+    <sheet name="纪律" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
   <si>
     <t>时间</t>
   </si>
@@ -552,6 +553,53 @@
   <si>
     <t>小赚就走了。。。
 看不懂，为什么A股的价格比港股还低，背后到底是什么？</t>
+  </si>
+  <si>
+    <t>没有信号。恐慌年前的行情。解套就卖了.</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>起点</t>
+  </si>
+  <si>
+    <t>每日</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>指数SELL信号，3个交易日内不做买入</t>
+  </si>
+  <si>
+    <t>指数BUG信号，3个交易日内不做卖出</t>
+  </si>
+  <si>
+    <r>
+      <t>[SELL] [151118 @ 12283.76 - 151221 @ 13028.31] [399001 sz.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深证成指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] 6.061 count: 23
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -686,7 +734,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -878,8 +926,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,6 +1008,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -970,8 +1025,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1067,6 +1125,8 @@
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1162,6 +1222,8 @@
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1491,11 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1583,7 +1644,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1606,7 +1667,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1629,7 +1690,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1655,7 +1716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1678,7 +1739,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1701,11 +1762,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1730,9 +1791,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" hidden="1">
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1755,7 +1816,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1781,7 +1842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1804,7 +1865,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1831,7 +1892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1858,7 +1919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1881,7 +1942,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1907,7 +1968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1933,7 +1994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -1985,7 +2046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2011,7 +2072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2038,7 +2099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2064,7 +2125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2090,7 +2151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2116,7 +2177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2194,7 +2255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2220,7 +2281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2246,7 +2307,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2272,7 +2333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2298,7 +2359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2321,7 +2382,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="33" spans="1:16" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2347,10 +2408,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="35" spans="1:16" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2376,7 +2437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="36" spans="1:16" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2402,7 +2463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42" hidden="1">
+    <row r="37" spans="1:16" ht="42">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2443,7 +2504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="38" spans="1:16" s="7" customFormat="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2469,7 +2530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2510,7 +2571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2551,7 +2612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="41" spans="1:16" s="7" customFormat="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2592,7 +2653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42" hidden="1">
+    <row r="42" spans="1:16" ht="42">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2618,7 +2679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="43" spans="1:16" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2659,7 +2720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2700,7 +2761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2726,7 +2787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42" hidden="1">
+    <row r="46" spans="1:16" ht="42">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -2767,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="47" spans="1:16" s="7" customFormat="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2791,7 +2852,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -2816,14 +2877,14 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="K48" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="23">
@@ -2851,7 +2912,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
+    <row r="50" spans="1:16" s="23" customFormat="1">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -2876,12 +2937,12 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
     </row>
     <row r="51" spans="1:16" ht="42">
       <c r="A51" s="26">
@@ -2909,7 +2970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
+    <row r="52" spans="1:16" s="26" customFormat="1">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -2934,21 +2995,41 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1">
+      <c r="A53" s="27">
+        <v>20151218</v>
+      </c>
+      <c r="B53" s="27">
+        <v>600016</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="27">
+        <v>200</v>
+      </c>
+      <c r="F53" s="27">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="G53" s="27">
+        <v>1876</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C52">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="海螺水泥"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C53"/>
   <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
@@ -2956,7 +3037,6 @@
     <mergeCell ref="K52:P52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3763,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3837,6 +3917,19 @@
       </c>
       <c r="C6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="60">
+      <c r="C7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4064,23 +4157,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:6" ht="16" thickBot="1">
+      <c r="A2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22" thickBot="1">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4088,13 +4184,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="19" customFormat="1">
+    </row>
+    <row r="4" spans="1:6" s="19" customFormat="1">
       <c r="A4" s="19">
         <v>20151207</v>
       </c>
@@ -4103,6 +4205,29 @@
       </c>
       <c r="C4" s="20" t="s">
         <v>113</v>
+      </c>
+      <c r="D4" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="19" customFormat="1">
+      <c r="A5" s="19">
+        <v>20151218</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="19">
+        <v>30011</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -4116,4 +4241,29 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$56</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="132">
   <si>
     <t>时间</t>
   </si>
@@ -600,6 +600,15 @@
       <t xml:space="preserve">] 6.061 count: 23
 </t>
     </r>
+  </si>
+  <si>
+    <t>上海石化</t>
+  </si>
+  <si>
+    <t>东风汽车</t>
+  </si>
+  <si>
+    <t>触发：跌到8.70卖</t>
   </si>
 </sst>
 </file>
@@ -734,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -930,8 +939,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1011,6 +1024,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1025,11 +1044,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1127,6 +1143,8 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1224,6 +1242,8 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1553,10 +1573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1598,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1644,7 +1665,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1667,7 +1688,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1739,7 +1760,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1762,11 +1783,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1791,9 +1812,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1816,7 +1837,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1865,7 +1886,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1919,7 +1940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1942,7 +1963,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1968,7 +1989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -1994,7 +2015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2020,7 +2041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2046,7 +2067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2072,7 +2093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2099,7 +2120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2125,7 +2146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2151,7 +2172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2229,7 +2250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2255,7 +2276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2307,7 +2328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1">
+    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2408,10 +2429,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2437,7 +2458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1">
+    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2463,7 +2484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42">
+    <row r="37" spans="1:16" ht="42" hidden="1">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1">
+    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2530,7 +2551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2571,7 +2592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2612,7 +2633,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1">
+    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2653,7 +2674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42">
+    <row r="42" spans="1:16" ht="42" hidden="1">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1">
+    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2720,7 +2741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2761,7 +2782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2787,7 +2808,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42">
+    <row r="46" spans="1:16" ht="42" hidden="1">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -2828,7 +2849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1">
+    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2852,7 +2873,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -2877,16 +2898,16 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="30" t="s">
+      <c r="K48" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+    </row>
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1">
+    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -2937,14 +2958,14 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-    </row>
-    <row r="51" spans="1:16" ht="42">
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+    </row>
+    <row r="51" spans="1:16" ht="42" hidden="1">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -2970,7 +2991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1">
+    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -2995,12 +3016,12 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1">
       <c r="A53" s="27">
@@ -3028,8 +3049,86 @@
         <v>121</v>
       </c>
     </row>
+    <row r="54" spans="1:16" hidden="1">
+      <c r="A54" s="1">
+        <v>20151223</v>
+      </c>
+      <c r="B54" s="26">
+        <v>600668</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>600</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-4074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1">
+      <c r="A55" s="1">
+        <v>20151225</v>
+      </c>
+      <c r="B55" s="28">
+        <v>600668</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1">
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" hidden="1">
+      <c r="A56" s="1">
+        <v>20151225</v>
+      </c>
+      <c r="B56" s="28">
+        <v>600006</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>300</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-2592</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C53"/>
+  <autoFilter ref="C1:C56">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="民生银行"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
@@ -3584,7 +3683,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -3845,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3923,7 +4022,7 @@
       <c r="C7" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4160,7 +4259,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4169,12 +4268,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>时间</t>
   </si>
@@ -608,7 +608,26 @@
     <t>东风汽车</t>
   </si>
   <si>
-    <t>触发：跌到8.70卖</t>
+    <t>触发：跌到8.70卖
+20151229 设定止损：8.75</t>
+  </si>
+  <si>
+    <t>上港集团</t>
+  </si>
+  <si>
+    <t>[BUY]  [151126 @ 7.20 - 151229 @ 6.55] [600018 sh.上港集团] -9.028 count: 23</t>
+  </si>
+  <si>
+    <t>89-90K</t>
+  </si>
+  <si>
+    <t>更改</t>
+  </si>
+  <si>
+    <t>包钢股份</t>
+  </si>
+  <si>
+    <t>[BUY]  [151109 @ 6.03 - 151231 @ 5.58] [600019 sh.宝钢股份] -7.463 count: 38</t>
   </si>
 </sst>
 </file>
@@ -743,8 +762,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="199">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1045,7 +1068,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="199">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1145,6 +1168,8 @@
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1244,6 +1269,8 @@
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1573,11 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1619,7 +1645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1642,7 +1668,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1665,7 +1691,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1688,7 +1714,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1711,7 +1737,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1737,7 +1763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1760,7 +1786,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1787,7 +1813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1814,7 +1840,7 @@
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1837,7 +1863,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1863,7 +1889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1886,7 +1912,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="105">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -1940,7 +1966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -1963,7 +1989,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -1989,7 +2015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2041,7 +2067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2067,7 +2093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2093,7 +2119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2120,7 +2146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2146,7 +2172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2172,7 +2198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2198,7 +2224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2224,7 +2250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2250,7 +2276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2276,7 +2302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2328,7 +2354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2380,7 +2406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2403,7 +2429,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="33" spans="1:16" s="7" customFormat="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2429,10 +2455,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="35" spans="1:16" s="7" customFormat="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2458,7 +2484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="36" spans="1:16" s="7" customFormat="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2484,7 +2510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42" hidden="1">
+    <row r="37" spans="1:16" ht="42">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2525,7 +2551,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="38" spans="1:16" s="7" customFormat="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2551,7 +2577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2592,7 +2618,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2633,7 +2659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="41" spans="1:16" s="7" customFormat="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2674,7 +2700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42" hidden="1">
+    <row r="42" spans="1:16" ht="42">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2700,7 +2726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="43" spans="1:16" s="7" customFormat="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2741,7 +2767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1">
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2782,7 +2808,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2808,7 +2834,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42" hidden="1">
+    <row r="46" spans="1:16" ht="42">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -2849,7 +2875,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="47" spans="1:16" s="7" customFormat="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2873,7 +2899,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -2907,7 +2933,7 @@
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
     </row>
-    <row r="49" spans="1:16" hidden="1">
+    <row r="49" spans="1:16">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -2933,7 +2959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
+    <row r="50" spans="1:16" s="23" customFormat="1">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -2965,7 +2991,7 @@
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
     </row>
-    <row r="51" spans="1:16" ht="42" hidden="1">
+    <row r="51" spans="1:16" ht="42">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -2991,7 +3017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
+    <row r="52" spans="1:16" s="26" customFormat="1">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -3023,7 +3049,7 @@
       <c r="O52" s="33"/>
       <c r="P52" s="33"/>
     </row>
-    <row r="53" spans="1:16" s="27" customFormat="1">
+    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3049,7 +3075,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>20151223</v>
       </c>
@@ -3072,7 +3098,7 @@
         <v>-4074</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>20151225</v>
       </c>
@@ -3095,7 +3121,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16" ht="42">
       <c r="A56" s="1">
         <v>20151225</v>
       </c>
@@ -3117,18 +3143,64 @@
       <c r="G56" s="1">
         <v>-2592</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="21" t="s">
         <v>131</v>
       </c>
     </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>20151229</v>
+      </c>
+      <c r="B57" s="26">
+        <v>600018</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>300</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-2012</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>29161014</v>
+      </c>
+      <c r="B58" s="26">
+        <v>600019</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>400</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-2240</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C56">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="民生银行"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C56"/>
   <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
@@ -3680,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -3861,6 +3933,20 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>201501231</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4256,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4326,6 +4412,21 @@
         <v>30011</v>
       </c>
       <c r="E5" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19">
+        <v>20151231</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="19">
+        <v>29930</v>
+      </c>
+      <c r="E6" s="19">
         <v>1.5</v>
       </c>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$58</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="141">
   <si>
     <t>时间</t>
   </si>
@@ -624,10 +624,19 @@
     <t>更改</t>
   </si>
   <si>
-    <t>包钢股份</t>
-  </si>
-  <si>
     <t>[BUY]  [151109 @ 6.03 - 151231 @ 5.58] [600019 sh.宝钢股份] -7.463 count: 38</t>
+  </si>
+  <si>
+    <t>0.5W</t>
+  </si>
+  <si>
+    <t>取回</t>
+  </si>
+  <si>
+    <t>宝钢股份</t>
+  </si>
+  <si>
+    <t>涨停，卖掉100股，降低成本</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,8 +975,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,6 +1068,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1068,7 +1086,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1170,6 +1188,9 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1271,6 +1292,9 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1600,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1809,7 +1833,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1838,7 +1862,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -2924,14 +2948,14 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="23">
@@ -2984,12 +3008,12 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
     </row>
     <row r="51" spans="1:16" ht="42">
       <c r="A51" s="26">
@@ -3042,12 +3066,12 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1">
       <c r="A53" s="27">
@@ -3175,13 +3199,13 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>29161014</v>
+        <v>20161014</v>
       </c>
       <c r="B58" s="26">
         <v>600019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>8</v>
@@ -3196,11 +3220,61 @@
         <v>-2240</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>20160106</v>
+      </c>
+      <c r="B59" s="30">
+        <v>600006</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>300</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.82</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-2346</v>
+      </c>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>20160106</v>
+      </c>
+      <c r="B60" s="30">
+        <v>600019</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="1">
+        <v>100</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="G60" s="1">
+        <v>597</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C56"/>
+  <autoFilter ref="C1:C58"/>
   <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
@@ -3208,6 +3282,7 @@
     <mergeCell ref="K52:P52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4342,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4354,12 +4429,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4428,6 +4503,23 @@
       </c>
       <c r="E6" s="19">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19">
+        <v>20160106</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="19">
+        <v>24939</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -18,7 +18,7 @@
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
   <si>
     <t>时间</t>
   </si>
@@ -636,7 +636,25 @@
     <t>宝钢股份</t>
   </si>
   <si>
-    <t>涨停，卖掉100股，降低成本</t>
+    <t>涨停，卖掉100股，降低成本，5.52</t>
+  </si>
+  <si>
+    <t>涨停，卖掉100股，降低成本,5.46</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>冲动补仓。。。不对？</t>
+  </si>
+  <si>
+    <t>中远航运</t>
+  </si>
+  <si>
+    <t>第一波信号。。</t>
+  </si>
+  <si>
+    <t>清仓</t>
   </si>
 </sst>
 </file>
@@ -771,7 +789,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -981,8 +999,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,6 +1103,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1086,7 +1127,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="223">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1191,6 +1232,13 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1295,6 +1343,13 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1624,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1833,7 +1888,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1862,7 +1917,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -2948,14 +3003,14 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="23">
@@ -3008,12 +3063,12 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="33"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16" ht="42">
       <c r="A51" s="26">
@@ -3066,14 +3121,14 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-    </row>
-    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1">
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3273,8 +3328,161 @@
         <v>140</v>
       </c>
     </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="B61" s="31">
+        <v>600019</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="1">
+        <v>100</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="G61" s="1">
+        <v>572</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="B62" s="31">
+        <v>600006</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>300</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7.77</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-2331</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>20160112</v>
+      </c>
+      <c r="B63" s="32">
+        <v>600006</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>300</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-1950</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>20160111</v>
+      </c>
+      <c r="B64" s="26">
+        <v>600428</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>300</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7.77</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-2331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>20160113</v>
+      </c>
+      <c r="B65" s="26">
+        <v>600363</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>300</v>
+      </c>
+      <c r="F65" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="G65" s="1">
+        <v>-4506</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>20160113</v>
+      </c>
+      <c r="B66" s="33">
+        <v>600019</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1144</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C58"/>
+  <autoFilter ref="C1:C66"/>
   <mergeCells count="4">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
@@ -4417,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4429,12 +4637,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4520,6 +4728,23 @@
       </c>
       <c r="E7" s="19">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19">
+        <v>20160113</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="19">
+        <v>19948</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -16,9 +16,10 @@
     <sheet name="安全资产" sheetId="7" r:id="rId7"/>
     <sheet name="拆借" sheetId="8" r:id="rId8"/>
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$77</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
   <si>
     <t>时间</t>
   </si>
@@ -656,12 +657,65 @@
   <si>
     <t>清仓</t>
   </si>
+  <si>
+    <t>第二波</t>
+  </si>
+  <si>
+    <t>北大荒</t>
+  </si>
+  <si>
+    <t>第一波</t>
+  </si>
+  <si>
+    <t>仓位接近7成。积极止盈</t>
+  </si>
+  <si>
+    <t>致敬！上证50！</t>
+  </si>
+  <si>
+    <t>向上证50致敬之第二次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BUY]  [151117 @ 67.88 - 160125 @ 55.00] [002594 sz.比亚迪] -18.975 count: 48
+[BUY]  [151217 @ 63.80 - 160125 @ 55.00] [002594 sz.比亚迪] -13.793 count: 26
+</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>0.1W</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>176 食堂用户</t>
+  </si>
+  <si>
+    <t>0.45W</t>
+  </si>
+  <si>
+    <t>西部证券</t>
+  </si>
+  <si>
+    <t>满仓了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拆&amp;还</t>
+  </si>
+  <si>
+    <t>僧哥</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -710,6 +764,22 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Lucida Grande"/>
     </font>
   </fonts>
   <fills count="3">
@@ -789,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1013,8 +1083,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,10 +1219,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,11 +1227,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="251"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="251"/>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="260">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1239,6 +1375,28 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1350,6 +1508,21 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1679,10 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1724,7 +1898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1747,7 +1921,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1770,7 +1944,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1793,7 +1967,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1816,7 +1990,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -1842,7 +2016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -1865,7 +2039,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -1888,11 +2062,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -1917,9 +2091,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -1942,7 +2116,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -1968,7 +2142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -1991,7 +2165,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105">
+    <row r="13" spans="1:9" ht="105" hidden="1">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -2018,7 +2192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -2045,7 +2219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -2068,7 +2242,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -2120,7 +2294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2146,7 +2320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2172,7 +2346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2198,7 +2372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2225,7 +2399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2277,7 +2451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2329,7 +2503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2355,7 +2529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2381,7 +2555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2407,7 +2581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2433,7 +2607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2459,7 +2633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2485,7 +2659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2508,7 +2682,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1">
+    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2534,10 +2708,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2563,7 +2737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1">
+    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2589,7 +2763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42">
+    <row r="37" spans="1:16" ht="42" hidden="1">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2630,7 +2804,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1">
+    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2656,7 +2830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2697,7 +2871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" hidden="1">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2738,7 +2912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1">
+    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2779,7 +2953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42">
+    <row r="42" spans="1:16" ht="42" hidden="1">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2805,7 +2979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1">
+    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -2846,7 +3020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -2887,7 +3061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -2913,7 +3087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42">
+    <row r="46" spans="1:16" ht="42" hidden="1">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -2954,7 +3128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1">
+    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -2978,7 +3152,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -3003,16 +3177,16 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="K48" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+    </row>
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -3038,7 +3212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1">
+    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -3063,14 +3237,14 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="36"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-    </row>
-    <row r="51" spans="1:16" ht="42">
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+    </row>
+    <row r="51" spans="1:16" ht="42" hidden="1">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -3096,7 +3270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1">
+    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -3121,14 +3295,14 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-    </row>
-    <row r="53" spans="1:16" s="27" customFormat="1">
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3154,7 +3328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54" s="1">
         <v>20151223</v>
       </c>
@@ -3177,7 +3351,7 @@
         <v>-4074</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" hidden="1">
       <c r="A55" s="1">
         <v>20151225</v>
       </c>
@@ -3200,7 +3374,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="42">
+    <row r="56" spans="1:16" ht="42" hidden="1">
       <c r="A56" s="1">
         <v>20151225</v>
       </c>
@@ -3226,7 +3400,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57" s="1">
         <v>20151229</v>
       </c>
@@ -3252,7 +3426,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" hidden="1">
       <c r="A58" s="1">
         <v>20161014</v>
       </c>
@@ -3278,7 +3452,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1">
       <c r="A59" s="1">
         <v>20160106</v>
       </c>
@@ -3302,7 +3476,7 @@
       </c>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60" s="1">
         <v>20160106</v>
       </c>
@@ -3328,7 +3502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61" s="1">
         <v>20160111</v>
       </c>
@@ -3354,7 +3528,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62" s="1">
         <v>20160111</v>
       </c>
@@ -3380,7 +3554,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63" s="1">
         <v>20160112</v>
       </c>
@@ -3406,7 +3580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64" s="1">
         <v>20160111</v>
       </c>
@@ -3429,7 +3603,7 @@
         <v>-2331</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>20160113</v>
       </c>
@@ -3455,7 +3629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:16" hidden="1">
       <c r="A66" s="1">
         <v>20160113</v>
       </c>
@@ -3481,16 +3655,2118 @@
         <v>146</v>
       </c>
     </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>20160114</v>
+      </c>
+      <c r="B67" s="34">
+        <v>600363</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>300</v>
+      </c>
+      <c r="F67" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-3825</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" hidden="1">
+      <c r="A68" s="1">
+        <v>20160119</v>
+      </c>
+      <c r="B68" s="26">
+        <v>600598</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1">
+        <v>300</v>
+      </c>
+      <c r="F68" s="1">
+        <v>11.28</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-3384</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" hidden="1">
+      <c r="A69" s="1">
+        <v>20160120</v>
+      </c>
+      <c r="B69" s="34">
+        <v>600598</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1">
+        <v>300</v>
+      </c>
+      <c r="F69" s="1">
+        <v>11.46</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3438</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>20160120</v>
+      </c>
+      <c r="B70" s="34">
+        <v>600363</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1">
+        <v>300</v>
+      </c>
+      <c r="F70" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4347</v>
+      </c>
+      <c r="I70" s="47"/>
+    </row>
+    <row r="71" spans="1:16" hidden="1">
+      <c r="A71" s="1">
+        <v>20160122</v>
+      </c>
+      <c r="B71" s="36">
+        <v>600598</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>800</v>
+      </c>
+      <c r="F71" s="1">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1">
+        <v>8800</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="36" customFormat="1" hidden="1">
+      <c r="A72" s="36">
+        <v>20160125</v>
+      </c>
+      <c r="B72" s="36">
+        <v>600036</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="36">
+        <v>400</v>
+      </c>
+      <c r="F72" s="36">
+        <v>15.27</v>
+      </c>
+      <c r="G72" s="36">
+        <v>-6108</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+    </row>
+    <row r="73" spans="1:16" s="38" customFormat="1" ht="63" hidden="1">
+      <c r="A73" s="38">
+        <v>20160126</v>
+      </c>
+      <c r="B73" s="38">
+        <v>2594</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="38">
+        <v>100</v>
+      </c>
+      <c r="F73" s="38">
+        <v>53.27</v>
+      </c>
+      <c r="G73" s="38">
+        <v>-5327</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1">
+      <c r="A74" s="38">
+        <v>20160127</v>
+      </c>
+      <c r="B74" s="26">
+        <v>2673</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>23.27</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-4654</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="43" customFormat="1" hidden="1">
+      <c r="A75" s="43">
+        <v>20150831</v>
+      </c>
+      <c r="B75" s="43">
+        <v>601169</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="43">
+        <v>100</v>
+      </c>
+      <c r="F75" s="43">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G75" s="43">
+        <v>862</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="43" customFormat="1" hidden="1">
+      <c r="A76" s="43">
+        <v>20160204</v>
+      </c>
+      <c r="B76" s="43">
+        <v>601169</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="43">
+        <v>500</v>
+      </c>
+      <c r="F76" s="43">
+        <v>9.6</v>
+      </c>
+      <c r="G76" s="43">
+        <v>-4800</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="45" customFormat="1" hidden="1">
+      <c r="A77" s="45">
+        <v>20160224</v>
+      </c>
+      <c r="B77" s="45">
+        <v>2594</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="45">
+        <v>100</v>
+      </c>
+      <c r="F77" s="45">
+        <v>54.6</v>
+      </c>
+      <c r="G77" s="45">
+        <v>5460</v>
+      </c>
+      <c r="I77" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C66"/>
-  <mergeCells count="4">
+  <autoFilter ref="C1:C77">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="联创光电"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="K72:P72"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
     <mergeCell ref="K50:P50"/>
     <mergeCell ref="K52:P52"/>
+    <mergeCell ref="I69:I70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F180"/>
+  <sheetViews>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="4:6">
+      <c r="D2" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" s="51"/>
+      <c r="E3" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" s="41"/>
+      <c r="E4" s="40">
+        <v>163</v>
+      </c>
+      <c r="F4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="41"/>
+      <c r="E5" s="40">
+        <v>170</v>
+      </c>
+      <c r="F5" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="41"/>
+      <c r="E6" s="40">
+        <v>177</v>
+      </c>
+      <c r="F6" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="41"/>
+      <c r="E7" s="40">
+        <v>2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="41"/>
+      <c r="E8" s="40">
+        <v>3</v>
+      </c>
+      <c r="F8" s="41">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="41"/>
+      <c r="E9" s="40">
+        <v>4</v>
+      </c>
+      <c r="F9" s="41">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="41"/>
+      <c r="E10" s="40">
+        <v>5</v>
+      </c>
+      <c r="F10" s="41">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="41"/>
+      <c r="E11" s="40">
+        <v>6</v>
+      </c>
+      <c r="F11" s="41">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="41"/>
+      <c r="E12" s="40">
+        <v>7</v>
+      </c>
+      <c r="F12" s="41">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="41"/>
+      <c r="E13" s="40">
+        <v>8</v>
+      </c>
+      <c r="F13" s="41">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="41"/>
+      <c r="E14" s="40">
+        <v>9</v>
+      </c>
+      <c r="F14" s="41">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="41"/>
+      <c r="E15" s="40">
+        <v>10</v>
+      </c>
+      <c r="F15" s="41">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="41"/>
+      <c r="E16" s="40">
+        <v>11</v>
+      </c>
+      <c r="F16" s="41">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="41"/>
+      <c r="E17" s="40">
+        <v>12</v>
+      </c>
+      <c r="F17" s="41">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="41"/>
+      <c r="E18" s="40">
+        <v>13</v>
+      </c>
+      <c r="F18" s="41">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="41"/>
+      <c r="E19" s="40">
+        <v>14</v>
+      </c>
+      <c r="F19" s="41">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="41"/>
+      <c r="E20" s="40">
+        <v>15</v>
+      </c>
+      <c r="F20" s="41">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="41"/>
+      <c r="E21" s="40">
+        <v>16</v>
+      </c>
+      <c r="F21" s="41">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="41"/>
+      <c r="E22" s="40">
+        <v>17</v>
+      </c>
+      <c r="F22" s="41">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="41"/>
+      <c r="E23" s="40">
+        <v>18</v>
+      </c>
+      <c r="F23" s="41">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="41"/>
+      <c r="E24" s="40">
+        <v>19</v>
+      </c>
+      <c r="F24" s="41">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="41"/>
+      <c r="E25" s="40">
+        <v>20</v>
+      </c>
+      <c r="F25" s="41">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="41"/>
+      <c r="E26" s="40">
+        <v>21</v>
+      </c>
+      <c r="F26" s="41">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="41"/>
+      <c r="E27" s="40">
+        <v>22</v>
+      </c>
+      <c r="F27" s="41">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="41"/>
+      <c r="E28" s="40">
+        <v>23</v>
+      </c>
+      <c r="F28" s="41">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="41"/>
+      <c r="E29" s="40">
+        <v>24</v>
+      </c>
+      <c r="F29" s="41">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="41"/>
+      <c r="E30" s="40">
+        <v>169</v>
+      </c>
+      <c r="F30" s="41">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="41"/>
+      <c r="E31" s="40">
+        <v>25</v>
+      </c>
+      <c r="F31" s="41">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="41"/>
+      <c r="E32" s="40">
+        <v>26</v>
+      </c>
+      <c r="F32" s="41">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="41"/>
+      <c r="E33" s="40">
+        <v>27</v>
+      </c>
+      <c r="F33" s="41">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="41"/>
+      <c r="E34" s="40">
+        <v>28</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="41"/>
+      <c r="E35" s="40">
+        <v>29</v>
+      </c>
+      <c r="F35" s="41">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="41"/>
+      <c r="E36" s="40">
+        <v>30</v>
+      </c>
+      <c r="F36" s="41">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="41"/>
+      <c r="E37" s="40">
+        <v>31</v>
+      </c>
+      <c r="F37" s="41">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="41"/>
+      <c r="E38" s="40">
+        <v>32</v>
+      </c>
+      <c r="F38" s="41">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="41"/>
+      <c r="E39" s="40">
+        <v>33</v>
+      </c>
+      <c r="F39" s="41">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="41"/>
+      <c r="E40" s="40">
+        <v>34</v>
+      </c>
+      <c r="F40" s="41">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="41"/>
+      <c r="E41" s="40">
+        <v>35</v>
+      </c>
+      <c r="F41" s="41">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="41"/>
+      <c r="E42" s="40">
+        <v>36</v>
+      </c>
+      <c r="F42" s="41">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="41"/>
+      <c r="E43" s="40">
+        <v>37</v>
+      </c>
+      <c r="F43" s="41">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="41"/>
+      <c r="E44" s="40">
+        <v>38</v>
+      </c>
+      <c r="F44" s="41">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6">
+      <c r="D45" s="41"/>
+      <c r="E45" s="40">
+        <v>39</v>
+      </c>
+      <c r="F45" s="41">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="41"/>
+      <c r="E46" s="40">
+        <v>40</v>
+      </c>
+      <c r="F46" s="41">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="41"/>
+      <c r="E47" s="40">
+        <v>41</v>
+      </c>
+      <c r="F47" s="41">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" s="41"/>
+      <c r="E48" s="40">
+        <v>42</v>
+      </c>
+      <c r="F48" s="41">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" s="41"/>
+      <c r="E49" s="40">
+        <v>176</v>
+      </c>
+      <c r="F49" s="41">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="41"/>
+      <c r="E50" s="40">
+        <v>43</v>
+      </c>
+      <c r="F50" s="41">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" s="41"/>
+      <c r="E51" s="40">
+        <v>44</v>
+      </c>
+      <c r="F51" s="41">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="41"/>
+      <c r="E52" s="40">
+        <v>45</v>
+      </c>
+      <c r="F52" s="41">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" s="41"/>
+      <c r="E53" s="40">
+        <v>46</v>
+      </c>
+      <c r="F53" s="41">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="41"/>
+      <c r="E54" s="40">
+        <v>47</v>
+      </c>
+      <c r="F54" s="41">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" s="41"/>
+      <c r="E55" s="40">
+        <v>48</v>
+      </c>
+      <c r="F55" s="41">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="41"/>
+      <c r="E56" s="40">
+        <v>49</v>
+      </c>
+      <c r="F56" s="41">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="41"/>
+      <c r="E57" s="40">
+        <v>50</v>
+      </c>
+      <c r="F57" s="41">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="41"/>
+      <c r="E58" s="40">
+        <v>51</v>
+      </c>
+      <c r="F58" s="41">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" s="41"/>
+      <c r="E59" s="40">
+        <v>52</v>
+      </c>
+      <c r="F59" s="41">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6">
+      <c r="D60" s="41"/>
+      <c r="E60" s="40">
+        <v>53</v>
+      </c>
+      <c r="F60" s="41">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" s="41"/>
+      <c r="E61" s="40">
+        <v>54</v>
+      </c>
+      <c r="F61" s="41">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" s="41"/>
+      <c r="E62" s="40">
+        <v>55</v>
+      </c>
+      <c r="F62" s="41">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="D63" s="41"/>
+      <c r="E63" s="40">
+        <v>173</v>
+      </c>
+      <c r="F63" s="41">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" s="41"/>
+      <c r="E64" s="40">
+        <v>56</v>
+      </c>
+      <c r="F64" s="41">
+        <v>7212</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="41"/>
+      <c r="E65" s="40">
+        <v>57</v>
+      </c>
+      <c r="F65" s="41">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="41"/>
+      <c r="E66" s="40">
+        <v>58</v>
+      </c>
+      <c r="F66" s="41">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="41"/>
+      <c r="E67" s="40">
+        <v>59</v>
+      </c>
+      <c r="F67" s="41">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="41"/>
+      <c r="E68" s="40">
+        <v>60</v>
+      </c>
+      <c r="F68" s="41">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="41"/>
+      <c r="E69" s="40">
+        <v>165</v>
+      </c>
+      <c r="F69" s="41">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="41"/>
+      <c r="E70" s="40">
+        <v>61</v>
+      </c>
+      <c r="F70" s="41">
+        <v>8893</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" s="41"/>
+      <c r="E71" s="40">
+        <v>62</v>
+      </c>
+      <c r="F71" s="41">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" s="41"/>
+      <c r="E72" s="40">
+        <v>63</v>
+      </c>
+      <c r="F72" s="41">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40">
+        <v>64</v>
+      </c>
+      <c r="F73" s="41">
+        <v>9084</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" s="41"/>
+      <c r="E74" s="40">
+        <v>65</v>
+      </c>
+      <c r="F74" s="41">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" s="41"/>
+      <c r="E75" s="40">
+        <v>167</v>
+      </c>
+      <c r="F75" s="41">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="41"/>
+      <c r="E76" s="40">
+        <v>166</v>
+      </c>
+      <c r="F76" s="41">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" s="41"/>
+      <c r="E77" s="40">
+        <v>66</v>
+      </c>
+      <c r="F77" s="41">
+        <v>11843</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" s="41"/>
+      <c r="E78" s="40">
+        <v>164</v>
+      </c>
+      <c r="F78" s="41">
+        <v>12795</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" s="41"/>
+      <c r="E79" s="40">
+        <v>175</v>
+      </c>
+      <c r="F79" s="41">
+        <v>12823</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" s="41"/>
+      <c r="E80" s="40">
+        <v>67</v>
+      </c>
+      <c r="F80" s="41">
+        <v>14124</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="41"/>
+      <c r="E81" s="40">
+        <v>162</v>
+      </c>
+      <c r="F81" s="41">
+        <v>14467</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="41"/>
+      <c r="E82" s="40">
+        <v>68</v>
+      </c>
+      <c r="F82" s="41">
+        <v>14629</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="41"/>
+      <c r="E83" s="40">
+        <v>69</v>
+      </c>
+      <c r="F83" s="41">
+        <v>14772</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="41"/>
+      <c r="E84" s="40">
+        <v>174</v>
+      </c>
+      <c r="F84" s="41">
+        <v>15163</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="41"/>
+      <c r="E85" s="40">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41">
+        <v>16163</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86" s="41"/>
+      <c r="E86" s="40">
+        <v>70</v>
+      </c>
+      <c r="F86" s="41">
+        <v>19692</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87" s="41"/>
+      <c r="E87" s="40">
+        <v>71</v>
+      </c>
+      <c r="F87" s="41">
+        <v>21694</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="D88" s="41"/>
+      <c r="E88" s="40">
+        <v>72</v>
+      </c>
+      <c r="F88" s="41">
+        <v>23638</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89" s="41"/>
+      <c r="E89" s="40">
+        <v>73</v>
+      </c>
+      <c r="F89" s="41">
+        <v>24686</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90" s="41"/>
+      <c r="E90" s="40">
+        <v>74</v>
+      </c>
+      <c r="F90" s="41">
+        <v>28286</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="D91" s="41"/>
+      <c r="E91" s="40">
+        <v>75</v>
+      </c>
+      <c r="F91" s="41">
+        <v>29411</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92" s="41"/>
+      <c r="E92" s="40">
+        <v>76</v>
+      </c>
+      <c r="F92" s="41">
+        <v>29554</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="D93" s="41"/>
+      <c r="E93" s="40">
+        <v>77</v>
+      </c>
+      <c r="F93" s="41">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94" s="41"/>
+      <c r="E94" s="40">
+        <v>78</v>
+      </c>
+      <c r="F94" s="41">
+        <v>29801</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95" s="41"/>
+      <c r="E95" s="40">
+        <v>79</v>
+      </c>
+      <c r="F95" s="41">
+        <v>30060</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="41"/>
+      <c r="E96" s="40">
+        <v>80</v>
+      </c>
+      <c r="F96" s="41">
+        <v>30085</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97" s="41"/>
+      <c r="E97" s="40">
+        <v>81</v>
+      </c>
+      <c r="F97" s="41">
+        <v>30119</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98" s="41"/>
+      <c r="E98" s="40">
+        <v>82</v>
+      </c>
+      <c r="F98" s="41">
+        <v>33743</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99" s="41"/>
+      <c r="E99" s="40">
+        <v>83</v>
+      </c>
+      <c r="F99" s="41">
+        <v>34479</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="41"/>
+      <c r="E100" s="40">
+        <v>84</v>
+      </c>
+      <c r="F100" s="41">
+        <v>34481</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101" s="41"/>
+      <c r="E101" s="40">
+        <v>85</v>
+      </c>
+      <c r="F101" s="41">
+        <v>34483</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="41"/>
+      <c r="E102" s="40">
+        <v>86</v>
+      </c>
+      <c r="F102" s="41">
+        <v>34484</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103" s="41"/>
+      <c r="E103" s="40">
+        <v>87</v>
+      </c>
+      <c r="F103" s="41">
+        <v>34488</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104" s="41"/>
+      <c r="E104" s="40">
+        <v>88</v>
+      </c>
+      <c r="F104" s="41">
+        <v>34492</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" s="41"/>
+      <c r="E105" s="40">
+        <v>89</v>
+      </c>
+      <c r="F105" s="41">
+        <v>34493</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106" s="41"/>
+      <c r="E106" s="40">
+        <v>90</v>
+      </c>
+      <c r="F106" s="41">
+        <v>34494</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107" s="41"/>
+      <c r="E107" s="40">
+        <v>91</v>
+      </c>
+      <c r="F107" s="41">
+        <v>34495</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="D108" s="41"/>
+      <c r="E108" s="40">
+        <v>92</v>
+      </c>
+      <c r="F108" s="41">
+        <v>34496</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109" s="41"/>
+      <c r="E109" s="40">
+        <v>93</v>
+      </c>
+      <c r="F109" s="41">
+        <v>34498</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="D110" s="41"/>
+      <c r="E110" s="40">
+        <v>94</v>
+      </c>
+      <c r="F110" s="41">
+        <v>35253</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="D111" s="41"/>
+      <c r="E111" s="40">
+        <v>95</v>
+      </c>
+      <c r="F111" s="41">
+        <v>35255</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="D112" s="41"/>
+      <c r="E112" s="40">
+        <v>96</v>
+      </c>
+      <c r="F112" s="41">
+        <v>36070</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113" s="41"/>
+      <c r="E113" s="40">
+        <v>97</v>
+      </c>
+      <c r="F113" s="41">
+        <v>36071</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114" s="41"/>
+      <c r="E114" s="40">
+        <v>98</v>
+      </c>
+      <c r="F114" s="41">
+        <v>36075</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="D115" s="41"/>
+      <c r="E115" s="40">
+        <v>99</v>
+      </c>
+      <c r="F115" s="41">
+        <v>36080</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="D116" s="41"/>
+      <c r="E116" s="40">
+        <v>100</v>
+      </c>
+      <c r="F116" s="41">
+        <v>36082</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117" s="41"/>
+      <c r="E117" s="40">
+        <v>101</v>
+      </c>
+      <c r="F117" s="41">
+        <v>36086</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118" s="41"/>
+      <c r="E118" s="40">
+        <v>102</v>
+      </c>
+      <c r="F118" s="41">
+        <v>36087</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="D119" s="41"/>
+      <c r="E119" s="40">
+        <v>103</v>
+      </c>
+      <c r="F119" s="41">
+        <v>36089</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="D120" s="41"/>
+      <c r="E120" s="40">
+        <v>104</v>
+      </c>
+      <c r="F120" s="41">
+        <v>36091</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121" s="41"/>
+      <c r="E121" s="40">
+        <v>105</v>
+      </c>
+      <c r="F121" s="41">
+        <v>36092</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="D122" s="41"/>
+      <c r="E122" s="40">
+        <v>106</v>
+      </c>
+      <c r="F122" s="41">
+        <v>36093</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="D123" s="41"/>
+      <c r="E123" s="40">
+        <v>107</v>
+      </c>
+      <c r="F123" s="41">
+        <v>36094</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="D124" s="41"/>
+      <c r="E124" s="40">
+        <v>108</v>
+      </c>
+      <c r="F124" s="41">
+        <v>36099</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125" s="41"/>
+      <c r="E125" s="40">
+        <v>109</v>
+      </c>
+      <c r="F125" s="41">
+        <v>36102</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="D126" s="41"/>
+      <c r="E126" s="40">
+        <v>110</v>
+      </c>
+      <c r="F126" s="41">
+        <v>36103</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="D127" s="41"/>
+      <c r="E127" s="40">
+        <v>111</v>
+      </c>
+      <c r="F127" s="41">
+        <v>36104</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="D128" s="41"/>
+      <c r="E128" s="40">
+        <v>112</v>
+      </c>
+      <c r="F128" s="41">
+        <v>36106</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="D129" s="41"/>
+      <c r="E129" s="40">
+        <v>113</v>
+      </c>
+      <c r="F129" s="41">
+        <v>36108</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="D130" s="41"/>
+      <c r="E130" s="40">
+        <v>114</v>
+      </c>
+      <c r="F130" s="41">
+        <v>36111</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="D131" s="41"/>
+      <c r="E131" s="40">
+        <v>115</v>
+      </c>
+      <c r="F131" s="41">
+        <v>36112</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="D132" s="41"/>
+      <c r="E132" s="40">
+        <v>116</v>
+      </c>
+      <c r="F132" s="41">
+        <v>36113</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="D133" s="41"/>
+      <c r="E133" s="40">
+        <v>117</v>
+      </c>
+      <c r="F133" s="41">
+        <v>36117</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6">
+      <c r="D134" s="41"/>
+      <c r="E134" s="40">
+        <v>118</v>
+      </c>
+      <c r="F134" s="41">
+        <v>36122</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6">
+      <c r="D135" s="41"/>
+      <c r="E135" s="40">
+        <v>119</v>
+      </c>
+      <c r="F135" s="41">
+        <v>36126</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6">
+      <c r="D136" s="41"/>
+      <c r="E136" s="40">
+        <v>120</v>
+      </c>
+      <c r="F136" s="41">
+        <v>36127</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6">
+      <c r="D137" s="41"/>
+      <c r="E137" s="40">
+        <v>121</v>
+      </c>
+      <c r="F137" s="41">
+        <v>36129</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6">
+      <c r="D138" s="41"/>
+      <c r="E138" s="40">
+        <v>122</v>
+      </c>
+      <c r="F138" s="41">
+        <v>36132</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6">
+      <c r="D139" s="41"/>
+      <c r="E139" s="40">
+        <v>123</v>
+      </c>
+      <c r="F139" s="41">
+        <v>36140</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6">
+      <c r="D140" s="41"/>
+      <c r="E140" s="40">
+        <v>124</v>
+      </c>
+      <c r="F140" s="41">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="D141" s="41"/>
+      <c r="E141" s="40">
+        <v>125</v>
+      </c>
+      <c r="F141" s="41">
+        <v>36148</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="D142" s="41"/>
+      <c r="E142" s="40">
+        <v>126</v>
+      </c>
+      <c r="F142" s="41">
+        <v>36149</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="D143" s="41"/>
+      <c r="E143" s="40">
+        <v>127</v>
+      </c>
+      <c r="F143" s="41">
+        <v>36150</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6">
+      <c r="D144" s="41"/>
+      <c r="E144" s="40">
+        <v>128</v>
+      </c>
+      <c r="F144" s="41">
+        <v>36153</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6">
+      <c r="D145" s="41"/>
+      <c r="E145" s="40">
+        <v>129</v>
+      </c>
+      <c r="F145" s="41">
+        <v>36155</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6">
+      <c r="D146" s="41"/>
+      <c r="E146" s="40">
+        <v>130</v>
+      </c>
+      <c r="F146" s="41">
+        <v>36156</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="D147" s="41"/>
+      <c r="E147" s="40">
+        <v>131</v>
+      </c>
+      <c r="F147" s="41">
+        <v>36159</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6">
+      <c r="D148" s="41"/>
+      <c r="E148" s="40">
+        <v>132</v>
+      </c>
+      <c r="F148" s="41">
+        <v>36163</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6">
+      <c r="D149" s="41"/>
+      <c r="E149" s="40">
+        <v>133</v>
+      </c>
+      <c r="F149" s="41">
+        <v>36164</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6">
+      <c r="D150" s="41"/>
+      <c r="E150" s="40">
+        <v>134</v>
+      </c>
+      <c r="F150" s="41">
+        <v>36176</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6">
+      <c r="D151" s="41"/>
+      <c r="E151" s="40">
+        <v>135</v>
+      </c>
+      <c r="F151" s="41">
+        <v>36237</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6">
+      <c r="D152" s="41"/>
+      <c r="E152" s="40">
+        <v>136</v>
+      </c>
+      <c r="F152" s="41">
+        <v>36306</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6">
+      <c r="D153" s="41"/>
+      <c r="E153" s="40">
+        <v>137</v>
+      </c>
+      <c r="F153" s="41">
+        <v>36314</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6">
+      <c r="D154" s="41"/>
+      <c r="E154" s="40">
+        <v>138</v>
+      </c>
+      <c r="F154" s="41">
+        <v>36317</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="D155" s="41"/>
+      <c r="E155" s="40">
+        <v>139</v>
+      </c>
+      <c r="F155" s="41">
+        <v>36647</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6">
+      <c r="D156" s="41"/>
+      <c r="E156" s="40">
+        <v>140</v>
+      </c>
+      <c r="F156" s="41">
+        <v>36702</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="D157" s="41"/>
+      <c r="E157" s="40">
+        <v>141</v>
+      </c>
+      <c r="F157" s="41">
+        <v>36876</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6">
+      <c r="D158" s="41"/>
+      <c r="E158" s="40">
+        <v>142</v>
+      </c>
+      <c r="F158" s="41">
+        <v>39805</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6">
+      <c r="D159" s="41"/>
+      <c r="E159" s="40">
+        <v>143</v>
+      </c>
+      <c r="F159" s="41">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="D160" s="41"/>
+      <c r="E160" s="40">
+        <v>144</v>
+      </c>
+      <c r="F160" s="41">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6">
+      <c r="D161" s="41"/>
+      <c r="E161" s="40">
+        <v>145</v>
+      </c>
+      <c r="F161" s="41">
+        <v>46481</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6">
+      <c r="D162" s="41"/>
+      <c r="E162" s="40">
+        <v>146</v>
+      </c>
+      <c r="F162" s="41">
+        <v>47151</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6">
+      <c r="D163" s="41"/>
+      <c r="E163" s="40">
+        <v>147</v>
+      </c>
+      <c r="F163" s="41">
+        <v>51614</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6">
+      <c r="D164" s="41"/>
+      <c r="E164" s="40">
+        <v>148</v>
+      </c>
+      <c r="F164" s="41">
+        <v>51628</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6">
+      <c r="D165" s="41"/>
+      <c r="E165" s="40">
+        <v>149</v>
+      </c>
+      <c r="F165" s="41">
+        <v>51629</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6">
+      <c r="D166" s="41"/>
+      <c r="E166" s="40">
+        <v>150</v>
+      </c>
+      <c r="F166" s="41">
+        <v>51767</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6">
+      <c r="D167" s="41"/>
+      <c r="E167" s="40">
+        <v>151</v>
+      </c>
+      <c r="F167" s="41">
+        <v>51846</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6">
+      <c r="D168" s="41"/>
+      <c r="E168" s="40">
+        <v>152</v>
+      </c>
+      <c r="F168" s="41">
+        <v>51872</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6">
+      <c r="D169" s="41"/>
+      <c r="E169" s="40">
+        <v>153</v>
+      </c>
+      <c r="F169" s="41">
+        <v>51882</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6">
+      <c r="D170" s="41"/>
+      <c r="E170" s="40">
+        <v>154</v>
+      </c>
+      <c r="F170" s="41">
+        <v>52157</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6">
+      <c r="D171" s="41"/>
+      <c r="E171" s="40">
+        <v>155</v>
+      </c>
+      <c r="F171" s="41">
+        <v>52245</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6">
+      <c r="D172" s="41"/>
+      <c r="E172" s="40">
+        <v>156</v>
+      </c>
+      <c r="F172" s="41">
+        <v>52295</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6">
+      <c r="D173" s="41"/>
+      <c r="E173" s="40">
+        <v>157</v>
+      </c>
+      <c r="F173" s="41">
+        <v>52304</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6">
+      <c r="D174" s="41"/>
+      <c r="E174" s="40">
+        <v>158</v>
+      </c>
+      <c r="F174" s="41">
+        <v>52701</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6">
+      <c r="D175" s="41"/>
+      <c r="E175" s="40">
+        <v>159</v>
+      </c>
+      <c r="F175" s="41">
+        <v>53037</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6">
+      <c r="D176" s="41"/>
+      <c r="E176" s="40">
+        <v>160</v>
+      </c>
+      <c r="F176" s="41">
+        <v>54621</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6">
+      <c r="D177" s="41"/>
+      <c r="E177" s="40">
+        <v>161</v>
+      </c>
+      <c r="F177" s="41">
+        <v>54709</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6">
+      <c r="D178" s="41"/>
+      <c r="E178" s="40">
+        <v>168</v>
+      </c>
+      <c r="F178" s="41">
+        <v>55108</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6">
+      <c r="D179" s="41"/>
+      <c r="E179" s="40">
+        <v>171</v>
+      </c>
+      <c r="F179" s="41">
+        <v>55116</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6">
+      <c r="D180" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/163/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E5" r:id="rId4" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/170/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/177/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E7" r:id="rId6" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/2/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E8" r:id="rId7" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/3/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E9" r:id="rId8" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/4/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/5/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E11" r:id="rId10" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/6/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E12" r:id="rId11" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/7/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E13" r:id="rId12" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/8/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E14" r:id="rId13" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/9/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E15" r:id="rId14" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/10/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E16" r:id="rId15" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/11/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E17" r:id="rId16" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/12/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E18" r:id="rId17" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/13/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E19" r:id="rId18" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/14/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E20" r:id="rId19" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/15/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E21" r:id="rId20" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/16/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E22" r:id="rId21" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/17/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E23" r:id="rId22" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/18/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E24" r:id="rId23" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/19/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E25" r:id="rId24" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/20/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E26" r:id="rId25" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/21/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E27" r:id="rId26" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/22/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E28" r:id="rId27" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/23/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E29" r:id="rId28" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/24/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E30" r:id="rId29" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/169/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E31" r:id="rId30" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/25/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E32" r:id="rId31" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/26/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E33" r:id="rId32" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/27/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E34" r:id="rId33" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/28/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E35" r:id="rId34" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/29/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E36" r:id="rId35" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/30/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E37" r:id="rId36" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/31/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E38" r:id="rId37" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/32/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E39" r:id="rId38" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/33/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E40" r:id="rId39" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/34/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E41" r:id="rId40" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/35/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E42" r:id="rId41" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/36/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E43" r:id="rId42" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/37/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E44" r:id="rId43" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/38/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E45" r:id="rId44" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/39/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E46" r:id="rId45" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/40/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E47" r:id="rId46" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/41/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E48" r:id="rId47" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/42/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E49" r:id="rId48" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/176/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E50" r:id="rId49" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/43/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E51" r:id="rId50" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/44/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E52" r:id="rId51" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/45/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E53" r:id="rId52" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/46/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E54" r:id="rId53" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/47/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E55" r:id="rId54" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/48/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E56" r:id="rId55" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/49/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E57" r:id="rId56" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/50/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E58" r:id="rId57" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/51/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E59" r:id="rId58" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/52/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E60" r:id="rId59" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/53/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E61" r:id="rId60" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/54/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E62" r:id="rId61" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/55/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E63" r:id="rId62" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/173/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E64" r:id="rId63" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/56/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E65" r:id="rId64" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/57/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E66" r:id="rId65" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/58/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E67" r:id="rId66" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/59/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E68" r:id="rId67" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/60/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E69" r:id="rId68" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/165/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E70" r:id="rId69" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/61/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E71" r:id="rId70" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/62/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E72" r:id="rId71" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/63/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E73" r:id="rId72" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/64/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E74" r:id="rId73" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/65/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E75" r:id="rId74" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/167/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E76" r:id="rId75" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/166/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E77" r:id="rId76" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/66/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E78" r:id="rId77" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/164/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E79" r:id="rId78" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/175/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E80" r:id="rId79" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/67/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E81" r:id="rId80" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/162/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E82" r:id="rId81" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/68/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E83" r:id="rId82" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/69/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E84" r:id="rId83" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/174/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E85" r:id="rId84" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/1/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E86" r:id="rId85" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/70/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E87" r:id="rId86" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/71/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E88" r:id="rId87" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/72/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E89" r:id="rId88" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/73/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E90" r:id="rId89" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/74/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E91" r:id="rId90" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/75/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E92" r:id="rId91" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/76/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E93" r:id="rId92" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/77/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E94" r:id="rId93" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/78/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E95" r:id="rId94" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/79/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E96" r:id="rId95" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/80/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E97" r:id="rId96" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/81/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E98" r:id="rId97" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/82/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E99" r:id="rId98" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/83/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E100" r:id="rId99" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/84/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E101" r:id="rId100" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/85/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E102" r:id="rId101" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/86/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E103" r:id="rId102" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/87/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E104" r:id="rId103" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/88/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E105" r:id="rId104" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/89/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E106" r:id="rId105" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/90/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E107" r:id="rId106" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/91/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E108" r:id="rId107" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/92/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E109" r:id="rId108" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/93/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E110" r:id="rId109" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/94/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E111" r:id="rId110" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/95/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E112" r:id="rId111" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/96/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E113" r:id="rId112" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/97/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E114" r:id="rId113" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/98/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E115" r:id="rId114" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/99/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E116" r:id="rId115" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/100/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E117" r:id="rId116" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/101/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E118" r:id="rId117" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/102/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E119" r:id="rId118" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/103/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E120" r:id="rId119" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/104/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E121" r:id="rId120" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/105/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E122" r:id="rId121" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/106/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E123" r:id="rId122" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/107/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E124" r:id="rId123" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/108/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E125" r:id="rId124" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/109/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E126" r:id="rId125" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/110/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E127" r:id="rId126" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/111/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E128" r:id="rId127" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/112/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E129" r:id="rId128" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/113/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E130" r:id="rId129" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/114/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E131" r:id="rId130" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/115/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E132" r:id="rId131" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/116/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E133" r:id="rId132" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/117/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E134" r:id="rId133" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/118/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E135" r:id="rId134" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/119/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E136" r:id="rId135" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/120/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E137" r:id="rId136" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/121/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E138" r:id="rId137" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/122/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E139" r:id="rId138" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/123/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E140" r:id="rId139" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/124/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E141" r:id="rId140" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/125/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E142" r:id="rId141" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/126/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E143" r:id="rId142" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/127/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E144" r:id="rId143" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/128/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E145" r:id="rId144" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/129/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E146" r:id="rId145" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/130/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E147" r:id="rId146" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/131/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E148" r:id="rId147" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/132/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E149" r:id="rId148" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/133/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E150" r:id="rId149" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/134/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E151" r:id="rId150" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/135/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E152" r:id="rId151" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/136/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E153" r:id="rId152" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/137/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E154" r:id="rId153" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/138/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E155" r:id="rId154" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/139/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E156" r:id="rId155" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/140/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E157" r:id="rId156" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/141/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E158" r:id="rId157" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/142/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E159" r:id="rId158" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/143/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E160" r:id="rId159" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/144/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E161" r:id="rId160" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/145/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E162" r:id="rId161" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/146/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E163" r:id="rId162" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/147/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E164" r:id="rId163" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/148/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E165" r:id="rId164" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/149/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E166" r:id="rId165" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/150/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E167" r:id="rId166" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/151/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E168" r:id="rId167" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/152/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E169" r:id="rId168" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/153/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E170" r:id="rId169" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/154/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E171" r:id="rId170" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/155/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E172" r:id="rId171" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/156/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E173" r:id="rId172" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/157/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E174" r:id="rId173" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/158/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E175" r:id="rId174" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/159/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E176" r:id="rId175" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/160/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E177" r:id="rId176" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/161/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E178" r:id="rId177" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/168/?_changelist_filters=all%3D%26o%3D2"/>
+    <hyperlink ref="E179" r:id="rId178" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/171/?_changelist_filters=all%3D%26o%3D2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4625,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4637,12 +6913,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4744,6 +7020,91 @@
         <v>19948</v>
       </c>
       <c r="E8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19">
+        <v>20160119</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="19">
+        <v>14954</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19">
+        <v>20160122</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4956</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19">
+        <v>20160126</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3957</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19">
+        <v>20160127</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="19">
+        <v>-502.8</v>
+      </c>
+      <c r="E12" s="19">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="19">
+        <v>20160202</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="19">
+        <v>9496.7999999999993</v>
+      </c>
+      <c r="E13" s="19">
         <v>1</v>
       </c>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rand/Documents/git/tractionrec/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="HK" sheetId="2" r:id="rId2"/>
+    <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="HK" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
     <sheet name="日志" sheetId="5" r:id="rId5"/>
     <sheet name="规则" sheetId="6" r:id="rId6"/>
-    <sheet name="安全资产" sheetId="7" r:id="rId7"/>
+    <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="拆借" sheetId="8" r:id="rId8"/>
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="601169 北京银行" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$77</definedName>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="163">
   <si>
     <t>时间</t>
   </si>
@@ -221,7 +226,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,7 +247,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -263,7 +268,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,7 +599,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,15 +692,6 @@
     <t>0.1W</t>
   </si>
   <si>
-    <t>Seq</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>176 食堂用户</t>
-  </si>
-  <si>
     <t>0.45W</t>
   </si>
   <si>
@@ -709,17 +705,31 @@
   </si>
   <si>
     <t>僧哥</t>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'b</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -727,7 +737,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -735,7 +745,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -766,20 +776,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Lucida Grande"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -859,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="260">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1111,7 +1111,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1121,7 +1120,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,10 +1232,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="251"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,272 +1256,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="251"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="260">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="259">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1855,11 +1856,11 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="26" bestFit="1" customWidth="1"/>
@@ -1869,7 +1870,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" thickBot="1">
+    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -2062,11 +2063,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -2091,9 +2092,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" hidden="1">
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1">
+    <row r="13" spans="1:9" ht="115" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="147" hidden="1">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2708,10 +2709,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="42" hidden="1">
+    <row r="37" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="42" hidden="1">
+    <row r="42" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="63" hidden="1">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="42" hidden="1">
+    <row r="46" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1">
+    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -3152,7 +3153,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="42" hidden="1">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -3177,16 +3178,16 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-    </row>
-    <row r="49" spans="1:16" hidden="1">
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1">
+    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -3237,14 +3238,14 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-    </row>
-    <row r="51" spans="1:16" ht="42" hidden="1">
+      <c r="K50" s="42"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+    </row>
+    <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1">
+    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -3295,14 +3296,14 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-    </row>
-    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1">
+      <c r="K52" s="42"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>20151223</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>-4074</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>20151225</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="42" hidden="1">
+    <row r="56" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>20151225</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>20151229</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>20161014</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>20160106</v>
       </c>
@@ -3476,7 +3477,7 @@
       </c>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>20160106</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>20160111</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>20160111</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>20160112</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>20160111</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>-2331</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>20160113</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>20160113</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>20160114</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>20160119</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>20160120</v>
       </c>
@@ -3729,11 +3730,11 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>20160120</v>
       </c>
@@ -3755,9 +3756,9 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="1:16" hidden="1">
+      <c r="I70" s="43"/>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>20160122</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="36" customFormat="1" hidden="1">
+    <row r="72" spans="1:16" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="36">
         <v>20160125</v>
       </c>
@@ -3808,14 +3809,14 @@
       <c r="I72" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-    </row>
-    <row r="73" spans="1:16" s="38" customFormat="1" ht="63" hidden="1">
+      <c r="K72" s="42"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+    </row>
+    <row r="73" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
         <v>20160126</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>20160127</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>2673</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3864,85 +3865,85 @@
         <v>-4654</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="43" customFormat="1" hidden="1">
-      <c r="A75" s="43">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="39">
         <v>20150831</v>
       </c>
-      <c r="B75" s="43">
+      <c r="B75" s="39">
         <v>601169</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="39">
         <v>100</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="39">
         <v>8.6199999999999992</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="39">
         <v>862</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="43" customFormat="1" hidden="1">
-      <c r="A76" s="43">
+    <row r="76" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="39">
         <v>20160204</v>
       </c>
-      <c r="B76" s="43">
+      <c r="B76" s="39">
         <v>601169</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="39">
         <v>500</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="39">
         <v>9.6</v>
       </c>
-      <c r="G76" s="43">
+      <c r="G76" s="39">
         <v>-4800</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="45" customFormat="1" hidden="1">
-      <c r="A77" s="45">
+    <row r="77" spans="1:16" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="41">
         <v>20160224</v>
       </c>
-      <c r="B77" s="45">
+      <c r="B77" s="41">
         <v>2594</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="45">
+      <c r="E77" s="41">
         <v>100</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="41">
         <v>54.6</v>
       </c>
-      <c r="G77" s="45">
+      <c r="G77" s="41">
         <v>5460</v>
       </c>
-      <c r="I77" s="44" t="s">
-        <v>163</v>
+      <c r="I77" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3961,1817 +3962,41 @@
     <mergeCell ref="K52:P52"/>
     <mergeCell ref="I69:I70"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F180"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="4:6">
-      <c r="D2" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="4:6">
-      <c r="D3" s="51"/>
-      <c r="E3" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6">
-      <c r="D4" s="41"/>
-      <c r="E4" s="40">
-        <v>163</v>
-      </c>
-      <c r="F4" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="D5" s="41"/>
-      <c r="E5" s="40">
-        <v>170</v>
-      </c>
-      <c r="F5" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="41"/>
-      <c r="E6" s="40">
-        <v>177</v>
-      </c>
-      <c r="F6" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="41"/>
-      <c r="E7" s="40">
-        <v>2</v>
-      </c>
-      <c r="F7" s="41">
+    <row r="2" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="41"/>
-      <c r="E8" s="40">
-        <v>3</v>
-      </c>
-      <c r="F8" s="41">
+      <c r="B2" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="41"/>
-      <c r="E9" s="40">
-        <v>4</v>
-      </c>
-      <c r="F9" s="41">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="D10" s="41"/>
-      <c r="E10" s="40">
-        <v>5</v>
-      </c>
-      <c r="F10" s="41">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="41"/>
-      <c r="E11" s="40">
-        <v>6</v>
-      </c>
-      <c r="F11" s="41">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="41"/>
-      <c r="E12" s="40">
-        <v>7</v>
-      </c>
-      <c r="F12" s="41">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="41"/>
-      <c r="E13" s="40">
-        <v>8</v>
-      </c>
-      <c r="F13" s="41">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" s="41"/>
-      <c r="E14" s="40">
-        <v>9</v>
-      </c>
-      <c r="F14" s="41">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="41"/>
-      <c r="E15" s="40">
-        <v>10</v>
-      </c>
-      <c r="F15" s="41">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="41"/>
-      <c r="E16" s="40">
-        <v>11</v>
-      </c>
-      <c r="F16" s="41">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="41"/>
-      <c r="E17" s="40">
-        <v>12</v>
-      </c>
-      <c r="F17" s="41">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="41"/>
-      <c r="E18" s="40">
-        <v>13</v>
-      </c>
-      <c r="F18" s="41">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="41"/>
-      <c r="E19" s="40">
-        <v>14</v>
-      </c>
-      <c r="F19" s="41">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="41"/>
-      <c r="E20" s="40">
-        <v>15</v>
-      </c>
-      <c r="F20" s="41">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="41"/>
-      <c r="E21" s="40">
-        <v>16</v>
-      </c>
-      <c r="F21" s="41">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="41"/>
-      <c r="E22" s="40">
-        <v>17</v>
-      </c>
-      <c r="F22" s="41">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="41"/>
-      <c r="E23" s="40">
-        <v>18</v>
-      </c>
-      <c r="F23" s="41">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="41"/>
-      <c r="E24" s="40">
-        <v>19</v>
-      </c>
-      <c r="F24" s="41">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="41"/>
-      <c r="E25" s="40">
-        <v>20</v>
-      </c>
-      <c r="F25" s="41">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="41"/>
-      <c r="E26" s="40">
-        <v>21</v>
-      </c>
-      <c r="F26" s="41">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="41"/>
-      <c r="E27" s="40">
-        <v>22</v>
-      </c>
-      <c r="F27" s="41">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="41"/>
-      <c r="E28" s="40">
-        <v>23</v>
-      </c>
-      <c r="F28" s="41">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="41"/>
-      <c r="E29" s="40">
-        <v>24</v>
-      </c>
-      <c r="F29" s="41">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="41"/>
-      <c r="E30" s="40">
-        <v>169</v>
-      </c>
-      <c r="F30" s="41">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="41"/>
-      <c r="E31" s="40">
-        <v>25</v>
-      </c>
-      <c r="F31" s="41">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="41"/>
-      <c r="E32" s="40">
-        <v>26</v>
-      </c>
-      <c r="F32" s="41">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="41"/>
-      <c r="E33" s="40">
-        <v>27</v>
-      </c>
-      <c r="F33" s="41">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="41"/>
-      <c r="E34" s="40">
-        <v>28</v>
-      </c>
-      <c r="F34" s="41">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="41"/>
-      <c r="E35" s="40">
-        <v>29</v>
-      </c>
-      <c r="F35" s="41">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="41"/>
-      <c r="E36" s="40">
-        <v>30</v>
-      </c>
-      <c r="F36" s="41">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="41"/>
-      <c r="E37" s="40">
-        <v>31</v>
-      </c>
-      <c r="F37" s="41">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="41"/>
-      <c r="E38" s="40">
-        <v>32</v>
-      </c>
-      <c r="F38" s="41">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="41"/>
-      <c r="E39" s="40">
-        <v>33</v>
-      </c>
-      <c r="F39" s="41">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="41"/>
-      <c r="E40" s="40">
-        <v>34</v>
-      </c>
-      <c r="F40" s="41">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="41"/>
-      <c r="E41" s="40">
-        <v>35</v>
-      </c>
-      <c r="F41" s="41">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="41"/>
-      <c r="E42" s="40">
-        <v>36</v>
-      </c>
-      <c r="F42" s="41">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="41"/>
-      <c r="E43" s="40">
-        <v>37</v>
-      </c>
-      <c r="F43" s="41">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="41"/>
-      <c r="E44" s="40">
-        <v>38</v>
-      </c>
-      <c r="F44" s="41">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="41"/>
-      <c r="E45" s="40">
-        <v>39</v>
-      </c>
-      <c r="F45" s="41">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6">
-      <c r="D46" s="41"/>
-      <c r="E46" s="40">
-        <v>40</v>
-      </c>
-      <c r="F46" s="41">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="41"/>
-      <c r="E47" s="40">
-        <v>41</v>
-      </c>
-      <c r="F47" s="41">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6">
-      <c r="D48" s="41"/>
-      <c r="E48" s="40">
-        <v>42</v>
-      </c>
-      <c r="F48" s="41">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="D49" s="41"/>
-      <c r="E49" s="40">
-        <v>176</v>
-      </c>
-      <c r="F49" s="41">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="41"/>
-      <c r="E50" s="40">
-        <v>43</v>
-      </c>
-      <c r="F50" s="41">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6">
-      <c r="D51" s="41"/>
-      <c r="E51" s="40">
-        <v>44</v>
-      </c>
-      <c r="F51" s="41">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
-      <c r="D52" s="41"/>
-      <c r="E52" s="40">
-        <v>45</v>
-      </c>
-      <c r="F52" s="41">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="41"/>
-      <c r="E53" s="40">
-        <v>46</v>
-      </c>
-      <c r="F53" s="41">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6">
-      <c r="D54" s="41"/>
-      <c r="E54" s="40">
-        <v>47</v>
-      </c>
-      <c r="F54" s="41">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6">
-      <c r="D55" s="41"/>
-      <c r="E55" s="40">
-        <v>48</v>
-      </c>
-      <c r="F55" s="41">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="41"/>
-      <c r="E56" s="40">
-        <v>49</v>
-      </c>
-      <c r="F56" s="41">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="41"/>
-      <c r="E57" s="40">
-        <v>50</v>
-      </c>
-      <c r="F57" s="41">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="41"/>
-      <c r="E58" s="40">
-        <v>51</v>
-      </c>
-      <c r="F58" s="41">
-        <v>4163</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="41"/>
-      <c r="E59" s="40">
-        <v>52</v>
-      </c>
-      <c r="F59" s="41">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="41"/>
-      <c r="E60" s="40">
-        <v>53</v>
-      </c>
-      <c r="F60" s="41">
-        <v>4534</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="41"/>
-      <c r="E61" s="40">
-        <v>54</v>
-      </c>
-      <c r="F61" s="41">
-        <v>5458</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="41"/>
-      <c r="E62" s="40">
-        <v>55</v>
-      </c>
-      <c r="F62" s="41">
-        <v>5955</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6">
-      <c r="D63" s="41"/>
-      <c r="E63" s="40">
-        <v>173</v>
-      </c>
-      <c r="F63" s="41">
-        <v>6578</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6">
-      <c r="D64" s="41"/>
-      <c r="E64" s="40">
-        <v>56</v>
-      </c>
-      <c r="F64" s="41">
-        <v>7212</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="41"/>
-      <c r="E65" s="40">
-        <v>57</v>
-      </c>
-      <c r="F65" s="41">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6">
-      <c r="D66" s="41"/>
-      <c r="E66" s="40">
-        <v>58</v>
-      </c>
-      <c r="F66" s="41">
-        <v>8037</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6">
-      <c r="D67" s="41"/>
-      <c r="E67" s="40">
-        <v>59</v>
-      </c>
-      <c r="F67" s="41">
-        <v>8060</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6">
-      <c r="D68" s="41"/>
-      <c r="E68" s="40">
-        <v>60</v>
-      </c>
-      <c r="F68" s="41">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6">
-      <c r="D69" s="41"/>
-      <c r="E69" s="40">
-        <v>165</v>
-      </c>
-      <c r="F69" s="41">
-        <v>8865</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6">
-      <c r="D70" s="41"/>
-      <c r="E70" s="40">
-        <v>61</v>
-      </c>
-      <c r="F70" s="41">
-        <v>8893</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="41"/>
-      <c r="E71" s="40">
-        <v>62</v>
-      </c>
-      <c r="F71" s="41">
-        <v>8902</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="41"/>
-      <c r="E72" s="40">
-        <v>63</v>
-      </c>
-      <c r="F72" s="41">
-        <v>9009</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6">
-      <c r="D73" s="41"/>
-      <c r="E73" s="40">
-        <v>64</v>
-      </c>
-      <c r="F73" s="41">
-        <v>9084</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="41"/>
-      <c r="E74" s="40">
-        <v>65</v>
-      </c>
-      <c r="F74" s="41">
-        <v>9086</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="D75" s="41"/>
-      <c r="E75" s="40">
-        <v>167</v>
-      </c>
-      <c r="F75" s="41">
-        <v>9138</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6">
-      <c r="D76" s="41"/>
-      <c r="E76" s="40">
-        <v>166</v>
-      </c>
-      <c r="F76" s="41">
-        <v>9859</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="41"/>
-      <c r="E77" s="40">
-        <v>66</v>
-      </c>
-      <c r="F77" s="41">
-        <v>11843</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="D78" s="41"/>
-      <c r="E78" s="40">
-        <v>164</v>
-      </c>
-      <c r="F78" s="41">
-        <v>12795</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="D79" s="41"/>
-      <c r="E79" s="40">
-        <v>175</v>
-      </c>
-      <c r="F79" s="41">
-        <v>12823</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="D80" s="41"/>
-      <c r="E80" s="40">
-        <v>67</v>
-      </c>
-      <c r="F80" s="41">
-        <v>14124</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6">
-      <c r="D81" s="41"/>
-      <c r="E81" s="40">
-        <v>162</v>
-      </c>
-      <c r="F81" s="41">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6">
-      <c r="D82" s="41"/>
-      <c r="E82" s="40">
-        <v>68</v>
-      </c>
-      <c r="F82" s="41">
-        <v>14629</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6">
-      <c r="D83" s="41"/>
-      <c r="E83" s="40">
-        <v>69</v>
-      </c>
-      <c r="F83" s="41">
-        <v>14772</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6">
-      <c r="D84" s="41"/>
-      <c r="E84" s="40">
-        <v>174</v>
-      </c>
-      <c r="F84" s="41">
-        <v>15163</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6">
-      <c r="D85" s="41"/>
-      <c r="E85" s="40">
-        <v>1</v>
-      </c>
-      <c r="F85" s="41">
-        <v>16163</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="D86" s="41"/>
-      <c r="E86" s="40">
-        <v>70</v>
-      </c>
-      <c r="F86" s="41">
-        <v>19692</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="41"/>
-      <c r="E87" s="40">
-        <v>71</v>
-      </c>
-      <c r="F87" s="41">
-        <v>21694</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6">
-      <c r="D88" s="41"/>
-      <c r="E88" s="40">
-        <v>72</v>
-      </c>
-      <c r="F88" s="41">
-        <v>23638</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6">
-      <c r="D89" s="41"/>
-      <c r="E89" s="40">
-        <v>73</v>
-      </c>
-      <c r="F89" s="41">
-        <v>24686</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6">
-      <c r="D90" s="41"/>
-      <c r="E90" s="40">
-        <v>74</v>
-      </c>
-      <c r="F90" s="41">
-        <v>28286</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6">
-      <c r="D91" s="41"/>
-      <c r="E91" s="40">
-        <v>75</v>
-      </c>
-      <c r="F91" s="41">
-        <v>29411</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6">
-      <c r="D92" s="41"/>
-      <c r="E92" s="40">
-        <v>76</v>
-      </c>
-      <c r="F92" s="41">
-        <v>29554</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6">
-      <c r="D93" s="41"/>
-      <c r="E93" s="40">
-        <v>77</v>
-      </c>
-      <c r="F93" s="41">
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6">
-      <c r="D94" s="41"/>
-      <c r="E94" s="40">
-        <v>78</v>
-      </c>
-      <c r="F94" s="41">
-        <v>29801</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6">
-      <c r="D95" s="41"/>
-      <c r="E95" s="40">
-        <v>79</v>
-      </c>
-      <c r="F95" s="41">
-        <v>30060</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6">
-      <c r="D96" s="41"/>
-      <c r="E96" s="40">
-        <v>80</v>
-      </c>
-      <c r="F96" s="41">
-        <v>30085</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6">
-      <c r="D97" s="41"/>
-      <c r="E97" s="40">
-        <v>81</v>
-      </c>
-      <c r="F97" s="41">
-        <v>30119</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6">
-      <c r="D98" s="41"/>
-      <c r="E98" s="40">
-        <v>82</v>
-      </c>
-      <c r="F98" s="41">
-        <v>33743</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6">
-      <c r="D99" s="41"/>
-      <c r="E99" s="40">
-        <v>83</v>
-      </c>
-      <c r="F99" s="41">
-        <v>34479</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6">
-      <c r="D100" s="41"/>
-      <c r="E100" s="40">
-        <v>84</v>
-      </c>
-      <c r="F100" s="41">
-        <v>34481</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6">
-      <c r="D101" s="41"/>
-      <c r="E101" s="40">
-        <v>85</v>
-      </c>
-      <c r="F101" s="41">
-        <v>34483</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6">
-      <c r="D102" s="41"/>
-      <c r="E102" s="40">
-        <v>86</v>
-      </c>
-      <c r="F102" s="41">
-        <v>34484</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6">
-      <c r="D103" s="41"/>
-      <c r="E103" s="40">
-        <v>87</v>
-      </c>
-      <c r="F103" s="41">
-        <v>34488</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6">
-      <c r="D104" s="41"/>
-      <c r="E104" s="40">
-        <v>88</v>
-      </c>
-      <c r="F104" s="41">
-        <v>34492</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6">
-      <c r="D105" s="41"/>
-      <c r="E105" s="40">
-        <v>89</v>
-      </c>
-      <c r="F105" s="41">
-        <v>34493</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6">
-      <c r="D106" s="41"/>
-      <c r="E106" s="40">
-        <v>90</v>
-      </c>
-      <c r="F106" s="41">
-        <v>34494</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6">
-      <c r="D107" s="41"/>
-      <c r="E107" s="40">
-        <v>91</v>
-      </c>
-      <c r="F107" s="41">
-        <v>34495</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6">
-      <c r="D108" s="41"/>
-      <c r="E108" s="40">
-        <v>92</v>
-      </c>
-      <c r="F108" s="41">
-        <v>34496</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6">
-      <c r="D109" s="41"/>
-      <c r="E109" s="40">
-        <v>93</v>
-      </c>
-      <c r="F109" s="41">
-        <v>34498</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6">
-      <c r="D110" s="41"/>
-      <c r="E110" s="40">
-        <v>94</v>
-      </c>
-      <c r="F110" s="41">
-        <v>35253</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6">
-      <c r="D111" s="41"/>
-      <c r="E111" s="40">
-        <v>95</v>
-      </c>
-      <c r="F111" s="41">
-        <v>35255</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6">
-      <c r="D112" s="41"/>
-      <c r="E112" s="40">
-        <v>96</v>
-      </c>
-      <c r="F112" s="41">
-        <v>36070</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="D113" s="41"/>
-      <c r="E113" s="40">
-        <v>97</v>
-      </c>
-      <c r="F113" s="41">
-        <v>36071</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="D114" s="41"/>
-      <c r="E114" s="40">
-        <v>98</v>
-      </c>
-      <c r="F114" s="41">
-        <v>36075</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="D115" s="41"/>
-      <c r="E115" s="40">
-        <v>99</v>
-      </c>
-      <c r="F115" s="41">
-        <v>36080</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="D116" s="41"/>
-      <c r="E116" s="40">
-        <v>100</v>
-      </c>
-      <c r="F116" s="41">
-        <v>36082</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="D117" s="41"/>
-      <c r="E117" s="40">
-        <v>101</v>
-      </c>
-      <c r="F117" s="41">
-        <v>36086</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="D118" s="41"/>
-      <c r="E118" s="40">
-        <v>102</v>
-      </c>
-      <c r="F118" s="41">
-        <v>36087</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="D119" s="41"/>
-      <c r="E119" s="40">
-        <v>103</v>
-      </c>
-      <c r="F119" s="41">
-        <v>36089</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="D120" s="41"/>
-      <c r="E120" s="40">
-        <v>104</v>
-      </c>
-      <c r="F120" s="41">
-        <v>36091</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="D121" s="41"/>
-      <c r="E121" s="40">
-        <v>105</v>
-      </c>
-      <c r="F121" s="41">
-        <v>36092</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="D122" s="41"/>
-      <c r="E122" s="40">
-        <v>106</v>
-      </c>
-      <c r="F122" s="41">
-        <v>36093</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="D123" s="41"/>
-      <c r="E123" s="40">
-        <v>107</v>
-      </c>
-      <c r="F123" s="41">
-        <v>36094</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6">
-      <c r="D124" s="41"/>
-      <c r="E124" s="40">
-        <v>108</v>
-      </c>
-      <c r="F124" s="41">
-        <v>36099</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="D125" s="41"/>
-      <c r="E125" s="40">
-        <v>109</v>
-      </c>
-      <c r="F125" s="41">
-        <v>36102</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="D126" s="41"/>
-      <c r="E126" s="40">
-        <v>110</v>
-      </c>
-      <c r="F126" s="41">
-        <v>36103</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="D127" s="41"/>
-      <c r="E127" s="40">
-        <v>111</v>
-      </c>
-      <c r="F127" s="41">
-        <v>36104</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="D128" s="41"/>
-      <c r="E128" s="40">
-        <v>112</v>
-      </c>
-      <c r="F128" s="41">
-        <v>36106</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6">
-      <c r="D129" s="41"/>
-      <c r="E129" s="40">
-        <v>113</v>
-      </c>
-      <c r="F129" s="41">
-        <v>36108</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6">
-      <c r="D130" s="41"/>
-      <c r="E130" s="40">
-        <v>114</v>
-      </c>
-      <c r="F130" s="41">
-        <v>36111</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6">
-      <c r="D131" s="41"/>
-      <c r="E131" s="40">
-        <v>115</v>
-      </c>
-      <c r="F131" s="41">
-        <v>36112</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6">
-      <c r="D132" s="41"/>
-      <c r="E132" s="40">
-        <v>116</v>
-      </c>
-      <c r="F132" s="41">
-        <v>36113</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" s="41"/>
-      <c r="E133" s="40">
-        <v>117</v>
-      </c>
-      <c r="F133" s="41">
-        <v>36117</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="41"/>
-      <c r="E134" s="40">
-        <v>118</v>
-      </c>
-      <c r="F134" s="41">
-        <v>36122</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6">
-      <c r="D135" s="41"/>
-      <c r="E135" s="40">
-        <v>119</v>
-      </c>
-      <c r="F135" s="41">
-        <v>36126</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6">
-      <c r="D136" s="41"/>
-      <c r="E136" s="40">
-        <v>120</v>
-      </c>
-      <c r="F136" s="41">
-        <v>36127</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6">
-      <c r="D137" s="41"/>
-      <c r="E137" s="40">
-        <v>121</v>
-      </c>
-      <c r="F137" s="41">
-        <v>36129</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6">
-      <c r="D138" s="41"/>
-      <c r="E138" s="40">
-        <v>122</v>
-      </c>
-      <c r="F138" s="41">
-        <v>36132</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6">
-      <c r="D139" s="41"/>
-      <c r="E139" s="40">
-        <v>123</v>
-      </c>
-      <c r="F139" s="41">
-        <v>36140</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6">
-      <c r="D140" s="41"/>
-      <c r="E140" s="40">
-        <v>124</v>
-      </c>
-      <c r="F140" s="41">
-        <v>36144</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6">
-      <c r="D141" s="41"/>
-      <c r="E141" s="40">
-        <v>125</v>
-      </c>
-      <c r="F141" s="41">
-        <v>36148</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6">
-      <c r="D142" s="41"/>
-      <c r="E142" s="40">
-        <v>126</v>
-      </c>
-      <c r="F142" s="41">
-        <v>36149</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6">
-      <c r="D143" s="41"/>
-      <c r="E143" s="40">
-        <v>127</v>
-      </c>
-      <c r="F143" s="41">
-        <v>36150</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6">
-      <c r="D144" s="41"/>
-      <c r="E144" s="40">
-        <v>128</v>
-      </c>
-      <c r="F144" s="41">
-        <v>36153</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6">
-      <c r="D145" s="41"/>
-      <c r="E145" s="40">
-        <v>129</v>
-      </c>
-      <c r="F145" s="41">
-        <v>36155</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6">
-      <c r="D146" s="41"/>
-      <c r="E146" s="40">
-        <v>130</v>
-      </c>
-      <c r="F146" s="41">
-        <v>36156</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6">
-      <c r="D147" s="41"/>
-      <c r="E147" s="40">
-        <v>131</v>
-      </c>
-      <c r="F147" s="41">
-        <v>36159</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6">
-      <c r="D148" s="41"/>
-      <c r="E148" s="40">
-        <v>132</v>
-      </c>
-      <c r="F148" s="41">
-        <v>36163</v>
-      </c>
-    </row>
-    <row r="149" spans="4:6">
-      <c r="D149" s="41"/>
-      <c r="E149" s="40">
-        <v>133</v>
-      </c>
-      <c r="F149" s="41">
-        <v>36164</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6">
-      <c r="D150" s="41"/>
-      <c r="E150" s="40">
-        <v>134</v>
-      </c>
-      <c r="F150" s="41">
-        <v>36176</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6">
-      <c r="D151" s="41"/>
-      <c r="E151" s="40">
-        <v>135</v>
-      </c>
-      <c r="F151" s="41">
-        <v>36237</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6">
-      <c r="D152" s="41"/>
-      <c r="E152" s="40">
-        <v>136</v>
-      </c>
-      <c r="F152" s="41">
-        <v>36306</v>
-      </c>
-    </row>
-    <row r="153" spans="4:6">
-      <c r="D153" s="41"/>
-      <c r="E153" s="40">
-        <v>137</v>
-      </c>
-      <c r="F153" s="41">
-        <v>36314</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6">
-      <c r="D154" s="41"/>
-      <c r="E154" s="40">
-        <v>138</v>
-      </c>
-      <c r="F154" s="41">
-        <v>36317</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6">
-      <c r="D155" s="41"/>
-      <c r="E155" s="40">
-        <v>139</v>
-      </c>
-      <c r="F155" s="41">
-        <v>36647</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6">
-      <c r="D156" s="41"/>
-      <c r="E156" s="40">
-        <v>140</v>
-      </c>
-      <c r="F156" s="41">
-        <v>36702</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6">
-      <c r="D157" s="41"/>
-      <c r="E157" s="40">
-        <v>141</v>
-      </c>
-      <c r="F157" s="41">
-        <v>36876</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6">
-      <c r="D158" s="41"/>
-      <c r="E158" s="40">
-        <v>142</v>
-      </c>
-      <c r="F158" s="41">
-        <v>39805</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6">
-      <c r="D159" s="41"/>
-      <c r="E159" s="40">
-        <v>143</v>
-      </c>
-      <c r="F159" s="41">
-        <v>40024</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6">
-      <c r="D160" s="41"/>
-      <c r="E160" s="40">
-        <v>144</v>
-      </c>
-      <c r="F160" s="41">
-        <v>44341</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6">
-      <c r="D161" s="41"/>
-      <c r="E161" s="40">
-        <v>145</v>
-      </c>
-      <c r="F161" s="41">
-        <v>46481</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6">
-      <c r="D162" s="41"/>
-      <c r="E162" s="40">
-        <v>146</v>
-      </c>
-      <c r="F162" s="41">
-        <v>47151</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6">
-      <c r="D163" s="41"/>
-      <c r="E163" s="40">
-        <v>147</v>
-      </c>
-      <c r="F163" s="41">
-        <v>51614</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6">
-      <c r="D164" s="41"/>
-      <c r="E164" s="40">
-        <v>148</v>
-      </c>
-      <c r="F164" s="41">
-        <v>51628</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6">
-      <c r="D165" s="41"/>
-      <c r="E165" s="40">
-        <v>149</v>
-      </c>
-      <c r="F165" s="41">
-        <v>51629</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6">
-      <c r="D166" s="41"/>
-      <c r="E166" s="40">
-        <v>150</v>
-      </c>
-      <c r="F166" s="41">
-        <v>51767</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6">
-      <c r="D167" s="41"/>
-      <c r="E167" s="40">
-        <v>151</v>
-      </c>
-      <c r="F167" s="41">
-        <v>51846</v>
-      </c>
-    </row>
-    <row r="168" spans="4:6">
-      <c r="D168" s="41"/>
-      <c r="E168" s="40">
-        <v>152</v>
-      </c>
-      <c r="F168" s="41">
-        <v>51872</v>
-      </c>
-    </row>
-    <row r="169" spans="4:6">
-      <c r="D169" s="41"/>
-      <c r="E169" s="40">
-        <v>153</v>
-      </c>
-      <c r="F169" s="41">
-        <v>51882</v>
-      </c>
-    </row>
-    <row r="170" spans="4:6">
-      <c r="D170" s="41"/>
-      <c r="E170" s="40">
-        <v>154</v>
-      </c>
-      <c r="F170" s="41">
-        <v>52157</v>
-      </c>
-    </row>
-    <row r="171" spans="4:6">
-      <c r="D171" s="41"/>
-      <c r="E171" s="40">
-        <v>155</v>
-      </c>
-      <c r="F171" s="41">
-        <v>52245</v>
-      </c>
-    </row>
-    <row r="172" spans="4:6">
-      <c r="D172" s="41"/>
-      <c r="E172" s="40">
-        <v>156</v>
-      </c>
-      <c r="F172" s="41">
-        <v>52295</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6">
-      <c r="D173" s="41"/>
-      <c r="E173" s="40">
-        <v>157</v>
-      </c>
-      <c r="F173" s="41">
-        <v>52304</v>
-      </c>
-    </row>
-    <row r="174" spans="4:6">
-      <c r="D174" s="41"/>
-      <c r="E174" s="40">
-        <v>158</v>
-      </c>
-      <c r="F174" s="41">
-        <v>52701</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6">
-      <c r="D175" s="41"/>
-      <c r="E175" s="40">
-        <v>159</v>
-      </c>
-      <c r="F175" s="41">
-        <v>53037</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6">
-      <c r="D176" s="41"/>
-      <c r="E176" s="40">
-        <v>160</v>
-      </c>
-      <c r="F176" s="41">
-        <v>54621</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6">
-      <c r="D177" s="41"/>
-      <c r="E177" s="40">
-        <v>161</v>
-      </c>
-      <c r="F177" s="41">
-        <v>54709</v>
-      </c>
-    </row>
-    <row r="178" spans="4:6">
-      <c r="D178" s="41"/>
-      <c r="E178" s="40">
-        <v>168</v>
-      </c>
-      <c r="F178" s="41">
-        <v>55108</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6">
-      <c r="D179" s="41"/>
-      <c r="E179" s="40">
-        <v>171</v>
-      </c>
-      <c r="F179" s="41">
-        <v>55116</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6">
-      <c r="D180" s="42" t="s">
-        <v>158</v>
+    <row r="3" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47">
+        <v>10.75</v>
+      </c>
+      <c r="B3" s="47">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/163/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E5" r:id="rId4" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/170/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E6" r:id="rId5" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/177/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E7" r:id="rId6" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/2/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E8" r:id="rId7" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/3/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E9" r:id="rId8" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/4/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E10" r:id="rId9" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/5/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E11" r:id="rId10" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/6/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E12" r:id="rId11" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/7/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E13" r:id="rId12" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/8/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E14" r:id="rId13" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/9/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E15" r:id="rId14" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/10/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E16" r:id="rId15" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/11/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E17" r:id="rId16" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/12/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E18" r:id="rId17" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/13/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E19" r:id="rId18" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/14/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E20" r:id="rId19" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/15/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E21" r:id="rId20" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/16/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E22" r:id="rId21" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/17/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E23" r:id="rId22" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/18/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E24" r:id="rId23" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/19/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E25" r:id="rId24" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/20/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E26" r:id="rId25" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/21/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E27" r:id="rId26" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/22/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E28" r:id="rId27" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/23/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E29" r:id="rId28" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/24/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E30" r:id="rId29" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/169/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E31" r:id="rId30" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/25/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E32" r:id="rId31" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/26/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E33" r:id="rId32" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/27/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E34" r:id="rId33" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/28/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E35" r:id="rId34" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/29/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E36" r:id="rId35" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/30/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E37" r:id="rId36" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/31/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E38" r:id="rId37" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/32/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E39" r:id="rId38" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/33/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E40" r:id="rId39" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/34/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E41" r:id="rId40" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/35/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E42" r:id="rId41" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/36/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E43" r:id="rId42" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/37/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E44" r:id="rId43" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/38/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E45" r:id="rId44" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/39/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E46" r:id="rId45" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/40/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E47" r:id="rId46" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/41/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E48" r:id="rId47" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/42/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E49" r:id="rId48" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/176/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E50" r:id="rId49" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/43/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E51" r:id="rId50" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/44/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E52" r:id="rId51" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/45/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E53" r:id="rId52" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/46/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E54" r:id="rId53" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/47/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E55" r:id="rId54" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/48/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E56" r:id="rId55" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/49/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E57" r:id="rId56" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/50/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E58" r:id="rId57" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/51/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E59" r:id="rId58" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/52/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E60" r:id="rId59" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/53/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E61" r:id="rId60" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/54/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E62" r:id="rId61" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/55/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E63" r:id="rId62" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/173/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E64" r:id="rId63" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/56/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E65" r:id="rId64" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/57/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E66" r:id="rId65" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/58/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E67" r:id="rId66" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/59/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E68" r:id="rId67" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/60/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E69" r:id="rId68" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/165/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E70" r:id="rId69" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/61/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E71" r:id="rId70" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/62/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E72" r:id="rId71" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/63/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E73" r:id="rId72" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/64/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E74" r:id="rId73" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/65/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E75" r:id="rId74" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/167/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E76" r:id="rId75" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/166/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E77" r:id="rId76" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/66/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E78" r:id="rId77" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/164/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E79" r:id="rId78" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/175/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E80" r:id="rId79" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/67/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E81" r:id="rId80" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/162/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E82" r:id="rId81" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/68/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E83" r:id="rId82" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/69/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E84" r:id="rId83" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/174/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E85" r:id="rId84" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/1/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E86" r:id="rId85" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/70/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E87" r:id="rId86" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/71/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E88" r:id="rId87" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/72/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E89" r:id="rId88" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/73/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E90" r:id="rId89" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/74/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E91" r:id="rId90" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/75/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E92" r:id="rId91" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/76/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E93" r:id="rId92" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/77/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E94" r:id="rId93" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/78/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E95" r:id="rId94" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/79/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E96" r:id="rId95" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/80/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E97" r:id="rId96" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/81/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E98" r:id="rId97" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/82/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E99" r:id="rId98" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/83/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E100" r:id="rId99" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/84/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E101" r:id="rId100" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/85/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E102" r:id="rId101" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/86/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E103" r:id="rId102" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/87/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E104" r:id="rId103" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/88/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E105" r:id="rId104" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/89/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E106" r:id="rId105" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/90/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E107" r:id="rId106" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/91/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E108" r:id="rId107" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/92/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E109" r:id="rId108" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/93/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E110" r:id="rId109" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/94/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E111" r:id="rId110" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/95/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E112" r:id="rId111" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/96/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E113" r:id="rId112" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/97/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E114" r:id="rId113" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/98/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E115" r:id="rId114" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/99/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E116" r:id="rId115" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/100/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E117" r:id="rId116" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/101/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E118" r:id="rId117" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/102/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E119" r:id="rId118" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/103/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E120" r:id="rId119" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/104/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E121" r:id="rId120" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/105/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E122" r:id="rId121" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/106/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E123" r:id="rId122" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/107/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E124" r:id="rId123" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/108/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E125" r:id="rId124" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/109/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E126" r:id="rId125" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/110/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E127" r:id="rId126" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/111/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E128" r:id="rId127" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/112/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E129" r:id="rId128" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/113/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E130" r:id="rId129" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/114/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E131" r:id="rId130" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/115/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E132" r:id="rId131" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/116/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E133" r:id="rId132" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/117/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E134" r:id="rId133" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/118/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E135" r:id="rId134" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/119/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E136" r:id="rId135" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/120/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E137" r:id="rId136" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/121/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E138" r:id="rId137" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/122/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E139" r:id="rId138" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/123/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E140" r:id="rId139" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/124/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E141" r:id="rId140" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/125/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E142" r:id="rId141" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/126/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E143" r:id="rId142" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/127/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E144" r:id="rId143" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/128/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E145" r:id="rId144" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/129/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E146" r:id="rId145" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/130/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E147" r:id="rId146" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/131/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E148" r:id="rId147" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/132/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E149" r:id="rId148" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/133/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E150" r:id="rId149" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/134/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E151" r:id="rId150" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/135/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E152" r:id="rId151" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/136/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E153" r:id="rId152" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/137/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E154" r:id="rId153" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/138/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E155" r:id="rId154" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/139/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E156" r:id="rId155" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/140/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E157" r:id="rId156" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/141/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E158" r:id="rId157" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/142/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E159" r:id="rId158" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/143/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E160" r:id="rId159" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/144/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E161" r:id="rId160" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/145/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E162" r:id="rId161" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/146/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E163" r:id="rId162" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/147/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E164" r:id="rId163" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/148/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E165" r:id="rId164" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/149/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E166" r:id="rId165" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/150/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E167" r:id="rId166" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/151/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E168" r:id="rId167" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/152/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E169" r:id="rId168" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/153/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E170" r:id="rId169" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/154/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E171" r:id="rId170" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/155/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E172" r:id="rId171" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/156/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E173" r:id="rId172" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/157/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E174" r:id="rId173" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/158/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E175" r:id="rId174" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/159/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E176" r:id="rId175" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/160/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E177" r:id="rId176" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/161/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E178" r:id="rId177" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/168/?_changelist_filters=all%3D%26o%3D2"/>
-    <hyperlink ref="E179" r:id="rId178" display="http://localhost:8000/appservice4/canka/basic_admin/CanKa/user/171/?_changelist_filters=all%3D%26o%3D2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5783,7 +4008,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
@@ -5791,7 +4016,7 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" thickBot="1">
+    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20150522</v>
       </c>
@@ -5847,7 +4072,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="21">
+    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20150527</v>
       </c>
@@ -5874,7 +4099,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="21">
+    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20150527</v>
       </c>
@@ -5901,7 +4126,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="21">
+    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -5928,7 +4153,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="21">
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -5955,7 +4180,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="21">
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20150604</v>
       </c>
@@ -5982,7 +4207,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="21">
+    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20150605</v>
       </c>
@@ -6009,7 +4234,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="21">
+    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20150612</v>
       </c>
@@ -6038,7 +4263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21">
+    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20150612</v>
       </c>
@@ -6065,7 +4290,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6076,7 +4301,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6087,7 +4312,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6098,7 +4323,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="21">
+    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6109,7 +4334,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6120,7 +4345,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6131,7 +4356,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6142,7 +4367,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6153,7 +4378,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6164,7 +4389,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6175,7 +4400,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6186,7 +4411,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6197,7 +4422,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6208,7 +4433,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="21">
+    <row r="24" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6219,7 +4444,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="21">
+    <row r="25" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6229,7 +4454,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="21">
+    <row r="26" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6239,7 +4464,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="21">
+    <row r="27" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6249,7 +4474,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="21">
+    <row r="28" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6259,7 +4484,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="21">
+    <row r="29" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6269,7 +4494,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="21">
+    <row r="30" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6279,7 +4504,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="21">
+    <row r="31" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6289,7 +4514,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="21">
+    <row r="32" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6300,12 +4525,8 @@
       <c r="H32" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6317,7 +4538,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
@@ -6326,7 +4547,7 @@
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" thickBot="1">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6340,7 +4561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20150430</v>
       </c>
@@ -6354,7 +4575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20150529</v>
       </c>
@@ -6368,7 +4589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20150619</v>
       </c>
@@ -6382,7 +4603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20150622</v>
       </c>
@@ -6396,7 +4617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20150629</v>
       </c>
@@ -6410,7 +4631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20150701</v>
       </c>
@@ -6424,7 +4645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20150703</v>
       </c>
@@ -6438,7 +4659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20150706</v>
       </c>
@@ -6452,7 +4673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20150707</v>
       </c>
@@ -6466,7 +4687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20150731</v>
       </c>
@@ -6480,7 +4701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>201501127</v>
       </c>
@@ -6494,7 +4715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>201501231</v>
       </c>
@@ -6509,12 +4730,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6526,13 +4743,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
@@ -6541,12 +4758,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6558,13 +4771,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="114.33203125" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="60">
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
@@ -6576,12 +4789,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6593,14 +4802,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.1640625" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="45">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="16">
         <v>0</v>
       </c>
@@ -6611,7 +4820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6625,7 +4834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6633,7 +4842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6644,7 +4853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6652,7 +4861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6663,7 +4872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="60">
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="C7" s="17" t="s">
         <v>126</v>
       </c>
@@ -6671,18 +4880,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="12" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6694,10 +4899,10 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" thickBot="1"/>
-    <row r="2" spans="2:7" ht="22" thickBot="1">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
@@ -6717,7 +4922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="19">
         <v>603169</v>
       </c>
@@ -6737,7 +4942,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="19">
         <v>601818</v>
       </c>
@@ -6757,7 +4962,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="19">
         <v>600363</v>
       </c>
@@ -6777,7 +4982,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -6785,7 +4990,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -6793,7 +4998,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6801,7 +5006,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6809,7 +5014,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -6817,7 +5022,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -6825,7 +5030,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -6833,7 +5038,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -6841,7 +5046,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -6849,7 +5054,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -6857,7 +5062,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -6865,7 +5070,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -6873,7 +5078,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -6881,7 +5086,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6890,12 +5095,8 @@
       <c r="G19" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6907,20 +5108,20 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="22" thickBot="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6940,7 +5141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="19" customFormat="1">
+    <row r="4" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20151207</v>
       </c>
@@ -6957,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1">
+    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20151218</v>
       </c>
@@ -6974,7 +5175,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20151231</v>
       </c>
@@ -6989,7 +5190,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160106</v>
       </c>
@@ -7006,7 +5207,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160113</v>
       </c>
@@ -7023,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160119</v>
       </c>
@@ -7040,7 +5241,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160122</v>
       </c>
@@ -7057,7 +5258,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160126</v>
       </c>
@@ -7074,12 +5275,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160127</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>138</v>
@@ -7091,7 +5292,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20160202</v>
       </c>
@@ -7099,7 +5300,7 @@
         <v>122</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D13" s="19">
         <v>9496.7999999999993</v>
@@ -7112,12 +5313,8 @@
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7129,19 +5326,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
@@ -22,11 +22,12 @@
     <sheet name="拆借" sheetId="8" r:id="rId8"/>
     <sheet name="纪律" sheetId="9" r:id="rId9"/>
     <sheet name="601169 北京银行" sheetId="11" r:id="rId10"/>
+    <sheet name="600363 联创光电" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$77</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="164">
   <si>
     <t>时间</t>
   </si>
@@ -228,6 +229,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>50] -6.936 count: 19
@@ -249,6 +251,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>] 21.517 count: 10
@@ -270,6 +273,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">50] -6.936 count: 19
@@ -601,6 +605,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">] 6.061 count: 23
@@ -717,6 +722,13 @@
     <t>数量</t>
     <rPh sb="0" eb="1">
       <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓</t>
+    <rPh sb="0" eb="1">
+      <t>chi'cang</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -731,6 +743,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,7 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,6 +1255,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1256,7 +1275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1857,7 +1879,7 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2063,7 +2085,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2092,7 +2114,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3178,14 +3200,14 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="42" t="s">
+      <c r="K48" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3238,12 +3260,12 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="42"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3296,12 +3318,12 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="42"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -3730,7 +3752,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="45" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3756,7 +3778,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="43"/>
+      <c r="I70" s="45"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3809,12 +3831,12 @@
       <c r="I72" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
     </row>
     <row r="73" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
@@ -3972,27 +3994,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47">
+    <row r="3" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43">
         <v>10.75</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="43">
         <v>600</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>20150707</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-5510</v>
+      </c>
+      <c r="H2" s="1">
+        <v>500</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20150722</v>
+      </c>
+      <c r="B3" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3190</v>
+      </c>
+      <c r="H3" s="1">
+        <v>300</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20150728</v>
+      </c>
+      <c r="B4" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3270</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20160113</v>
+      </c>
+      <c r="B5" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>300</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.82</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-4506</v>
+      </c>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20160114</v>
+      </c>
+      <c r="B6" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-3825</v>
+      </c>
+      <c r="H6" s="1">
+        <v>700</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>20160120</v>
+      </c>
+      <c r="B7" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4347</v>
+      </c>
+      <c r="H7" s="1">
+        <v>400</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>20160630</v>
+      </c>
+      <c r="B8" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1760</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20160705</v>
+      </c>
+      <c r="B9" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18.23</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1823</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+      <c r="I9" s="50">
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="J9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4535,7 +4847,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -5114,12 +5426,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
   <si>
     <t>时间</t>
   </si>
@@ -730,6 +730,10 @@
     <rPh sb="0" eb="1">
       <t>chi'cang</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1260,6 +1264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,12 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="259">
@@ -2085,7 +2089,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2114,7 +2118,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3200,14 +3204,14 @@
       <c r="I48" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="44" t="s">
+      <c r="K48" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3260,12 +3264,12 @@
       <c r="I50" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3318,12 +3322,12 @@
       <c r="I52" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="K52" s="44"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -3752,7 +3756,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="47" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3778,7 +3782,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="45"/>
+      <c r="I70" s="47"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3831,12 +3835,12 @@
       <c r="I72" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="K72" s="44"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
     </row>
     <row r="73" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
@@ -4026,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4063,7 +4067,7 @@
       <c r="H1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="44" t="s">
         <v>161</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -4095,7 +4099,7 @@
       <c r="H2" s="1">
         <v>500</v>
       </c>
-      <c r="I2" s="50"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,7 +4129,7 @@
       <c r="H3" s="1">
         <v>300</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
@@ -4155,7 +4159,7 @@
       <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
@@ -4185,7 +4189,7 @@
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="1" t="s">
         <v>145</v>
       </c>
@@ -4215,7 +4219,7 @@
       <c r="H6" s="1">
         <v>700</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="1" t="s">
         <v>147</v>
       </c>
@@ -4245,7 +4249,7 @@
       <c r="H7" s="1">
         <v>400</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="45"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4273,7 +4277,7 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="45"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4301,7 +4305,7 @@
       <c r="H9" s="1">
         <v>200</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="45">
         <v>-2.5089999999999999</v>
       </c>
       <c r="J9"/>
@@ -5414,10 +5418,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5426,12 +5430,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5618,6 +5622,23 @@
         <v>9496.7999999999993</v>
       </c>
       <c r="E13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>20160711</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="19">
         <v>1</v>
       </c>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="HK" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
     <sheet name="日志" sheetId="5" r:id="rId5"/>
@@ -25,9 +25,9 @@
     <sheet name="600363 联创光电" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$81</definedName>
   </definedNames>
-  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="172">
   <si>
     <t>时间</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>买重</t>
-  </si>
-  <si>
-    <t>粤海置地</t>
   </si>
   <si>
     <t>总结</t>
@@ -734,6 +731,78 @@
   </si>
   <si>
     <t>2W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SELL] [160615 @ 3116.37 - 160705 @ 3207.38] [000300 sh.沪深300] 2.920 count: 14
+[SELL] [160510 @ 2072.38 - 160704 @ 2163.29] [000016 sh.上证50] 4.387 count: 37
+[SELL] [160615 @ 2106.63 - 160705 @ 2168.85] [000016 sh.上证50] 2.954 count: 14
+[SELL] [160526 @ 2822.44 - 160706 @ 3017.29] [000001 sh.上证指数] 6.904 count: 27
+[SELL] [160530 @ 2822.45 - 160706 @ 3017.29] [000001 sh.上证指数] 6.903 count: 25
+[SELL] [160526 @ 4979.68 - 160629 @ 5316.25] [000009 sh.上证380] 6.759 count: 22
+[SELL] [160530 @ 4964.47 - 160629 @ 5316.25] [000009 sh.上证380] 7.086 count: 20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么密集的信号，不知道是突破还是回调</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'me'mi'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'zhi'dao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tu'po</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'tiao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一汽轿车</t>
+    <rPh sb="0" eb="1">
+      <t>y'q'j'c</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[BUY]  [160330 @ 14.20 - 160725 @ 10.73] [000800 sz.一汽轿车] -24.437 count: 79
+[BUY]  [160406 @ 13.96 - 160725 @ 10.73] [000800 sz.一汽轿车] -23.138 count: 75
+[BUY]  [160527 @ 13.19 - 160725 @ 10.73] [000800 sz.一汽轿车] -18.650 count: 39
+[BUY]  [160608 @ 11.64 - 160725 @ 10.73] [000800 sz.一汽轿车] -7.818 count: 31
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联众</t>
+    <rPh sb="0" eb="1">
+      <t>lian'zhong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1206,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,6 +1338,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1879,11 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -1893,7 +1973,8 @@
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="109" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -1922,10 +2003,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -1948,7 +2029,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -1971,7 +2052,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -1994,7 +2075,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -2017,7 +2098,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -2043,7 +2124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -2066,7 +2147,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -2089,11 +2170,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -2118,9 +2199,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -2143,7 +2224,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -2151,7 +2232,7 @@
         <v>601169</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -2166,10 +2247,10 @@
         <v>-7130</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -2177,7 +2258,7 @@
         <v>777</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -2192,7 +2273,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="115" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="115" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -2200,7 +2281,7 @@
         <v>601766</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>8</v>
@@ -2216,10 +2297,10 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -2227,7 +2308,7 @@
         <v>601766</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
@@ -2243,10 +2324,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -2254,7 +2335,7 @@
         <v>875</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -2269,7 +2350,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -2277,7 +2358,7 @@
         <v>777</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -2292,7 +2373,7 @@
         <v>-5024</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2303,7 +2384,7 @@
         <v>600363</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -2318,10 +2399,10 @@
         <v>-5510</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2344,10 +2425,10 @@
         <v>3598</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2355,7 +2436,7 @@
         <v>600585</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -2370,10 +2451,10 @@
         <v>2210</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2396,10 +2477,10 @@
         <v>3635</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2407,7 +2488,7 @@
         <v>601766</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>18</v>
@@ -2423,10 +2504,10 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2434,7 +2515,7 @@
         <v>875</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -2449,7 +2530,7 @@
         <v>977</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2460,7 +2541,7 @@
         <v>600363</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
@@ -2475,10 +2556,10 @@
         <v>3190</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2486,7 +2567,7 @@
         <v>875</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
@@ -2501,7 +2582,7 @@
         <v>4352</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2512,7 +2593,7 @@
         <v>600363</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
@@ -2527,10 +2608,10 @@
         <v>3270</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2538,7 +2619,7 @@
         <v>600585</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
@@ -2553,10 +2634,10 @@
         <v>2153</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2564,7 +2645,7 @@
         <v>600585</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -2579,10 +2660,10 @@
         <v>2121</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="46" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2590,7 +2671,7 @@
         <v>777</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>18</v>
@@ -2605,10 +2686,10 @@
         <v>6610</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2616,7 +2697,7 @@
         <v>600016</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
@@ -2631,10 +2712,10 @@
         <v>-1800</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="161" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2657,10 +2738,10 @@
         <v>-1254</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="161" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -2668,7 +2749,7 @@
         <v>601328</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
@@ -2683,10 +2764,10 @@
         <v>-1902</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2709,7 +2790,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2717,7 +2798,7 @@
         <v>601169</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
@@ -2732,13 +2813,13 @@
         <v>-1436</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -2746,7 +2827,7 @@
         <v>601169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>18</v>
@@ -2761,10 +2842,10 @@
         <v>870</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -2772,7 +2853,7 @@
         <v>601169</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>18</v>
@@ -2787,10 +2868,10 @@
         <v>862</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -2813,25 +2894,25 @@
         <v>-8002</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="M37" s="1">
         <v>-6.9269999999999996</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -2839,7 +2920,7 @@
         <v>777</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>18</v>
@@ -2854,10 +2935,10 @@
         <v>6958</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -2880,25 +2961,25 @@
         <v>5396</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="M39" s="1">
         <v>-6.9269999999999996</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -2921,25 +3002,25 @@
         <v>2725</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="M40" s="1">
         <v>-6.9269999999999996</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -2947,7 +3028,7 @@
         <v>601328</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>8</v>
@@ -2962,25 +3043,25 @@
         <v>-1857</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M41" s="7">
         <v>-6.5970000000000004</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -3003,10 +3084,10 @@
         <v>3500</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -3014,7 +3095,7 @@
         <v>601328</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>18</v>
@@ -3029,25 +3110,25 @@
         <v>3375</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M43" s="7">
         <v>-6.5970000000000004</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -3055,7 +3136,7 @@
         <v>600583</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
@@ -3070,25 +3151,25 @@
         <v>-1826</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="M44" s="1">
         <v>-14.137</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -3096,7 +3177,7 @@
         <v>600050</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>8</v>
@@ -3111,10 +3192,10 @@
         <v>-1866</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -3122,7 +3203,7 @@
         <v>600583</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -3137,25 +3218,25 @@
         <v>1874</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="M46" s="1">
         <v>7.3920000000000003</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -3163,7 +3244,7 @@
         <v>600050</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>18</v>
@@ -3179,7 +3260,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="46" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -3187,7 +3268,7 @@
         <v>600036</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
@@ -3202,18 +3283,18 @@
         <v>-3394</v>
       </c>
       <c r="I48" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K48" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -3236,10 +3317,10 @@
         <v>-5046</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -3247,7 +3328,7 @@
         <v>600036</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>8</v>
@@ -3262,16 +3343,16 @@
         <v>-4959</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-    </row>
-    <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+    </row>
+    <row r="51" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -3294,10 +3375,10 @@
         <v>5097</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -3305,7 +3386,7 @@
         <v>600036</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>18</v>
@@ -3320,16 +3401,16 @@
         <v>8490</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-    </row>
-    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3337,7 +3418,7 @@
         <v>600016</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>18</v>
@@ -3352,10 +3433,10 @@
         <v>1876</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>20151223</v>
       </c>
@@ -3363,7 +3444,7 @@
         <v>600668</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
@@ -3378,7 +3459,7 @@
         <v>-4074</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>20151225</v>
       </c>
@@ -3386,7 +3467,7 @@
         <v>600668</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
@@ -3401,7 +3482,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>20151225</v>
       </c>
@@ -3409,7 +3490,7 @@
         <v>600006</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>8</v>
@@ -3424,10 +3505,10 @@
         <v>-2592</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>20151229</v>
       </c>
@@ -3435,7 +3516,7 @@
         <v>600018</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>8</v>
@@ -3450,10 +3531,10 @@
         <v>-2012</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>20161014</v>
       </c>
@@ -3461,7 +3542,7 @@
         <v>600019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>8</v>
@@ -3476,10 +3557,10 @@
         <v>-2240</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>20160106</v>
       </c>
@@ -3487,7 +3568,7 @@
         <v>600006</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
@@ -3503,7 +3584,7 @@
       </c>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>20160106</v>
       </c>
@@ -3511,7 +3592,7 @@
         <v>600019</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>18</v>
@@ -3526,10 +3607,10 @@
         <v>597</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>20160111</v>
       </c>
@@ -3537,7 +3618,7 @@
         <v>600019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
@@ -3552,10 +3633,10 @@
         <v>572</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>20160111</v>
       </c>
@@ -3563,7 +3644,7 @@
         <v>600006</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>8</v>
@@ -3578,10 +3659,10 @@
         <v>-2331</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>20160112</v>
       </c>
@@ -3589,7 +3670,7 @@
         <v>600006</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
@@ -3604,10 +3685,10 @@
         <v>-1950</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>20160111</v>
       </c>
@@ -3615,7 +3696,7 @@
         <v>600428</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>8</v>
@@ -3638,7 +3719,7 @@
         <v>600363</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3653,10 +3734,10 @@
         <v>-4506</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>20160113</v>
       </c>
@@ -3664,7 +3745,7 @@
         <v>600019</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>18</v>
@@ -3679,7 +3760,7 @@
         <v>1144</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -3690,7 +3771,7 @@
         <v>600363</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3705,10 +3786,10 @@
         <v>-3825</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>20160119</v>
       </c>
@@ -3716,7 +3797,7 @@
         <v>600598</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3731,10 +3812,10 @@
         <v>-3384</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>20160120</v>
       </c>
@@ -3742,7 +3823,7 @@
         <v>600598</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>18</v>
@@ -3756,8 +3837,8 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="47" t="s">
-        <v>150</v>
+      <c r="I69" s="51" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -3768,7 +3849,7 @@
         <v>600363</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
@@ -3782,9 +3863,9 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="51"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>20160122</v>
       </c>
@@ -3792,7 +3873,7 @@
         <v>600598</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3807,10 +3888,10 @@
         <v>8800</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="36">
         <v>20160125</v>
       </c>
@@ -3818,7 +3899,7 @@
         <v>600036</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>8</v>
@@ -3833,16 +3914,16 @@
         <v>-6108</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-    </row>
-    <row r="73" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="K72" s="50"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+    </row>
+    <row r="73" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
         <v>20160126</v>
       </c>
@@ -3850,7 +3931,7 @@
         <v>2594</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>8</v>
@@ -3865,10 +3946,10 @@
         <v>-5327</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>20160127</v>
       </c>
@@ -3876,7 +3957,7 @@
         <v>2673</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3891,95 +3972,223 @@
         <v>-4654</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="39">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="49">
+        <v>20160128</v>
+      </c>
+      <c r="B75" s="49">
+        <v>2673</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" s="1">
+        <v>23.89</v>
+      </c>
+      <c r="G75" s="1">
+        <f>E75*F75</f>
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="39">
         <v>20150831</v>
-      </c>
-      <c r="B75" s="39">
-        <v>601169</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="39">
-        <v>100</v>
-      </c>
-      <c r="F75" s="39">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="G75" s="39">
-        <v>862</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="39">
-        <v>20160204</v>
       </c>
       <c r="B76" s="39">
         <v>601169</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="39">
+        <v>100</v>
+      </c>
+      <c r="F76" s="39">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G76" s="39">
+        <v>862</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="39">
+        <v>20160204</v>
+      </c>
+      <c r="B77" s="39">
+        <v>601169</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E77" s="39">
         <v>500</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F77" s="39">
         <v>9.6</v>
       </c>
-      <c r="G76" s="39">
+      <c r="G77" s="39">
         <v>-4800</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="41">
+      <c r="I77" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="41">
         <v>20160224</v>
       </c>
-      <c r="B77" s="41">
+      <c r="B78" s="41">
         <v>2594</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="41" t="s">
+      <c r="C78" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E78" s="41">
         <v>100</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F78" s="41">
         <v>54.6</v>
       </c>
-      <c r="G77" s="41">
+      <c r="G78" s="41">
         <v>5460</v>
       </c>
-      <c r="I77" s="40" t="s">
-        <v>160</v>
+      <c r="I78" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>20160413</v>
+      </c>
+      <c r="B79" s="46">
+        <v>600428</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="1">
+        <v>300</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>20160630</v>
+      </c>
+      <c r="B80" s="46">
+        <v>600363</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1">
+        <v>100</v>
+      </c>
+      <c r="F80" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1760</v>
+      </c>
+      <c r="H80" s="1">
+        <v>300</v>
+      </c>
+      <c r="I80" s="45"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+      <c r="A81" s="47">
+        <v>20160705</v>
+      </c>
+      <c r="B81" s="47">
+        <v>600363</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="47">
+        <v>100</v>
+      </c>
+      <c r="F81" s="47">
+        <v>18.23</v>
+      </c>
+      <c r="G81" s="47">
+        <v>1823</v>
+      </c>
+      <c r="H81" s="47">
+        <v>200</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="115" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2016072</v>
+      </c>
+      <c r="B82" s="26">
+        <v>800</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="1">
+        <v>300</v>
+      </c>
+      <c r="F82" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="G82" s="1">
+        <f>F82*E82*-1</f>
+        <v>-3264.0000000000005</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C77">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="联创光电"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C81"/>
   <mergeCells count="6">
     <mergeCell ref="K72:P72"/>
     <mergeCell ref="I8:I9"/>
@@ -4006,10 +4215,10 @@
   <sheetData>
     <row r="2" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
@@ -4031,7 +4240,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4065,13 +4274,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4082,7 +4291,7 @@
         <v>600363</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4101,7 +4310,7 @@
       </c>
       <c r="I2" s="45"/>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4112,7 +4321,7 @@
         <v>600363</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -4131,7 +4340,7 @@
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4142,7 +4351,7 @@
         <v>600363</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -4161,7 +4370,7 @@
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4172,7 +4381,7 @@
         <v>600363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -4191,7 +4400,7 @@
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4202,7 +4411,7 @@
         <v>600363</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -4221,7 +4430,7 @@
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
@@ -4232,7 +4441,7 @@
         <v>600363</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -4260,7 +4469,7 @@
         <v>600363</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -4288,7 +4497,7 @@
         <v>600363</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -4318,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4329,6 +4538,7 @@
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4581,28 +4791,29 @@
     </row>
     <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>20150612</v>
+        <v>20160726</v>
       </c>
       <c r="B10" s="1">
-        <v>124</v>
+        <v>6899</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>2.04</v>
+        <v>2.93</v>
       </c>
       <c r="H10" s="1">
-        <v>-4080</v>
+        <f>-(F10*G10+58.73)</f>
+        <v>-2988.73</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -4758,7 +4969,6 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -4829,16 +5039,6 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4910,13 +5110,13 @@
         <v>20150619</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4924,13 +5124,13 @@
         <v>20150622</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>-6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4938,13 +5138,13 @@
         <v>20150629</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>-7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4958,7 +5158,7 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4966,13 +5166,13 @@
         <v>20150703</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>-6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4980,13 +5180,13 @@
         <v>20150706</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>-5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4994,13 +5194,13 @@
         <v>20150707</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>-5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -5014,7 +5214,7 @@
         <v>0.8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,7 +5228,7 @@
         <v>0.3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5042,7 +5242,7 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5267,10 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5095,13 +5295,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5130,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5141,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5163,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5174,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5182,23 +5382,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="C7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5229,13 +5429,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
@@ -5243,7 +5443,7 @@
         <v>603169</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="19">
         <v>200</v>
@@ -5283,7 +5483,7 @@
         <v>600363</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="19">
         <v>100</v>
@@ -5421,7 +5621,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5430,12 +5630,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5445,13 +5645,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -5462,10 +5662,10 @@
         <v>20151207</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="D4" s="19">
         <v>20000</v>
@@ -5479,10 +5679,10 @@
         <v>20151218</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="19">
         <v>30011</v>
@@ -5497,7 +5697,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="19">
         <v>29930</v>
@@ -5511,10 +5711,10 @@
         <v>20160106</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="D7" s="19">
         <v>24939</v>
@@ -5528,10 +5728,10 @@
         <v>20160113</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="D8" s="19">
         <v>19948</v>
@@ -5545,10 +5745,10 @@
         <v>20160119</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="D9" s="19">
         <v>14954</v>
@@ -5562,10 +5762,10 @@
         <v>20160122</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="19">
         <v>4956</v>
@@ -5579,10 +5779,10 @@
         <v>20160126</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="19">
         <v>3957</v>
@@ -5596,10 +5796,10 @@
         <v>20160127</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="19">
         <v>-502.8</v>
@@ -5613,10 +5813,10 @@
         <v>20160202</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="19">
         <v>9496.7999999999993</v>
@@ -5630,10 +5830,10 @@
         <v>20160711</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="19">
         <v>20000</v>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="178">
   <si>
     <t>时间</t>
   </si>
@@ -804,6 +804,32 @@
   <si>
     <t>BUY</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天信息</t>
+    <rPh sb="0" eb="1">
+      <t>hang'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUY]  [160506 @ 53.10</t>
+  </si>
+  <si>
+    <t>160810 @ 23.04]</t>
+  </si>
+  <si>
+    <t>[600271 sh.航天信息]</t>
+  </si>
+  <si>
+    <t>count: 66</t>
   </si>
 </sst>
 </file>
@@ -1960,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -4128,7 +4154,7 @@
       <c r="I80" s="45"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
       <c r="A81" s="47">
         <v>20160705</v>
       </c>
@@ -4160,7 +4186,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="115" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="115" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2016072</v>
       </c>
@@ -4185,6 +4211,48 @@
       </c>
       <c r="I82" s="21" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>20160812</v>
+      </c>
+      <c r="B83" s="26">
+        <v>600271</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="1">
+        <v>300</v>
+      </c>
+      <c r="F83" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="G83" s="1">
+        <f>F83*E83*-1</f>
+        <v>-6768</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M83" s="1">
+        <v>-56.61</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5620,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
   <si>
     <t>时间</t>
   </si>
@@ -830,6 +830,10 @@
   </si>
   <si>
     <t>count: 66</t>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1232,7 +1236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,6 +1377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2196,7 +2203,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2225,7 +2232,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3311,14 +3318,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3371,12 +3378,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="50"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
     </row>
     <row r="51" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3429,12 +3436,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -3863,7 +3870,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="51" t="s">
+      <c r="I69" s="52" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3889,7 +3896,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="51"/>
+      <c r="I70" s="52"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3942,12 +3949,12 @@
       <c r="I72" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K72" s="50"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
     </row>
     <row r="73" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
@@ -4254,6 +4261,54 @@
       <c r="N83" s="1" t="s">
         <v>177</v>
       </c>
+    </row>
+    <row r="84" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="50">
+        <v>20160816</v>
+      </c>
+      <c r="B84" s="50">
+        <v>601169</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="50">
+        <v>100</v>
+      </c>
+      <c r="F84" s="50">
+        <v>8.98</v>
+      </c>
+      <c r="G84" s="50">
+        <v>898</v>
+      </c>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="50">
+        <v>20160816</v>
+      </c>
+      <c r="B85" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1">
+        <v>100</v>
+      </c>
+      <c r="F85" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="G85" s="1">
+        <v>413</v>
+      </c>
+      <c r="I85" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C81"/>
@@ -5698,12 +5753,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="HK" sheetId="2" r:id="rId2"/>
     <sheet name="总" sheetId="3" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" r:id="rId4"/>
-    <sheet name="日志" sheetId="5" r:id="rId5"/>
-    <sheet name="规则" sheetId="6" r:id="rId6"/>
-    <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="拆借" sheetId="8" r:id="rId8"/>
-    <sheet name="纪律" sheetId="9" r:id="rId9"/>
-    <sheet name="601169 北京银行" sheetId="11" r:id="rId10"/>
-    <sheet name="600363 联创光电" sheetId="12" r:id="rId11"/>
+    <sheet name="操作系统" sheetId="13" r:id="rId5"/>
+    <sheet name="日志" sheetId="5" r:id="rId6"/>
+    <sheet name="规则" sheetId="6" r:id="rId7"/>
+    <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="拆借" sheetId="8" r:id="rId9"/>
+    <sheet name="纪律" sheetId="9" r:id="rId10"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$81</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="184">
   <si>
     <t>时间</t>
   </si>
@@ -820,16 +821,73 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>160810 @ 23.04]</t>
+  </si>
+  <si>
+    <t>[600271 sh.航天信息]</t>
+  </si>
+  <si>
+    <t>count: 66</t>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证380双杀，不敢等了</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuang'sha</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'gan'deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三安光电</t>
+    <rPh sb="0" eb="1">
+      <t>san'an'guang'd</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点早</t>
+    <rPh sb="0" eb="1">
+      <t>you'dian'zao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>[BUY]  [160506 @ 53.10</t>
-  </si>
-  <si>
-    <t>160810 @ 23.04]</t>
-  </si>
-  <si>
-    <t>[600271 sh.航天信息]</t>
-  </si>
-  <si>
-    <t>count: 66</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有耐心，买早了，只能忍痛</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nai'xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mai'zao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ren'tong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELL</t>
@@ -1236,7 +1294,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,6 +1435,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1993,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2264,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2232,7 +2293,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3318,14 +3379,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="51" t="s">
+      <c r="K48" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3378,12 +3439,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
     </row>
     <row r="51" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3436,12 +3497,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="51"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -3870,7 +3931,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="52" t="s">
+      <c r="I69" s="53" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3896,7 +3957,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="52"/>
+      <c r="I70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3949,12 +4010,12 @@
       <c r="I72" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
     </row>
     <row r="73" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A73" s="38">
@@ -4222,93 +4283,216 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>20160812</v>
-      </c>
-      <c r="B83" s="26">
-        <v>600271</v>
+        <v>20160802</v>
+      </c>
+      <c r="B83" s="51">
+        <v>600703</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E83" s="1">
         <v>300</v>
       </c>
       <c r="F83" s="1">
-        <v>22.56</v>
+        <v>12.13</v>
       </c>
       <c r="G83" s="1">
         <f>F83*E83*-1</f>
+        <v>-3639.0000000000005</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>20160812</v>
+      </c>
+      <c r="B84" s="26">
+        <v>600271</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="1">
+        <v>300</v>
+      </c>
+      <c r="F84" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="G84" s="1">
+        <f>F84*E84*-1</f>
         <v>-6768</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M84" s="1">
+        <v>-56.61</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M83" s="1">
-        <v>-56.61</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="50">
-        <v>20160816</v>
-      </c>
-      <c r="B84" s="50">
-        <v>601169</v>
-      </c>
-      <c r="C84" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" s="50">
-        <v>100</v>
-      </c>
-      <c r="F84" s="50">
-        <v>8.98</v>
-      </c>
-      <c r="G84" s="50">
-        <v>898</v>
-      </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="50">
         <v>20160816</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="50">
+        <v>601169</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="50">
+        <v>100</v>
+      </c>
+      <c r="F85" s="50">
+        <v>8.98</v>
+      </c>
+      <c r="G85" s="50">
+        <v>898</v>
+      </c>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="50">
+        <v>20160816</v>
+      </c>
+      <c r="B86" s="1">
         <v>600818</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E86" s="1">
         <v>100</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F86" s="1">
         <v>4.13</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G86" s="1">
         <v>413</v>
       </c>
-      <c r="I85" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>20160819</v>
+      </c>
+      <c r="B87" s="51">
+        <v>600271</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="1">
+        <v>300</v>
+      </c>
+      <c r="F87" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="G87" s="1">
+        <f>F87*E87</f>
+        <v>6984</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M87" s="1">
+        <v>-56.61</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>20160819</v>
+      </c>
+      <c r="B88" s="51">
+        <v>800</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="1">
+        <v>300</v>
+      </c>
+      <c r="F88" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G88" s="1">
+        <f>F88*E88</f>
+        <v>3240</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>20160819</v>
+      </c>
+      <c r="B89" s="51">
+        <v>600703</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="1">
+        <v>300</v>
+      </c>
+      <c r="F89" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="G89" s="1">
+        <f>F89*E89</f>
+        <v>3654</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C81"/>
@@ -4328,6 +4512,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4358,7 +4563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -5173,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -5379,7 +5584,7 @@
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5404,10 +5609,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5433,7 +5653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5530,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G19"/>
   <sheetViews>
@@ -5739,12 +5959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5753,12 +5973,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5972,25 +6192,4 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$82</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="198">
   <si>
     <t>时间</t>
   </si>
@@ -891,6 +891,61 @@
   </si>
   <si>
     <t>SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUY]  [160705 @ 2168.85 - 160729 @ 2155.24] [000016 sh.上证50] -0.628 count: 18</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证50</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SELL] [160615 @ 5167.85 - 160816 @ 5676.30] [000009 sh.上证380] 9.839 count: 44</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>160817 @ 5688.90]</t>
+  </si>
+  <si>
+    <t>[000009 sh.上证380]</t>
+  </si>
+  <si>
+    <t>count: 32</t>
+  </si>
+  <si>
+    <t>上证380</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SELL] [160704 @ 5424.38 - 160817 @ 5688.90] [000009 sh.上证380] 4.877 count: 32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUY]  [151026 @ 2350.02</t>
+  </si>
+  <si>
+    <t>160121 @ 2040.98]</t>
+  </si>
+  <si>
+    <t>[000016 sh.上证50]</t>
+  </si>
+  <si>
+    <t>count: 62</t>
+  </si>
+  <si>
+    <t>SIG-BUY</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1435,6 +1490,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2054,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2322,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2293,7 +2351,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3379,14 +3437,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="52" t="s">
+      <c r="K48" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3439,12 +3497,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
     </row>
     <row r="51" spans="1:16" ht="46" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3497,12 +3555,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -3931,7 +3989,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="53" t="s">
+      <c r="I69" s="54" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3957,171 +4015,177 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="53"/>
+      <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
+        <v>20160121</v>
+      </c>
+      <c r="B71" s="52">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M71" s="1">
+        <v>-13.151</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>20160122</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B72" s="36">
         <v>600598</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E72" s="1">
         <v>800</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>11</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G72" s="1">
         <v>8800</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="36">
+    <row r="73" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="36">
         <v>20160125</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B73" s="36">
         <v>600036</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C73" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D73" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E73" s="36">
         <v>400</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F73" s="36">
         <v>15.27</v>
       </c>
-      <c r="G72" s="36">
+      <c r="G73" s="36">
         <v>-6108</v>
       </c>
-      <c r="I72" s="35" t="s">
+      <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K72" s="52"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-    </row>
-    <row r="73" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
-      <c r="A73" s="38">
+      <c r="K73" s="53"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+    </row>
+    <row r="74" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
+      <c r="A74" s="38">
         <v>20160126</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B74" s="38">
         <v>2594</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C74" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E74" s="38">
         <v>100</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F74" s="38">
         <v>53.27</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G74" s="38">
         <v>-5327</v>
       </c>
-      <c r="I73" s="37" t="s">
+      <c r="I74" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="38">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
         <v>20160127</v>
       </c>
-      <c r="B74" s="26">
-        <v>2673</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1">
-        <v>200</v>
-      </c>
-      <c r="F74" s="1">
-        <v>23.27</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-4654</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="49">
-        <v>20160128</v>
-      </c>
-      <c r="B75" s="49">
+      <c r="B75" s="26">
         <v>2673</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1">
         <v>200</v>
       </c>
       <c r="F75" s="1">
+        <v>23.27</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-4654</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="49">
+        <v>20160128</v>
+      </c>
+      <c r="B76" s="49">
+        <v>2673</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
         <v>23.89</v>
       </c>
-      <c r="G75" s="1">
-        <f>E75*F75</f>
+      <c r="G76" s="1">
+        <f>E76*F76</f>
         <v>4778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="39">
-        <v>20150831</v>
-      </c>
-      <c r="B76" s="39">
-        <v>601169</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="39">
-        <v>100</v>
-      </c>
-      <c r="F76" s="39">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="G76" s="39">
-        <v>862</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="39">
-        <v>20160204</v>
+        <v>20150831</v>
       </c>
       <c r="B77" s="39">
         <v>601169</v>
@@ -4130,166 +4194,165 @@
         <v>29</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E77" s="39">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F77" s="39">
-        <v>9.6</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="G77" s="39">
-        <v>-4800</v>
+        <v>862</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="41">
+    <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="39">
+        <v>20160204</v>
+      </c>
+      <c r="B78" s="39">
+        <v>601169</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="39">
+        <v>500</v>
+      </c>
+      <c r="F78" s="39">
+        <v>9.6</v>
+      </c>
+      <c r="G78" s="39">
+        <v>-4800</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="41">
         <v>20160224</v>
       </c>
-      <c r="B78" s="41">
+      <c r="B79" s="41">
         <v>2594</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C79" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D79" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E79" s="41">
         <v>100</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F79" s="41">
         <v>54.6</v>
       </c>
-      <c r="G78" s="41">
+      <c r="G79" s="41">
         <v>5460</v>
       </c>
-      <c r="I78" s="40" t="s">
+      <c r="I79" s="40" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>20160413</v>
-      </c>
-      <c r="B79" s="46">
-        <v>600428</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" s="1">
-        <v>300</v>
-      </c>
-      <c r="F79" s="1">
-        <v>8.01</v>
-      </c>
-      <c r="G79" s="1">
-        <v>2403</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
+        <v>20160413</v>
+      </c>
+      <c r="B80" s="46">
+        <v>600428</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="1">
+        <v>300</v>
+      </c>
+      <c r="F80" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>20160630</v>
       </c>
-      <c r="B80" s="46">
+      <c r="B81" s="46">
         <v>600363</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E81" s="1">
         <v>100</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F81" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G81" s="1">
         <v>1760</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H81" s="1">
         <v>300</v>
       </c>
-      <c r="I80" s="45"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:14" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
-      <c r="A81" s="47">
+      <c r="I81" s="45"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:14" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+      <c r="A82" s="47">
         <v>20160705</v>
       </c>
-      <c r="B81" s="47">
+      <c r="B82" s="47">
         <v>600363</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C82" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D82" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="47">
+      <c r="E82" s="47">
         <v>100</v>
       </c>
-      <c r="F81" s="47">
+      <c r="F82" s="47">
         <v>18.23</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G82" s="47">
         <v>1823</v>
       </c>
-      <c r="H81" s="47">
+      <c r="H82" s="47">
         <v>200</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I82" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J81" s="48" t="s">
+      <c r="J82" s="48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="115" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>2016072</v>
-      </c>
-      <c r="B82" s="26">
+    <row r="83" spans="1:14" ht="115" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>20160726</v>
+      </c>
+      <c r="B83" s="26">
         <v>800</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" s="1">
-        <v>300</v>
-      </c>
-      <c r="F82" s="1">
-        <v>10.88</v>
-      </c>
-      <c r="G82" s="1">
-        <f>F82*E82*-1</f>
-        <v>-3264.0000000000005</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>20160802</v>
-      </c>
-      <c r="B83" s="51">
-        <v>600703</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>168</v>
@@ -4298,206 +4361,299 @@
         <v>300</v>
       </c>
       <c r="F83" s="1">
-        <v>12.13</v>
+        <v>10.88</v>
       </c>
       <c r="G83" s="1">
         <f>F83*E83*-1</f>
-        <v>-3639.0000000000005</v>
+        <v>-3264.0000000000005</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
+        <v>20160729</v>
+      </c>
+      <c r="B84" s="52">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>20160802</v>
+      </c>
+      <c r="B85" s="51">
+        <v>600703</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="1">
+        <v>300</v>
+      </c>
+      <c r="F85" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="G85" s="1">
+        <f>F85*E85*-1</f>
+        <v>-3639.0000000000005</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>20160812</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B86" s="26">
         <v>600271</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E86" s="1">
         <v>300</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F86" s="1">
         <v>22.56</v>
       </c>
-      <c r="G84" s="1">
-        <f>F84*E84*-1</f>
+      <c r="G86" s="1">
+        <f>F86*E86*-1</f>
         <v>-6768</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M86" s="1">
         <v>-56.61</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50">
-        <v>20160816</v>
-      </c>
-      <c r="B85" s="50">
-        <v>601169</v>
-      </c>
-      <c r="C85" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="50">
-        <v>100</v>
-      </c>
-      <c r="F85" s="50">
-        <v>8.98</v>
-      </c>
-      <c r="G85" s="50">
-        <v>898</v>
-      </c>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="50">
-        <v>20160816</v>
-      </c>
-      <c r="B86" s="1">
-        <v>600818</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="1">
-        <v>100</v>
-      </c>
-      <c r="F86" s="1">
-        <v>4.13</v>
-      </c>
-      <c r="G86" s="1">
-        <v>413</v>
-      </c>
-      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
+        <v>20160816</v>
+      </c>
+      <c r="B87" s="26">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="50">
+        <v>20160816</v>
+      </c>
+      <c r="B88" s="50">
+        <v>601169</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="50">
+        <v>100</v>
+      </c>
+      <c r="F88" s="50">
+        <v>8.98</v>
+      </c>
+      <c r="G88" s="50">
+        <v>898</v>
+      </c>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="50">
+        <v>20160816</v>
+      </c>
+      <c r="B89" s="1">
+        <v>600818</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1">
+        <v>100</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="G89" s="1">
+        <v>413</v>
+      </c>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>20160816</v>
+      </c>
+      <c r="B90" s="52">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M90" s="1">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>20160819</v>
       </c>
-      <c r="B87" s="51">
+      <c r="B91" s="51">
         <v>600271</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E91" s="1">
         <v>300</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F91" s="1">
         <v>23.28</v>
       </c>
-      <c r="G87" s="1">
-        <f>F87*E87</f>
+      <c r="G91" s="1">
+        <f>F91*E91</f>
         <v>6984</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M91" s="1">
         <v>-56.61</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>20160819</v>
       </c>
-      <c r="B88" s="51">
+      <c r="B92" s="51">
         <v>800</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E92" s="1">
         <v>300</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F92" s="1">
         <v>10.8</v>
       </c>
-      <c r="G88" s="1">
-        <f>F88*E88</f>
+      <c r="G92" s="1">
+        <f>F92*E92</f>
         <v>3240</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I92" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>20160819</v>
       </c>
-      <c r="B89" s="51">
+      <c r="B93" s="51">
         <v>600703</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E93" s="1">
         <v>300</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F93" s="1">
         <v>12.18</v>
       </c>
-      <c r="G89" s="1">
-        <f>F89*E89</f>
+      <c r="G93" s="1">
+        <f>F93*E93</f>
         <v>3654</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I93" s="21" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C81"/>
+  <autoFilter ref="C1:C82"/>
   <mergeCells count="6">
-    <mergeCell ref="K72:P72"/>
+    <mergeCell ref="K73:P73"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="K48:P48"/>
     <mergeCell ref="K50:P50"/>
@@ -5378,7 +5534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -5973,12 +6129,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="200">
   <si>
     <t>时间</t>
   </si>
@@ -946,6 +946,20 @@
   </si>
   <si>
     <t>SIG-BUY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10 ，止损。盈利50</t>
+    <rPh sb="6" eb="7">
+      <t>zhi'sun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying'li</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
@@ -5013,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5302,15 +5316,34 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="1">
+        <v>20160823</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6899</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H11" s="1">
+        <f>(F11*G11+58.73)</f>
+        <v>3158.73</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -6117,10 +6150,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6156,7 +6189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20151207</v>
       </c>
@@ -6173,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20151218</v>
       </c>
@@ -6190,7 +6223,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20151231</v>
       </c>
@@ -6205,7 +6238,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160106</v>
       </c>
@@ -6222,7 +6255,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160113</v>
       </c>
@@ -6239,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160119</v>
       </c>
@@ -6256,7 +6289,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160122</v>
       </c>
@@ -6273,7 +6306,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160126</v>
       </c>
@@ -6290,7 +6323,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160127</v>
       </c>
@@ -6307,7 +6340,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20160202</v>
       </c>
@@ -6339,6 +6372,23 @@
       </c>
       <c r="E14" s="19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>20160823</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="19">
+        <v>36042</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="规则" sheetId="6" r:id="rId7"/>
     <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="拆借" sheetId="8" r:id="rId9"/>
-    <sheet name="纪律" sheetId="9" r:id="rId10"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="仓" sheetId="14" r:id="rId10"/>
+    <sheet name="纪律" sheetId="9" r:id="rId11"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$94</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="221">
   <si>
     <t>时间</t>
   </si>
@@ -959,6 +960,183 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ying'li</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数SELL,开启卖出窗口</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuang'k</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数BUY,开启买入窗口</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai'qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chuang'k</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借</t>
+    <rPh sb="0" eb="1">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>注资，到100K</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位</t>
+    <rPh sb="0" eb="1">
+      <t>cang'wei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>份数</t>
+    <rPh sb="0" eb="1">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每份</t>
+    <rPh sb="0" eb="1">
+      <t>mei'fen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票市值</t>
+    <rPh sb="0" eb="1">
+      <t>gu'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出内蒙华电，收益30</t>
+    <rPh sb="0" eb="1">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua'dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'yi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提</t>
+    <rPh sb="0" eb="1">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出交通银行，盈利210，提10%</t>
+    <rPh sb="0" eb="1">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'ting'yin'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying'li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户总额</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除金额</t>
+    <rPh sb="0" eb="1">
+      <t>chai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1363,7 +1541,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1504,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,10 +2307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P93"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2172,7 +2354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20150518</v>
       </c>
@@ -2195,7 +2377,7 @@
         <v>-2289</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20150519</v>
       </c>
@@ -2218,7 +2400,7 @@
         <v>-4692</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20150519</v>
       </c>
@@ -2241,7 +2423,7 @@
         <v>-1539</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20150601</v>
       </c>
@@ -2264,7 +2446,7 @@
         <v>-7076</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20150604</v>
       </c>
@@ -2290,7 +2472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20150616</v>
       </c>
@@ -2313,7 +2495,7 @@
         <v>-7034</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20150616</v>
       </c>
@@ -2336,11 +2518,11 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20150616</v>
       </c>
@@ -2365,9 +2547,9 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20150617</v>
       </c>
@@ -2390,7 +2572,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -2416,7 +2598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20150619</v>
       </c>
@@ -2439,7 +2621,7 @@
         <v>-8019</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="115" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="115" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>20150626</v>
       </c>
@@ -2466,7 +2648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>20150629</v>
       </c>
@@ -2493,7 +2675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20150703</v>
       </c>
@@ -2516,7 +2698,7 @@
         <v>-4725</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20150706</v>
       </c>
@@ -2542,7 +2724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20150707</v>
       </c>
@@ -2568,7 +2750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>20150709</v>
       </c>
@@ -2594,7 +2776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20150710</v>
       </c>
@@ -2620,7 +2802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20150710</v>
       </c>
@@ -2646,7 +2828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20150710</v>
       </c>
@@ -2673,7 +2855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20150713</v>
       </c>
@@ -2699,7 +2881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20150722</v>
       </c>
@@ -2725,7 +2907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20150727</v>
       </c>
@@ -2751,7 +2933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20150728</v>
       </c>
@@ -2777,7 +2959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20150805</v>
       </c>
@@ -2803,7 +2985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>20150805</v>
       </c>
@@ -2829,7 +3011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="46" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>20150810</v>
       </c>
@@ -2855,7 +3037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="183" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>20150818</v>
       </c>
@@ -2881,7 +3063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>20150819</v>
       </c>
@@ -2933,7 +3115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>20150819</v>
       </c>
@@ -2956,7 +3138,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -2982,10 +3164,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -3011,7 +3193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -3037,7 +3219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>20151008</v>
       </c>
@@ -3078,7 +3260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>20151014</v>
       </c>
@@ -3104,7 +3286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>20151020</v>
       </c>
@@ -3145,7 +3327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>20151021</v>
       </c>
@@ -3227,7 +3409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>20151109</v>
       </c>
@@ -3294,7 +3476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>20151201</v>
       </c>
@@ -3335,7 +3517,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" ht="69" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>20151202</v>
       </c>
@@ -3361,7 +3543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20151204</v>
       </c>
@@ -3402,7 +3584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>20151204</v>
       </c>
@@ -3426,7 +3608,7 @@
       </c>
       <c r="I47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" ht="46" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>20151211</v>
       </c>
@@ -3451,16 +3633,16 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="53" t="s">
+      <c r="K48" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>20151211</v>
       </c>
@@ -3486,7 +3668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="23">
         <v>20151214</v>
       </c>
@@ -3511,14 +3693,14 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-    </row>
-    <row r="51" spans="1:16" ht="46" x14ac:dyDescent="0.3">
+      <c r="K50" s="54"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>20151215</v>
       </c>
@@ -3544,7 +3726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="26">
         <v>20151214</v>
       </c>
@@ -3569,14 +3751,14 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-    </row>
-    <row r="53" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K52" s="54"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+    </row>
+    <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>20151218</v>
       </c>
@@ -3602,7 +3784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>20151223</v>
       </c>
@@ -3625,7 +3807,7 @@
         <v>-4074</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>20151225</v>
       </c>
@@ -3648,7 +3830,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>20151225</v>
       </c>
@@ -3674,7 +3856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>20151229</v>
       </c>
@@ -3700,7 +3882,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>20161014</v>
       </c>
@@ -3726,7 +3908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>20160106</v>
       </c>
@@ -3750,7 +3932,7 @@
       </c>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>20160106</v>
       </c>
@@ -3776,7 +3958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>20160111</v>
       </c>
@@ -3802,7 +3984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>20160111</v>
       </c>
@@ -3828,7 +4010,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>20160112</v>
       </c>
@@ -3854,7 +4036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>20160111</v>
       </c>
@@ -3877,7 +4059,7 @@
         <v>-2331</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>20160113</v>
       </c>
@@ -3903,7 +4085,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>20160113</v>
       </c>
@@ -3929,7 +4111,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>20160114</v>
       </c>
@@ -3955,7 +4137,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>20160119</v>
       </c>
@@ -3981,7 +4163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>20160120</v>
       </c>
@@ -4003,11 +4185,11 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="54" t="s">
+      <c r="I69" s="55" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>20160120</v>
       </c>
@@ -4029,9 +4211,9 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="54"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I70" s="55"/>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>20160121</v>
       </c>
@@ -4063,7 +4245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>20160122</v>
       </c>
@@ -4089,7 +4271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="36">
         <v>20160125</v>
       </c>
@@ -4114,14 +4296,14 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-    </row>
-    <row r="74" spans="1:16" s="38" customFormat="1" ht="69" x14ac:dyDescent="0.15">
+      <c r="K73" s="54"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+    </row>
+    <row r="74" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
         <v>20160126</v>
       </c>
@@ -4147,7 +4329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>20160127</v>
       </c>
@@ -4173,7 +4355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="49">
         <v>20160128</v>
       </c>
@@ -4197,7 +4379,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="39">
         <v>20150831</v>
       </c>
@@ -4223,7 +4405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="39">
         <v>20160204</v>
       </c>
@@ -4249,7 +4431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="41">
         <v>20160224</v>
       </c>
@@ -4275,7 +4457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>20160413</v>
       </c>
@@ -4298,7 +4480,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>20160630</v>
       </c>
@@ -4326,7 +4508,7 @@
       <c r="I81" s="45"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:14" s="47" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" s="47" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="47">
         <v>20160705</v>
       </c>
@@ -4358,7 +4540,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="115" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="115" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>20160726</v>
       </c>
@@ -4385,7 +4567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>20160729</v>
       </c>
@@ -4402,7 +4584,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>20160802</v>
       </c>
@@ -4429,7 +4611,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>20160812</v>
       </c>
@@ -4471,7 +4653,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>20160816</v>
       </c>
@@ -4488,7 +4670,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="50">
         <v>20160816</v>
       </c>
@@ -4512,7 +4694,7 @@
       </c>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="50">
         <v>20160816</v>
       </c>
@@ -4536,7 +4718,7 @@
       </c>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>20160816</v>
       </c>
@@ -4568,7 +4750,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>20160819</v>
       </c>
@@ -4610,7 +4792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>20160819</v>
       </c>
@@ -4637,7 +4819,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>20160819</v>
       </c>
@@ -4664,8 +4846,39 @@
         <v>180</v>
       </c>
     </row>
+    <row r="94" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="53">
+        <v>20150906</v>
+      </c>
+      <c r="B94" s="53">
+        <v>601328</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="53">
+        <v>100</v>
+      </c>
+      <c r="F94" s="53">
+        <v>5.79</v>
+      </c>
+      <c r="G94" s="53">
+        <f>E94*F94</f>
+        <v>579</v>
+      </c>
+      <c r="I94" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C82"/>
+  <autoFilter ref="C1:C94">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="交通银行"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="K73:P73"/>
     <mergeCell ref="I8:I9"/>
@@ -4682,6 +4895,157 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
+        <v>20160831</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H2" s="19">
+        <v>50</v>
+      </c>
+      <c r="I2" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>20160905</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="19">
+        <v>100115</v>
+      </c>
+      <c r="F3" s="19">
+        <v>45667.199999999997</v>
+      </c>
+      <c r="G3" s="19">
+        <f>F3/C3*10</f>
+        <v>4.5614743045497672</v>
+      </c>
+      <c r="H3" s="19">
+        <v>50</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>20160905</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="19">
+        <v>100114.7</v>
+      </c>
+      <c r="F4" s="19">
+        <v>45667.199999999997</v>
+      </c>
+      <c r="G4" s="19">
+        <f>F4/C4*10</f>
+        <v>4.5614879732946303</v>
+      </c>
+      <c r="H4" s="19">
+        <v>50</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
+        <v>20160906</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="19">
+        <f>D5+E5</f>
+        <v>99649.3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>50323</v>
+      </c>
+      <c r="E5" s="19">
+        <v>49326.3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45166.8</v>
+      </c>
+      <c r="G5" s="19">
+        <f>F5/C5*10</f>
+        <v>4.5325757431311615</v>
+      </c>
+      <c r="H5" s="19">
+        <v>50</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4701,7 +5065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -4733,7 +5097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -5027,7 +5391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5565,10 +5929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -5760,6 +6124,20 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>20160831</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5844,10 +6222,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5857,79 +6235,89 @@
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A1" s="16">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A7" s="16">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="C7" s="17" t="s">
+    <row r="13" spans="1:4" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="C13" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6150,26 +6538,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6180,16 +6570,19 @@
         <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20151207</v>
       </c>
@@ -6199,14 +6592,15 @@
       <c r="C4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20"/>
+      <c r="E4" s="19">
         <v>20000</v>
       </c>
-      <c r="E4" s="19">
+      <c r="F4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20151218</v>
       </c>
@@ -6216,14 +6610,15 @@
       <c r="C5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19">
         <v>30011</v>
       </c>
-      <c r="E5" s="19">
+      <c r="F5" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20151231</v>
       </c>
@@ -6231,14 +6626,15 @@
       <c r="C6" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="20"/>
+      <c r="E6" s="19">
         <v>29930</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160106</v>
       </c>
@@ -6248,14 +6644,15 @@
       <c r="C7" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20"/>
+      <c r="E7" s="19">
         <v>24939</v>
       </c>
-      <c r="E7" s="19">
+      <c r="F7" s="19">
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160113</v>
       </c>
@@ -6265,14 +6662,15 @@
       <c r="C8" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19">
         <v>19948</v>
       </c>
-      <c r="E8" s="19">
+      <c r="F8" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160119</v>
       </c>
@@ -6282,14 +6680,15 @@
       <c r="C9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20"/>
+      <c r="E9" s="19">
         <v>14954</v>
       </c>
-      <c r="E9" s="19">
+      <c r="F9" s="19">
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160122</v>
       </c>
@@ -6299,14 +6698,15 @@
       <c r="C10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20"/>
+      <c r="E10" s="19">
         <v>4956</v>
       </c>
-      <c r="E10" s="19">
+      <c r="F10" s="19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160126</v>
       </c>
@@ -6316,14 +6716,15 @@
       <c r="C11" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19">
         <v>3957</v>
       </c>
-      <c r="E11" s="19">
+      <c r="F11" s="19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160127</v>
       </c>
@@ -6333,14 +6734,15 @@
       <c r="C12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20"/>
+      <c r="E12" s="19">
         <v>-502.8</v>
       </c>
-      <c r="E12" s="19">
+      <c r="F12" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20160202</v>
       </c>
@@ -6350,14 +6752,15 @@
       <c r="C13" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20"/>
+      <c r="E13" s="19">
         <v>9496.7999999999993</v>
       </c>
-      <c r="E13" s="19">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>20160711</v>
       </c>
@@ -6367,14 +6770,15 @@
       <c r="C14" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20"/>
+      <c r="E14" s="19">
         <v>20000</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>20160823</v>
       </c>
@@ -6384,16 +6788,76 @@
       <c r="C15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20"/>
+      <c r="E15" s="19">
         <v>36042</v>
       </c>
-      <c r="E15" s="19">
+      <c r="F15" s="19">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>20160823</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19">
+        <v>49311.5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>20160905</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19">
+        <v>49344</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>20160906</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="20">
+        <v>20</v>
+      </c>
+      <c r="E18" s="19">
+        <v>49326.3</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="拆借" sheetId="8" r:id="rId9"/>
     <sheet name="仓" sheetId="14" r:id="rId10"/>
     <sheet name="纪律" sheetId="9" r:id="rId11"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="601169 北京银行" sheetId="11" r:id="rId12"/>
     <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="239">
   <si>
     <t>时间</t>
   </si>
@@ -685,11 +685,6 @@
     <t>向上证50致敬之第二次</t>
   </si>
   <si>
-    <t xml:space="preserve">[BUY]  [151117 @ 67.88 - 160125 @ 55.00] [002594 sz.比亚迪] -18.975 count: 48
-[BUY]  [151217 @ 63.80 - 160125 @ 55.00] [002594 sz.比亚迪] -13.793 count: 26
-</t>
-  </si>
-  <si>
     <t>比亚迪</t>
   </si>
   <si>
@@ -789,14 +784,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[BUY]  [160330 @ 14.20 - 160725 @ 10.73] [000800 sz.一汽轿车] -24.437 count: 79
-[BUY]  [160406 @ 13.96 - 160725 @ 10.73] [000800 sz.一汽轿车] -23.138 count: 75
-[BUY]  [160527 @ 13.19 - 160725 @ 10.73] [000800 sz.一汽轿车] -18.650 count: 39
-[BUY]  [160608 @ 11.64 - 160725 @ 10.73] [000800 sz.一汽轿车] -7.818 count: 31
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>联众</t>
     <rPh sb="0" eb="1">
       <t>lian'zhong</t>
@@ -1049,14 +1036,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>hold</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5W</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>详细</t>
     <rPh sb="0" eb="1">
       <t>xiang'xi</t>
@@ -1074,45 +1053,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>卖出内蒙华电，收益30</t>
-    <rPh sb="0" eb="1">
-      <t>mai'chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei'meng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hua'dian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shou'yi</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>提</t>
-    <rPh sb="0" eb="1">
-      <t>ti</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出交通银行，盈利210，提10%</t>
-    <rPh sb="0" eb="1">
-      <t>mai'chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'ting'yin'h</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ying'li</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ti</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>IO</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1131,13 +1071,222 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>拆除金额</t>
+    <t>[BUY]  [151117 @ 67.88 - 160125 @ 55.00] [002594 sz.比亚迪] -18.975 count: 48
+[BUY]  [151217 @ 63.80 - 160125 @ 55.00] [002594 sz.比亚迪] -13.793 count: 26</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUY]  [160330 @ 14.20 - 160725 @ 10.73] [000800 sz.一汽轿车] -24.437 count: 79
+[BUY]  [160406 @ 13.96 - 160725 @ 10.73] [000800 sz.一汽轿车] -23.138 count: 75
+[BUY]  [160527 @ 13.19 - 160725 @ 10.73] [000800 sz.一汽轿车] -18.650 count: 39
+[BUY]  [160608 @ 11.64 - 160725 @ 10.73] [000800 sz.一汽轿车] -7.818 count: 31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG-SELL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆出金额</t>
     <rPh sb="0" eb="1">
       <t>chai'chu</t>
     </rPh>
+    <rPh sb="1" eb="2">
+      <t>chu</t>
+    </rPh>
     <rPh sb="2" eb="3">
       <t>jin'e</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数发出买入信号</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'hao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamar提示的买入，每日买入值最大，在份数之内的股票</t>
+    <rPh sb="5" eb="6">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zu'di'a</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'shu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi'nei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gu'p</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sig</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sig</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数发出买出信号</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'hao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单只股票卖出信号</t>
+    <rPh sb="0" eb="1">
+      <t>dan'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'hao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停后，第二天未一字板</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'ting'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'er't</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次卖出1/3左右</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'you</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1541,7 +1690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1694,6 +1843,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,10 +2463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2474,8 @@
     <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="109" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
@@ -2518,7 +2674,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2547,7 +2703,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2572,7 +2728,7 @@
         <v>-6840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="69" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>20150617</v>
       </c>
@@ -3089,7 +3245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="161" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="161" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>20150820</v>
       </c>
@@ -3138,7 +3294,7 @@
         <v>-1253</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>20150825</v>
       </c>
@@ -3167,7 +3323,7 @@
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>20150828</v>
       </c>
@@ -3193,7 +3349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>20150831</v>
       </c>
@@ -3368,7 +3524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>20151103</v>
       </c>
@@ -3435,7 +3591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>20151112</v>
       </c>
@@ -3633,14 +3789,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="54" t="s">
+      <c r="K48" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3693,12 +3849,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="54"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3751,12 +3907,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="54"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4185,7 +4341,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="55" t="s">
+      <c r="I69" s="57" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4211,7 +4367,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="55"/>
+      <c r="I70" s="57"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4221,28 +4377,28 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M71" s="1">
         <v>-13.151</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4296,14 +4452,14 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-    </row>
-    <row r="74" spans="1:16" s="38" customFormat="1" ht="69" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K73" s="56"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+    </row>
+    <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
         <v>20160126</v>
       </c>
@@ -4311,7 +4467,7 @@
         <v>2594</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74" s="38" t="s">
         <v>8</v>
@@ -4326,7 +4482,7 @@
         <v>-5327</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4337,7 +4493,7 @@
         <v>2673</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -4352,7 +4508,7 @@
         <v>-4654</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4363,10 +4519,10 @@
         <v>2673</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" s="1">
         <v>200</v>
@@ -4379,7 +4535,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="39">
         <v>20150831</v>
       </c>
@@ -4405,7 +4561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="39">
         <v>20160204</v>
       </c>
@@ -4439,7 +4595,7 @@
         <v>2594</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>18</v>
@@ -4454,7 +4610,7 @@
         <v>5460</v>
       </c>
       <c r="I79" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -4468,7 +4624,7 @@
         <v>143</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E80" s="1">
         <v>300</v>
@@ -4534,37 +4690,37 @@
         <v>200</v>
       </c>
       <c r="I82" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J82" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="J82" s="48" t="s">
+    </row>
+    <row r="83" spans="1:14" s="55" customFormat="1" ht="92" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="55">
+        <v>20160726</v>
+      </c>
+      <c r="B83" s="55">
+        <v>800</v>
+      </c>
+      <c r="C83" s="55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="115" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>20160726</v>
-      </c>
-      <c r="B83" s="26">
-        <v>800</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="1">
+      <c r="E83" s="55">
         <v>300</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="55">
         <v>10.88</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="55">
         <f>F83*E83*-1</f>
         <v>-3264.0000000000005</v>
       </c>
-      <c r="I83" s="21" t="s">
-        <v>169</v>
+      <c r="I83" s="54" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4575,13 +4731,13 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4592,10 +4748,10 @@
         <v>600703</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85" s="1">
         <v>300</v>
@@ -4608,7 +4764,7 @@
         <v>-3639.0000000000005</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4619,10 +4775,10 @@
         <v>600271</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E86" s="1">
         <v>300</v>
@@ -4635,22 +4791,22 @@
         <v>-6768</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M86" s="1">
         <v>-56.61</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4661,16 +4817,16 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="50">
         <v>20160816</v>
       </c>
@@ -4681,7 +4837,7 @@
         <v>29</v>
       </c>
       <c r="D88" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E88" s="50">
         <v>100</v>
@@ -4726,28 +4882,28 @@
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="I90" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M90" s="1">
         <v>4.8769999999999998</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4758,10 +4914,10 @@
         <v>600271</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E91" s="1">
         <v>300</v>
@@ -4774,22 +4930,22 @@
         <v>6984</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M91" s="1">
         <v>-56.61</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4800,10 +4956,10 @@
         <v>800</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E92" s="1">
         <v>300</v>
@@ -4816,7 +4972,7 @@
         <v>3240</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -4827,10 +4983,10 @@
         <v>600703</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E93" s="1">
         <v>300</v>
@@ -4843,10 +4999,10 @@
         <v>3654</v>
       </c>
       <c r="I93" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="53">
         <v>20150906</v>
       </c>
@@ -4857,7 +5013,7 @@
         <v>78</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E94" s="53">
         <v>100</v>
@@ -4871,11 +5027,36 @@
       </c>
       <c r="I94" s="11"/>
     </row>
+    <row r="95" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="55">
+        <v>20160907</v>
+      </c>
+      <c r="B95" s="55">
+        <v>601169</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="55">
+        <v>100</v>
+      </c>
+      <c r="F95" s="55">
+        <v>9.16</v>
+      </c>
+      <c r="G95" s="55">
+        <f>E95*F95</f>
+        <v>916</v>
+      </c>
+      <c r="I95" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C94">
+  <autoFilter ref="C1:C95">
     <filterColumn colId="0">
       <filters>
-        <filter val="交通银行"/>
+        <filter val="北京银行"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4895,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4907,41 +5088,41 @@
     <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>20160831</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="19">
         <v>100000</v>
@@ -4956,12 +5137,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>20160905</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="19">
         <v>100115</v>
@@ -4970,7 +5151,7 @@
         <v>45667.199999999997</v>
       </c>
       <c r="G3" s="19">
-        <f>F3/C3*10</f>
+        <f t="shared" ref="G3:G8" si="0">F3/C3*10</f>
         <v>4.5614743045497672</v>
       </c>
       <c r="H3" s="19">
@@ -4980,12 +5161,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20160905</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="19">
         <v>100114.7</v>
@@ -4994,7 +5175,7 @@
         <v>45667.199999999997</v>
       </c>
       <c r="G4" s="19">
-        <f>F4/C4*10</f>
+        <f t="shared" si="0"/>
         <v>4.5614879732946303</v>
       </c>
       <c r="H4" s="19">
@@ -5003,16 +5184,13 @@
       <c r="I4" s="19">
         <v>2000</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20160906</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="19">
         <f>D5+E5</f>
@@ -5028,7 +5206,7 @@
         <v>45166.8</v>
       </c>
       <c r="G5" s="19">
-        <f>F5/C5*10</f>
+        <f t="shared" si="0"/>
         <v>4.5325757431311615</v>
       </c>
       <c r="H5" s="19">
@@ -5036,6 +5214,130 @@
       </c>
       <c r="I5" s="19">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>20160908</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="19">
+        <f>D6+E6</f>
+        <v>99871.3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50517</v>
+      </c>
+      <c r="E6" s="19">
+        <v>49354.3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>43217</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="0"/>
+        <v>4.3272691954545497</v>
+      </c>
+      <c r="H6" s="19">
+        <v>50</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
+        <v>20160909</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="19">
+        <f>D7+E7</f>
+        <v>99830.3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50476</v>
+      </c>
+      <c r="E7" s="19">
+        <v>49354.3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>43217</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="0"/>
+        <v>4.3290463917267603</v>
+      </c>
+      <c r="H7" s="19">
+        <v>50</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>20160921</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="19">
+        <f>D8+E8</f>
+        <v>99093.9</v>
+      </c>
+      <c r="D8" s="19">
+        <v>51714.9</v>
+      </c>
+      <c r="E8" s="19">
+        <v>47379</v>
+      </c>
+      <c r="F8" s="19">
+        <v>48469</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="0"/>
+        <v>4.8912193384254739</v>
+      </c>
+      <c r="H8" s="19">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>20160921</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="19">
+        <f>D9+E9</f>
+        <v>99641.83</v>
+      </c>
+      <c r="D9" s="19">
+        <v>57250.83</v>
+      </c>
+      <c r="E9" s="19">
+        <v>42391</v>
+      </c>
+      <c r="F9" s="19">
+        <v>55308.2</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" ref="G9" si="1">F9/C9*10</f>
+        <v>5.5507009455767715</v>
+      </c>
+      <c r="H9" s="19">
+        <v>30</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3300</v>
       </c>
     </row>
   </sheetData>
@@ -5067,28 +5369,260 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43">
-        <v>10.75</v>
-      </c>
-      <c r="B3" s="43">
-        <v>600</v>
+        <v>160304</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43">
+        <v>-8.31</v>
+      </c>
+      <c r="E3" s="43">
+        <v>100</v>
+      </c>
+      <c r="F3" s="43">
+        <f>D3*E3</f>
+        <v>-831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>160309</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>-8.26</v>
+      </c>
+      <c r="E4" s="43">
+        <v>100</v>
+      </c>
+      <c r="F4" s="43">
+        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
+        <v>-826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>160425</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>-8.51</v>
+      </c>
+      <c r="E5" s="43">
+        <v>100</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="0"/>
+        <v>-851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>160629</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>-10.38</v>
+      </c>
+      <c r="E6" s="43">
+        <v>100</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="0"/>
+        <v>-1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>160704</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>-8.44</v>
+      </c>
+      <c r="E7" s="43">
+        <v>100</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="0"/>
+        <v>-844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>160815</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <v>-8.99</v>
+      </c>
+      <c r="E8" s="43">
+        <v>100</v>
+      </c>
+      <c r="F8" s="43">
+        <f t="shared" si="0"/>
+        <v>-899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>160907</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
+        <v>-9.17</v>
+      </c>
+      <c r="E9" s="43">
+        <v>100</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="0"/>
+        <v>-917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>160128</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10">
+        <v>7.59</v>
+      </c>
+      <c r="E10" s="43">
+        <v>300</v>
+      </c>
+      <c r="F10" s="43">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>160407</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11">
+        <v>8.1</v>
+      </c>
+      <c r="E11" s="43">
+        <v>300</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="0"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>160217</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12">
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="43">
+        <v>300</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="0"/>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>160324</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="E13" s="43">
+        <v>100</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" si="0"/>
+        <v>-821.00000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -5136,10 +5670,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>27</v>
@@ -5659,10 +6193,10 @@
         <v>6899</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -5687,10 +6221,10 @@
         <v>6899</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5706,7 +6240,7 @@
         <v>3158.73</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.3">
@@ -6131,13 +6665,13 @@
         <v>20160831</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1">
         <v>13.265000000000001</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6176,14 +6710,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6225,7 +6815,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6237,12 +6827,12 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
@@ -6538,10 +7128,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6551,13 +7141,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -6570,7 +7160,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>122</v>
@@ -6711,7 +7301,7 @@
         <v>20160126</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>137</v>
@@ -6729,7 +7319,7 @@
         <v>20160127</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>137</v>
@@ -6750,7 +7340,7 @@
         <v>121</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="19">
@@ -6765,7 +7355,7 @@
         <v>20160711</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>112</v>
@@ -6783,7 +7373,7 @@
         <v>20160823</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>112</v>
@@ -6798,10 +7388,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
-        <v>20160823</v>
+        <v>20160908</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>112</v>
@@ -6814,45 +7404,54 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
-        <v>20160905</v>
+        <v>20160909</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19">
-        <v>49344</v>
+        <v>49354</v>
       </c>
       <c r="F17" s="19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
-        <v>20160906</v>
+        <v>20160920</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="20">
-        <v>20</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="19">
-        <v>49326.3</v>
+        <v>47379</v>
       </c>
       <c r="F18" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>216</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>20160926</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19">
+        <v>42391</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
   <si>
     <t>时间</t>
   </si>
@@ -1287,6 +1287,17 @@
   </si>
   <si>
     <t>4.2W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <rPh sb="0" eb="1">
+      <t>shou'yi</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1428,6 +1439,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1690,7 +1714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,6 +1890,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5076,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5311,7 +5338,7 @@
     </row>
     <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
-        <v>20160921</v>
+        <v>20160926</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>203</v>
@@ -5338,6 +5365,37 @@
       </c>
       <c r="I9" s="19">
         <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
+        <v>20160927</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="19">
+        <f>D10+E10</f>
+        <v>99582.03</v>
+      </c>
+      <c r="D10" s="19">
+        <v>61189.03</v>
+      </c>
+      <c r="E10" s="19">
+        <v>38393</v>
+      </c>
+      <c r="F10" s="19">
+        <v>59513</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" ref="G10" si="2">F10/C10*10</f>
+        <v>5.9762790535601651</v>
+      </c>
+      <c r="H10" s="19">
+        <v>25</v>
+      </c>
+      <c r="I10" s="19">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -7128,19 +7186,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>110</v>
       </c>
@@ -7149,7 +7207,7 @@
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7168,11 +7226,14 @@
       <c r="F3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20151207</v>
       </c>
@@ -7190,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20151218</v>
       </c>
@@ -7208,7 +7269,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20151231</v>
       </c>
@@ -7223,8 +7284,9 @@
       <c r="F6" s="19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160106</v>
       </c>
@@ -7241,8 +7303,9 @@
       <c r="F7" s="19">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160113</v>
       </c>
@@ -7259,8 +7322,9 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160119</v>
       </c>
@@ -7277,8 +7341,9 @@
       <c r="F9" s="19">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160122</v>
       </c>
@@ -7295,8 +7360,9 @@
       <c r="F10" s="19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160126</v>
       </c>
@@ -7313,8 +7379,9 @@
       <c r="F11" s="19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160127</v>
       </c>
@@ -7331,8 +7398,9 @@
       <c r="F12" s="19">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20160202</v>
       </c>
@@ -7349,8 +7417,9 @@
       <c r="F13" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>20160711</v>
       </c>
@@ -7367,8 +7436,11 @@
       <c r="F14" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>20160823</v>
       </c>
@@ -7385,8 +7457,11 @@
       <c r="F15" s="19">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>20160908</v>
       </c>
@@ -7403,8 +7478,11 @@
       <c r="F16" s="19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="19">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>20160909</v>
       </c>
@@ -7421,8 +7499,12 @@
       <c r="F17" s="19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="19">
+        <f>E17-E16</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>20160920</v>
       </c>
@@ -7437,8 +7519,11 @@
       <c r="F18" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>20160926</v>
       </c>
@@ -7451,6 +7536,28 @@
         <v>42391</v>
       </c>
       <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>20160927</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19">
+        <v>38393</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
         <v>2</v>
       </c>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="244">
   <si>
     <t>时间</t>
   </si>
@@ -1298,6 +1298,18 @@
     <rPh sb="0" eb="1">
       <t>shou'yi</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1877,6 +1889,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1890,9 +1905,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2701,7 +2713,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="59" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2730,7 +2742,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3816,14 +3828,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="56" t="s">
+      <c r="K48" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -3876,12 +3888,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -3934,12 +3946,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4368,7 +4380,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="57" t="s">
+      <c r="I69" s="58" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4394,7 +4406,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="57"/>
+      <c r="I70" s="58"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4479,12 +4491,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="56"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5103,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5220,7 +5232,7 @@
         <v>203</v>
       </c>
       <c r="C5" s="19">
-        <f>D5+E5</f>
+        <f t="shared" ref="C5:C10" si="1">D5+E5</f>
         <v>99649.3</v>
       </c>
       <c r="D5" s="19">
@@ -5251,7 +5263,7 @@
         <v>203</v>
       </c>
       <c r="C6" s="19">
-        <f>D6+E6</f>
+        <f t="shared" si="1"/>
         <v>99871.3</v>
       </c>
       <c r="D6" s="19">
@@ -5282,7 +5294,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="19">
-        <f>D7+E7</f>
+        <f t="shared" si="1"/>
         <v>99830.3</v>
       </c>
       <c r="D7" s="19">
@@ -5313,7 +5325,7 @@
         <v>203</v>
       </c>
       <c r="C8" s="19">
-        <f>D8+E8</f>
+        <f t="shared" si="1"/>
         <v>99093.9</v>
       </c>
       <c r="D8" s="19">
@@ -5344,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="19">
-        <f>D9+E9</f>
+        <f t="shared" si="1"/>
         <v>99641.83</v>
       </c>
       <c r="D9" s="19">
@@ -5357,7 +5369,7 @@
         <v>55308.2</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" ref="G9" si="1">F9/C9*10</f>
+        <f t="shared" ref="G9" si="2">F9/C9*10</f>
         <v>5.5507009455767715</v>
       </c>
       <c r="H9" s="19">
@@ -5375,7 +5387,7 @@
         <v>203</v>
       </c>
       <c r="C10" s="19">
-        <f>D10+E10</f>
+        <f t="shared" si="1"/>
         <v>99582.03</v>
       </c>
       <c r="D10" s="19">
@@ -5388,13 +5400,106 @@
         <v>59513</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" ref="G10" si="2">F10/C10*10</f>
+        <f t="shared" ref="G10" si="3">F10/C10*10</f>
         <v>5.9762790535601651</v>
       </c>
       <c r="H10" s="19">
         <v>25</v>
       </c>
       <c r="I10" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
+        <v>20160928</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11" si="4">D11+E11</f>
+        <v>99516.03</v>
+      </c>
+      <c r="D11" s="19">
+        <v>65121.03</v>
+      </c>
+      <c r="E11" s="19">
+        <v>34395</v>
+      </c>
+      <c r="F11" s="19">
+        <v>59445.2</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" ref="G11" si="5">F11/C11*10</f>
+        <v>5.9734296072703064</v>
+      </c>
+      <c r="H11" s="19">
+        <v>25</v>
+      </c>
+      <c r="I11" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
+        <v>20160928</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12" si="6">D12+E12</f>
+        <v>99880.65</v>
+      </c>
+      <c r="D12" s="19">
+        <v>70481.649999999994</v>
+      </c>
+      <c r="E12" s="19">
+        <v>29399</v>
+      </c>
+      <c r="F12" s="19">
+        <v>68442</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" ref="G12" si="7">F12/C12*10</f>
+        <v>6.8523783135171836</v>
+      </c>
+      <c r="H12" s="19">
+        <v>25</v>
+      </c>
+      <c r="I12" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>20161012</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" ref="C13" si="8">D13+E13</f>
+        <v>101270.37</v>
+      </c>
+      <c r="D13" s="19">
+        <v>74853.37</v>
+      </c>
+      <c r="E13" s="19">
+        <v>26417</v>
+      </c>
+      <c r="F13" s="19">
+        <v>74046</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" ref="G13" si="9">F13/C13*10</f>
+        <v>7.3117141766145419</v>
+      </c>
+      <c r="H13" s="19">
+        <v>25</v>
+      </c>
+      <c r="I13" s="19">
         <v>4000</v>
       </c>
     </row>
@@ -7186,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7199,13 +7304,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -7226,7 +7331,7 @@
       <c r="F3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="56" t="s">
         <v>240</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -7559,6 +7664,63 @@
       </c>
       <c r="G20" s="19">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>20160928</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19">
+        <v>34395</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>20160930</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19">
+        <v>29399</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>20161012</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19">
+        <v>26417</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="245">
   <si>
     <t>时间</t>
   </si>
@@ -1310,6 +1310,10 @@
   </si>
   <si>
     <t>2.6W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5115,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5500,6 +5504,99 @@
         <v>25</v>
       </c>
       <c r="I13" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>20161013</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="19">
+        <f>D14+E14</f>
+        <v>101294.57</v>
+      </c>
+      <c r="D14" s="19">
+        <v>77876.570000000007</v>
+      </c>
+      <c r="E14" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F14" s="19">
+        <v>77665</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" ref="G14" si="10">F14/C14*10</f>
+        <v>7.6672421828731787</v>
+      </c>
+      <c r="H14" s="19">
+        <v>25</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>20161014</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="19">
+        <f>D15+E15</f>
+        <v>101278</v>
+      </c>
+      <c r="D15" s="19">
+        <v>77860</v>
+      </c>
+      <c r="E15" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F15" s="19">
+        <v>61226</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" ref="G15" si="11">F15/C15*10</f>
+        <v>6.0453405477991273</v>
+      </c>
+      <c r="H15" s="19">
+        <v>25</v>
+      </c>
+      <c r="I15" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>20161017</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="19">
+        <f>D16+E16</f>
+        <v>101097.11</v>
+      </c>
+      <c r="D16" s="19">
+        <v>77679.11</v>
+      </c>
+      <c r="E16" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F16" s="19">
+        <v>46249.2</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" ref="G16" si="12">F16/C16*10</f>
+        <v>4.5747301777469209</v>
+      </c>
+      <c r="H16" s="19">
+        <v>25</v>
+      </c>
+      <c r="I16" s="19">
         <v>4000</v>
       </c>
     </row>
@@ -7291,10 +7388,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7720,6 +7817,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>20161013</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
         <v>0</v>
       </c>
     </row>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="拆借" sheetId="8" r:id="rId9"/>
     <sheet name="仓" sheetId="14" r:id="rId10"/>
-    <sheet name="纪律" sheetId="9" r:id="rId11"/>
-    <sheet name="601169 北京银行" sheetId="11" r:id="rId12"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId13"/>
+    <sheet name="201609交易复盘" sheetId="15" r:id="rId11"/>
+    <sheet name="纪律" sheetId="9" r:id="rId12"/>
+    <sheet name="601169 北京银行" sheetId="11" r:id="rId13"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="246">
   <si>
     <t>时间</t>
   </si>
@@ -1314,6 +1315,16 @@
   </si>
   <si>
     <t>2.3W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金总计</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'ji</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5119,19 +5130,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5151,16 +5162,19 @@
         <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>20160831</v>
       </c>
@@ -5171,16 +5185,20 @@
         <v>100000</v>
       </c>
       <c r="G2" s="19">
+        <f>C2*(10-H2)/10</f>
+        <v>54000</v>
+      </c>
+      <c r="H2" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H2" s="19">
+      <c r="I2" s="19">
         <v>50</v>
       </c>
-      <c r="I2" s="19">
+      <c r="J2" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>20160905</v>
       </c>
@@ -5194,17 +5212,21 @@
         <v>45667.199999999997</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G8" si="0">F3/C3*10</f>
+        <f t="shared" ref="G3:G17" si="0">C3*(10-H3)/10</f>
+        <v>54447.8</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" ref="H3:H8" si="1">F3/C3*10</f>
         <v>4.5614743045497672</v>
       </c>
-      <c r="H3" s="19">
+      <c r="I3" s="19">
         <v>50</v>
       </c>
-      <c r="I3" s="19">
+      <c r="J3" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20160905</v>
       </c>
@@ -5219,16 +5241,20 @@
       </c>
       <c r="G4" s="19">
         <f t="shared" si="0"/>
+        <v>54447.500000000015</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="1"/>
         <v>4.5614879732946303</v>
       </c>
-      <c r="H4" s="19">
+      <c r="I4" s="19">
         <v>50</v>
       </c>
-      <c r="I4" s="19">
+      <c r="J4" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20160906</v>
       </c>
@@ -5236,7 +5262,7 @@
         <v>203</v>
       </c>
       <c r="C5" s="19">
-        <f t="shared" ref="C5:C10" si="1">D5+E5</f>
+        <f t="shared" ref="C5:C10" si="2">D5+E5</f>
         <v>99649.3</v>
       </c>
       <c r="D5" s="19">
@@ -5250,16 +5276,20 @@
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
+        <v>54482.5</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="1"/>
         <v>4.5325757431311615</v>
       </c>
-      <c r="H5" s="19">
+      <c r="I5" s="19">
         <v>50</v>
       </c>
-      <c r="I5" s="19">
+      <c r="J5" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20160908</v>
       </c>
@@ -5267,7 +5297,7 @@
         <v>203</v>
       </c>
       <c r="C6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99871.3</v>
       </c>
       <c r="D6" s="19">
@@ -5281,16 +5311,20 @@
       </c>
       <c r="G6" s="19">
         <f t="shared" si="0"/>
+        <v>56654.3</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="1"/>
         <v>4.3272691954545497</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="19">
         <v>50</v>
       </c>
-      <c r="I6" s="19">
+      <c r="J6" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160909</v>
       </c>
@@ -5298,7 +5332,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99830.3</v>
       </c>
       <c r="D7" s="19">
@@ -5312,16 +5346,20 @@
       </c>
       <c r="G7" s="19">
         <f t="shared" si="0"/>
+        <v>56613.3</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="1"/>
         <v>4.3290463917267603</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I7" s="19">
         <v>50</v>
       </c>
-      <c r="I7" s="19">
+      <c r="J7" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160921</v>
       </c>
@@ -5329,7 +5367,7 @@
         <v>203</v>
       </c>
       <c r="C8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99093.9</v>
       </c>
       <c r="D8" s="19">
@@ -5343,16 +5381,20 @@
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
+        <v>50624.899999999987</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="1"/>
         <v>4.8912193384254739</v>
       </c>
-      <c r="H8" s="19">
+      <c r="I8" s="19">
         <v>30</v>
       </c>
-      <c r="I8" s="19">
+      <c r="J8" s="19">
         <v>3300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160926</v>
       </c>
@@ -5360,7 +5402,7 @@
         <v>203</v>
       </c>
       <c r="C9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99641.83</v>
       </c>
       <c r="D9" s="19">
@@ -5373,17 +5415,21 @@
         <v>55308.2</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" ref="G9" si="2">F9/C9*10</f>
+        <f t="shared" si="0"/>
+        <v>44333.630000000012</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" ref="H9" si="3">F9/C9*10</f>
         <v>5.5507009455767715</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="19">
         <v>30</v>
       </c>
-      <c r="I9" s="19">
+      <c r="J9" s="19">
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160927</v>
       </c>
@@ -5391,7 +5437,7 @@
         <v>203</v>
       </c>
       <c r="C10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99582.03</v>
       </c>
       <c r="D10" s="19">
@@ -5404,17 +5450,21 @@
         <v>59513</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" ref="G10" si="3">F10/C10*10</f>
+        <f t="shared" si="0"/>
+        <v>40069.030000000006</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" ref="H10" si="4">F10/C10*10</f>
         <v>5.9762790535601651</v>
       </c>
-      <c r="H10" s="19">
+      <c r="I10" s="19">
         <v>25</v>
       </c>
-      <c r="I10" s="19">
+      <c r="J10" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160928</v>
       </c>
@@ -5422,7 +5472,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="19">
-        <f t="shared" ref="C11" si="4">D11+E11</f>
+        <f t="shared" ref="C11" si="5">D11+E11</f>
         <v>99516.03</v>
       </c>
       <c r="D11" s="19">
@@ -5435,17 +5485,21 @@
         <v>59445.2</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" ref="G11" si="5">F11/C11*10</f>
+        <f t="shared" si="0"/>
+        <v>40070.83</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" ref="H11" si="6">F11/C11*10</f>
         <v>5.9734296072703064</v>
       </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19">
         <v>25</v>
       </c>
-      <c r="I11" s="19">
+      <c r="J11" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160928</v>
       </c>
@@ -5453,7 +5507,7 @@
         <v>203</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" ref="C12" si="6">D12+E12</f>
+        <f t="shared" ref="C12" si="7">D12+E12</f>
         <v>99880.65</v>
       </c>
       <c r="D12" s="19">
@@ -5466,17 +5520,21 @@
         <v>68442</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" ref="G12" si="7">F12/C12*10</f>
+        <f t="shared" si="0"/>
+        <v>31438.649999999987</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" ref="H12" si="8">F12/C12*10</f>
         <v>6.8523783135171836</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I12" s="19">
         <v>25</v>
       </c>
-      <c r="I12" s="19">
+      <c r="J12" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20161012</v>
       </c>
@@ -5484,7 +5542,7 @@
         <v>203</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" ref="C13" si="8">D13+E13</f>
+        <f t="shared" ref="C13" si="9">D13+E13</f>
         <v>101270.37</v>
       </c>
       <c r="D13" s="19">
@@ -5497,17 +5555,21 @@
         <v>74046</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" ref="G13" si="9">F13/C13*10</f>
+        <f t="shared" si="0"/>
+        <v>27224.369999999995</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13" si="10">F13/C13*10</f>
         <v>7.3117141766145419</v>
       </c>
-      <c r="H13" s="19">
+      <c r="I13" s="19">
         <v>25</v>
       </c>
-      <c r="I13" s="19">
+      <c r="J13" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>20161013</v>
       </c>
@@ -5528,17 +5590,21 @@
         <v>77665</v>
       </c>
       <c r="G14" s="19">
-        <f t="shared" ref="G14" si="10">F14/C14*10</f>
+        <f t="shared" si="0"/>
+        <v>23629.57</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" ref="H14" si="11">F14/C14*10</f>
         <v>7.6672421828731787</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I14" s="19">
         <v>25</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>20161014</v>
       </c>
@@ -5559,17 +5625,21 @@
         <v>61226</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" ref="G15" si="11">F15/C15*10</f>
+        <f t="shared" si="0"/>
+        <v>40052</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" ref="H15" si="12">F15/C15*10</f>
         <v>6.0453405477991273</v>
       </c>
-      <c r="H15" s="19">
+      <c r="I15" s="19">
         <v>25</v>
       </c>
-      <c r="I15" s="19">
+      <c r="J15" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>20161017</v>
       </c>
@@ -5590,14 +5660,90 @@
         <v>46249.2</v>
       </c>
       <c r="G16" s="19">
-        <f t="shared" ref="G16" si="12">F16/C16*10</f>
+        <f t="shared" si="0"/>
+        <v>54847.909999999996</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" ref="H16" si="13">F16/C16*10</f>
         <v>4.5747301777469209</v>
       </c>
-      <c r="H16" s="19">
+      <c r="I16" s="19">
         <v>25</v>
       </c>
-      <c r="I16" s="19">
+      <c r="J16" s="19">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>20161018</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="19">
+        <f>D17+E17</f>
+        <v>101437</v>
+      </c>
+      <c r="D17" s="19">
+        <v>78019</v>
+      </c>
+      <c r="E17" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F17" s="19">
+        <v>44857</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="0"/>
+        <v>56580</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" ref="H17" si="14">F17/C17*10</f>
+        <v>4.4221536520204658</v>
+      </c>
+      <c r="I17" s="19">
+        <v>25</v>
+      </c>
+      <c r="J17" s="19">
+        <f>C17/I17</f>
+        <v>4057.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>20161020</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="19">
+        <f>D18+E18</f>
+        <v>100887</v>
+      </c>
+      <c r="D18" s="19">
+        <v>77469</v>
+      </c>
+      <c r="E18" s="19">
+        <v>23418</v>
+      </c>
+      <c r="F18" s="19">
+        <v>39194</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" ref="G18" si="15">C18*(10-H18)/10</f>
+        <v>61693</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" ref="H18" si="16">F18/C18*10</f>
+        <v>3.8849405770812888</v>
+      </c>
+      <c r="I18" s="19">
+        <v>25</v>
+      </c>
+      <c r="J18" s="19">
+        <f>C18/I18</f>
+        <v>4035.48</v>
       </c>
     </row>
   </sheetData>
@@ -5607,6 +5753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5627,12 +5788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5891,7 +6052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>

--- a/记录.xlsx
+++ b/记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="247">
   <si>
     <t>时间</t>
   </si>
@@ -1325,6 +1325,10 @@
     <rPh sb="2" eb="3">
       <t>zong'ji</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5130,10 +5134,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5577,7 +5581,7 @@
         <v>203</v>
       </c>
       <c r="C14" s="19">
-        <f>D14+E14</f>
+        <f t="shared" ref="C14:C19" si="11">D14+E14</f>
         <v>101294.57</v>
       </c>
       <c r="D14" s="19">
@@ -5594,7 +5598,7 @@
         <v>23629.57</v>
       </c>
       <c r="H14" s="19">
-        <f t="shared" ref="H14" si="11">F14/C14*10</f>
+        <f t="shared" ref="H14" si="12">F14/C14*10</f>
         <v>7.6672421828731787</v>
       </c>
       <c r="I14" s="19">
@@ -5612,7 +5616,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="19">
-        <f>D15+E15</f>
+        <f t="shared" si="11"/>
         <v>101278</v>
       </c>
       <c r="D15" s="19">
@@ -5629,7 +5633,7 @@
         <v>40052</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" ref="H15" si="12">F15/C15*10</f>
+        <f t="shared" ref="H15" si="13">F15/C15*10</f>
         <v>6.0453405477991273</v>
       </c>
       <c r="I15" s="19">
@@ -5647,7 +5651,7 @@
         <v>203</v>
       </c>
       <c r="C16" s="19">
-        <f>D16+E16</f>
+        <f t="shared" si="11"/>
         <v>101097.11</v>
       </c>
       <c r="D16" s="19">
@@ -5664,7 +5668,7 @@
         <v>54847.909999999996</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" ref="H16" si="13">F16/C16*10</f>
+        <f t="shared" ref="H16" si="14">F16/C16*10</f>
         <v>4.5747301777469209</v>
       </c>
       <c r="I16" s="19">
@@ -5682,7 +5686,7 @@
         <v>203</v>
       </c>
       <c r="C17" s="19">
-        <f>D17+E17</f>
+        <f t="shared" si="11"/>
         <v>101437</v>
       </c>
       <c r="D17" s="19">
@@ -5699,7 +5703,7 @@
         <v>56580</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" ref="H17" si="14">F17/C17*10</f>
+        <f t="shared" ref="H17" si="15">F17/C17*10</f>
         <v>4.4221536520204658</v>
       </c>
       <c r="I17" s="19">
@@ -5718,7 +5722,7 @@
         <v>203</v>
       </c>
       <c r="C18" s="19">
-        <f>D18+E18</f>
+        <f t="shared" si="11"/>
         <v>100887</v>
       </c>
       <c r="D18" s="19">
@@ -5731,11 +5735,11 @@
         <v>39194</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" ref="G18" si="15">C18*(10-H18)/10</f>
+        <f t="shared" ref="G18" si="16">C18*(10-H18)/10</f>
         <v>61693</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" ref="H18" si="16">F18/C18*10</f>
+        <f t="shared" ref="H18" si="17">F18/C18*10</f>
         <v>3.8849405770812888</v>
       </c>
       <c r="I18" s="19">
@@ -5744,6 +5748,48 @@
       <c r="J18" s="19">
         <f>C18/I18</f>
         <v>4035.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>20161026</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="11"/>
+        <v>101325.76000000001</v>
+      </c>
+      <c r="D19" s="19">
+        <v>38894.76</v>
+      </c>
+      <c r="E19" s="19">
+        <f>拆借!E25</f>
+        <v>62431</v>
+      </c>
+      <c r="F19" s="19">
+        <v>37002.400000000001</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" ref="G19" si="18">C19*(10-H19)/10</f>
+        <v>64323.360000000008</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" ref="H19" si="19">F19/C19*10</f>
+        <v>3.6518255574890328</v>
+      </c>
+      <c r="I19" s="19">
+        <v>25</v>
+      </c>
+      <c r="J19" s="19">
+        <f>C19/I19</f>
+        <v>4053.0304000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5756,7 +5802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7549,10 +7595,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8000,6 +8046,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>20161013</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19">
+        <f>23418+13+39000</f>
+        <v>62431</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
